--- a/FINISHED GOODS REGISTER 2021-22.xlsx
+++ b/FINISHED GOODS REGISTER 2021-22.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="106">
   <si>
     <t>DATE</t>
   </si>
@@ -321,9 +321,6 @@
     <t>07.05.2021</t>
   </si>
   <si>
-    <t>14.05.2021</t>
-  </si>
-  <si>
     <t>12.05.2021</t>
   </si>
   <si>
@@ -346,6 +343,15 @@
   </si>
   <si>
     <t>30.04.2021</t>
+  </si>
+  <si>
+    <t>17.05.2021</t>
+  </si>
+  <si>
+    <t>15.05.2021</t>
+  </si>
+  <si>
+    <t>18.05.2021</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1001,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,7 +1287,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B14" s="14">
         <f>I13</f>
@@ -1311,15 +1317,19 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B15" s="14">
         <f t="shared" ref="B15:B21" si="7">I14</f>
         <v>312</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14">
+        <v>312</v>
+      </c>
       <c r="D15" s="14">
         <f t="shared" ref="D15:D21" si="8">B15+C15</f>
-        <v>312</v>
+        <v>624</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1330,42 +1340,54 @@
       </c>
       <c r="I15" s="15">
         <f t="shared" ref="I15:I21" si="9">D15-H15</f>
-        <v>312</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B16" s="14">
         <f t="shared" si="7"/>
-        <v>312</v>
+        <v>624</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14">
         <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13"/>
+        <v>624</v>
+      </c>
+      <c r="E16" s="8">
+        <v>63</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="13">
+        <v>600</v>
+      </c>
       <c r="H16" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B17" s="14">
         <f t="shared" si="7"/>
-        <v>312</v>
-      </c>
-      <c r="C17" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="C17" s="14">
+        <v>360</v>
+      </c>
       <c r="D17" s="14">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1376,42 +1398,50 @@
       </c>
       <c r="I17" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B18" s="14">
         <f t="shared" si="7"/>
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14">
         <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="13"/>
+        <v>384</v>
+      </c>
+      <c r="E18" s="8">
+        <v>64</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="13">
+        <v>120</v>
+      </c>
       <c r="H18" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="9"/>
       <c r="B19" s="14">
         <f t="shared" si="7"/>
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1422,19 +1452,19 @@
       </c>
       <c r="I19" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9"/>
       <c r="B20" s="14">
         <f t="shared" si="7"/>
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1445,19 +1475,19 @@
       </c>
       <c r="I20" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="22"/>
       <c r="B21" s="14">
         <f t="shared" si="7"/>
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1468,7 +1498,7 @@
       </c>
       <c r="I21" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
@@ -1478,14 +1508,14 @@
       <c r="B22" s="27"/>
       <c r="C22" s="29">
         <f>SUM(C13:C21)</f>
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27">
         <f>SUM(G13:G21)</f>
-        <v>24</v>
+        <v>744</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="28"/>
@@ -1505,7 +1535,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2500,7 +2530,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="14">
         <f t="shared" ref="B38:B63" si="16">I37</f>
@@ -2527,7 +2557,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="14">
         <f t="shared" si="16"/>
@@ -2558,7 +2588,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="14">
         <f t="shared" si="16"/>
@@ -2573,7 +2603,7 @@
         <v>60</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G40" s="13">
         <v>120</v>
@@ -2589,7 +2619,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B41" s="14">
         <f t="shared" si="16"/>
@@ -2619,15 +2649,19 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="7"/>
+      <c r="A42" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="B42" s="14">
         <f t="shared" si="16"/>
         <v>1932</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="14">
+        <v>48</v>
+      </c>
       <c r="D42" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1980</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -2638,42 +2672,50 @@
       </c>
       <c r="I42" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="7"/>
+      <c r="A43" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="B43" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1980</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="13"/>
+        <v>1980</v>
+      </c>
+      <c r="E43" s="8">
+        <v>64</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="13">
+        <v>120</v>
+      </c>
       <c r="H43" s="14">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I43" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="7"/>
       <c r="B44" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -2684,19 +2726,19 @@
       </c>
       <c r="I44" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="7"/>
       <c r="B45" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -2707,19 +2749,19 @@
       </c>
       <c r="I45" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="B46" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -2730,19 +2772,19 @@
       </c>
       <c r="I46" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="7"/>
       <c r="B47" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -2753,19 +2795,19 @@
       </c>
       <c r="I47" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -2776,19 +2818,19 @@
       </c>
       <c r="I48" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -2799,19 +2841,19 @@
       </c>
       <c r="I49" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -2822,19 +2864,19 @@
       </c>
       <c r="I50" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -2845,19 +2887,19 @@
       </c>
       <c r="I51" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -2868,19 +2910,19 @@
       </c>
       <c r="I52" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -2891,19 +2933,19 @@
       </c>
       <c r="I53" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -2914,19 +2956,19 @@
       </c>
       <c r="I54" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -2937,19 +2979,19 @@
       </c>
       <c r="I55" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -2960,19 +3002,19 @@
       </c>
       <c r="I56" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -2983,19 +3025,19 @@
       </c>
       <c r="I57" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -3006,19 +3048,19 @@
       </c>
       <c r="I58" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -3029,19 +3071,19 @@
       </c>
       <c r="I59" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -3052,19 +3094,19 @@
       </c>
       <c r="I60" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -3075,19 +3117,19 @@
       </c>
       <c r="I61" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -3098,19 +3140,19 @@
       </c>
       <c r="I62" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
         <f t="shared" si="16"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -3121,7 +3163,7 @@
       </c>
       <c r="I63" s="15">
         <f t="shared" si="19"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1">
@@ -3131,14 +3173,14 @@
       <c r="B64" s="31"/>
       <c r="C64" s="34">
         <f>SUM(C36:C63)</f>
-        <v>2064</v>
+        <v>2112</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="34">
         <f>SUM(G36:G63)</f>
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="H64" s="31"/>
       <c r="I64" s="32"/>
@@ -3157,7 +3199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -3441,7 +3483,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="16">
         <f>I13</f>
@@ -3468,7 +3510,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="16">
         <f t="shared" ref="B15:B16" si="15">I14</f>
@@ -3478,24 +3520,24 @@
         <v>1128</v>
       </c>
       <c r="D15" s="14">
-        <f t="shared" ref="D15:D20" si="16">B15+C15</f>
+        <f t="shared" ref="D15:D16" si="16">B15+C15</f>
         <v>1668</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="8"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14">
-        <f t="shared" ref="H15:H20" si="17">G15</f>
+        <f t="shared" ref="H15:H16" si="17">G15</f>
         <v>0</v>
       </c>
       <c r="I15" s="15">
-        <f t="shared" ref="I15:I20" si="18">D15-H15</f>
+        <f t="shared" ref="I15:I16" si="18">D15-H15</f>
         <v>1668</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="16">
         <f t="shared" si="15"/>
@@ -3522,7 +3564,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="16">
         <f t="shared" ref="B17:B20" si="19">I16</f>
@@ -3537,7 +3579,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="13">
         <v>720</v>
@@ -3553,7 +3595,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="16">
         <f t="shared" si="19"/>
@@ -3580,7 +3622,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="16">
         <f t="shared" si="19"/>
@@ -3666,7 +3708,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4400,7 +4442,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="14">
         <f>I29</f>
@@ -4415,7 +4457,7 @@
         <v>54</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="24">
         <v>48</v>
@@ -4431,7 +4473,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B31" s="14">
         <f t="shared" ref="B31:B43" si="22">I30</f>
@@ -4461,15 +4503,19 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B32" s="14">
         <f t="shared" si="22"/>
         <v>720</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="14">
+        <v>1392</v>
+      </c>
       <c r="D32" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
+        <v>2112</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4480,42 +4526,54 @@
       </c>
       <c r="I32" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="9"/>
+      <c r="A33" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B33" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>2112</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="24"/>
+        <v>2112</v>
+      </c>
+      <c r="E33" s="8">
+        <v>63</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="24">
+        <v>1200</v>
+      </c>
       <c r="H33" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="9"/>
+      <c r="A34" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B34" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
-      </c>
-      <c r="C34" s="14"/>
+        <v>912</v>
+      </c>
+      <c r="C34" s="14">
+        <v>888</v>
+      </c>
       <c r="D34" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
+        <v>1800</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -4526,42 +4584,50 @@
       </c>
       <c r="I34" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="9"/>
+      <c r="A35" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B35" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>1800</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="24"/>
+        <v>1800</v>
+      </c>
+      <c r="E35" s="8">
+        <v>64</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="24">
+        <v>240</v>
+      </c>
       <c r="H35" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="9"/>
       <c r="B36" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -4572,19 +4638,19 @@
       </c>
       <c r="I36" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="9"/>
       <c r="B37" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -4595,19 +4661,19 @@
       </c>
       <c r="I37" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -4618,19 +4684,19 @@
       </c>
       <c r="I38" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="9"/>
       <c r="B39" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -4641,19 +4707,19 @@
       </c>
       <c r="I39" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="9"/>
       <c r="B40" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -4664,19 +4730,19 @@
       </c>
       <c r="I40" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="9"/>
       <c r="B41" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -4687,19 +4753,19 @@
       </c>
       <c r="I41" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="9"/>
       <c r="B42" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -4710,19 +4776,19 @@
       </c>
       <c r="I42" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1">
       <c r="A43" s="9"/>
       <c r="B43" s="14">
         <f t="shared" si="22"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14">
         <f t="shared" si="23"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -4733,7 +4799,7 @@
       </c>
       <c r="I43" s="15">
         <f t="shared" si="24"/>
-        <v>720</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" thickBot="1">
@@ -4743,14 +4809,14 @@
       <c r="B44" s="31"/>
       <c r="C44" s="34">
         <f>SUM(C29:C43)</f>
-        <v>0</v>
+        <v>2280</v>
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="34">
         <f>SUM(G29:G43)</f>
-        <v>1248</v>
+        <v>2688</v>
       </c>
       <c r="H44" s="31"/>
       <c r="I44" s="32"/>
@@ -4770,7 +4836,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5591,7 +5657,7 @@
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="14">
-        <f t="shared" ref="D29:D34" si="12">B29+C29</f>
+        <f t="shared" ref="D29:D32" si="12">B29+C29</f>
         <v>1650</v>
       </c>
       <c r="E29" s="10">
@@ -5604,11 +5670,11 @@
         <v>750</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29:H34" si="13">G29</f>
+        <f t="shared" ref="H29:H32" si="13">G29</f>
         <v>750</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" ref="I29:I34" si="14">D29-H29</f>
+        <f t="shared" ref="I29:I32" si="14">D29-H29</f>
         <v>900</v>
       </c>
     </row>
@@ -5703,7 +5769,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="16">
         <f t="shared" ref="B33:B34" si="15">I32</f>
@@ -5950,7 +6016,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="14">
         <f t="shared" si="22"/>
@@ -5981,7 +6047,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" s="14">
         <f t="shared" si="22"/>
@@ -6012,7 +6078,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="14">
         <f t="shared" si="22"/>
@@ -6043,7 +6109,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B48" s="14">
         <f t="shared" si="22"/>
@@ -6070,7 +6136,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B49" s="14">
         <f t="shared" si="22"/>
@@ -6100,15 +6166,19 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="9"/>
+      <c r="A50" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B50" s="14">
         <f t="shared" si="22"/>
         <v>6240</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="14">
+        <v>2970</v>
+      </c>
       <c r="D50" s="14">
         <f t="shared" si="23"/>
-        <v>6240</v>
+        <v>9210</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -6119,42 +6189,50 @@
       </c>
       <c r="I50" s="15">
         <f t="shared" si="24"/>
-        <v>6240</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="9"/>
+      <c r="A51" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B51" s="14">
         <f t="shared" si="22"/>
-        <v>6240</v>
+        <v>9210</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14">
         <f t="shared" si="23"/>
-        <v>6240</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="13"/>
+        <v>9210</v>
+      </c>
+      <c r="E51" s="8">
+        <v>64</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="13">
+        <v>300</v>
+      </c>
       <c r="H51" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I51" s="15">
         <f t="shared" si="24"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="9"/>
       <c r="B52" s="14">
         <f t="shared" si="22"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14">
         <f t="shared" si="23"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -6165,19 +6243,19 @@
       </c>
       <c r="I52" s="15">
         <f t="shared" si="24"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="9"/>
       <c r="B53" s="14">
         <f t="shared" si="22"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14">
         <f t="shared" si="23"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -6188,19 +6266,19 @@
       </c>
       <c r="I53" s="15">
         <f t="shared" si="24"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="9"/>
       <c r="B54" s="14">
         <f t="shared" si="22"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14">
         <f t="shared" si="23"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -6211,19 +6289,19 @@
       </c>
       <c r="I54" s="15">
         <f t="shared" si="24"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1">
       <c r="A55" s="9"/>
       <c r="B55" s="14">
         <f t="shared" si="22"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14">
         <f t="shared" si="23"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -6234,19 +6312,19 @@
       </c>
       <c r="I55" s="15">
         <f t="shared" si="24"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1">
       <c r="A56" s="9"/>
       <c r="B56" s="14">
         <f t="shared" si="22"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14">
         <f t="shared" si="23"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -6257,7 +6335,7 @@
       </c>
       <c r="I56" s="15">
         <f t="shared" si="24"/>
-        <v>6240</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1">
@@ -6267,14 +6345,14 @@
       <c r="B57" s="31"/>
       <c r="C57" s="34">
         <f>SUM(C40:C56)</f>
-        <v>10530</v>
+        <v>13500</v>
       </c>
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="34">
         <f>SUM(G40:G56)</f>
-        <v>8430</v>
+        <v>8730</v>
       </c>
       <c r="H57" s="31"/>
       <c r="I57" s="32"/>
@@ -6294,7 +6372,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:I23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6844,7 +6922,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7360,7 +7438,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="14">
         <f t="shared" ref="B19" si="8">I18</f>
@@ -7576,7 +7654,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B31" s="14">
         <f t="shared" si="17"/>
@@ -7606,7 +7684,9 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="B32" s="14">
         <f t="shared" si="17"/>
         <v>902</v>
@@ -7616,28 +7696,34 @@
         <f t="shared" si="18"/>
         <v>902</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="13"/>
+      <c r="E32" s="8">
+        <v>63</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="13">
+        <v>220</v>
+      </c>
       <c r="H32" s="14">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="19"/>
-        <v>902</v>
+        <v>682</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="14">
         <f t="shared" si="17"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14">
         <f t="shared" si="18"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -7648,19 +7734,19 @@
       </c>
       <c r="I33" s="15">
         <f t="shared" si="19"/>
-        <v>902</v>
+        <v>682</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="14">
         <f t="shared" si="17"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14">
         <f t="shared" si="18"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -7671,19 +7757,19 @@
       </c>
       <c r="I34" s="15">
         <f t="shared" si="19"/>
-        <v>902</v>
+        <v>682</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="14">
         <f t="shared" si="17"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14">
         <f t="shared" si="18"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -7694,19 +7780,19 @@
       </c>
       <c r="I35" s="15">
         <f t="shared" si="19"/>
-        <v>902</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="14">
         <f t="shared" si="17"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14">
         <f t="shared" si="18"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -7717,19 +7803,19 @@
       </c>
       <c r="I36" s="15">
         <f t="shared" si="19"/>
-        <v>902</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="14">
         <f t="shared" si="17"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14">
         <f t="shared" si="18"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -7740,19 +7826,19 @@
       </c>
       <c r="I37" s="15">
         <f t="shared" si="19"/>
-        <v>902</v>
+        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <f t="shared" si="17"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14">
         <f t="shared" si="18"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -7763,7 +7849,7 @@
       </c>
       <c r="I38" s="15">
         <f t="shared" si="19"/>
-        <v>902</v>
+        <v>682</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1">
@@ -7780,7 +7866,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="34">
         <f>SUM(G27:G38)</f>
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
@@ -7801,7 +7887,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8055,7 +8141,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="14">
         <f>I12</f>
@@ -8082,7 +8168,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="14">
         <f t="shared" ref="B14:B17" si="6">I13</f>
@@ -8109,7 +8195,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B15" s="14">
         <f t="shared" si="6"/>
@@ -8136,7 +8222,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B16" s="14">
         <f t="shared" si="6"/>
@@ -8222,7 +8308,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9260,7 +9346,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="14">
         <f t="shared" ref="B40:B55" si="14">I39</f>
@@ -9291,7 +9377,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="14">
         <f t="shared" si="14"/>
@@ -9318,7 +9404,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="14">
         <f t="shared" si="14"/>
@@ -9349,7 +9435,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="14">
         <f t="shared" si="14"/>
@@ -9380,7 +9466,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B44" s="14">
         <f t="shared" si="14"/>
@@ -9410,15 +9496,19 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="9"/>
+      <c r="A45" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B45" s="14">
         <f t="shared" si="14"/>
         <v>336</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="14">
+        <v>1104</v>
+      </c>
       <c r="D45" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
+        <v>1440</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -9429,42 +9519,54 @@
       </c>
       <c r="I45" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="9"/>
+      <c r="A46" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B46" s="14">
         <f t="shared" si="14"/>
-        <v>336</v>
+        <v>1440</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="13"/>
+        <v>1440</v>
+      </c>
+      <c r="E46" s="8">
+        <v>63</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="13">
+        <v>480</v>
+      </c>
       <c r="H46" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>960</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="9"/>
+      <c r="A47" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B47" s="14">
         <f t="shared" si="14"/>
-        <v>336</v>
-      </c>
-      <c r="C47" s="14"/>
+        <v>960</v>
+      </c>
+      <c r="C47" s="14">
+        <v>360</v>
+      </c>
       <c r="D47" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
+        <v>1320</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -9475,42 +9577,50 @@
       </c>
       <c r="I47" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="9"/>
+      <c r="A48" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B48" s="14">
         <f t="shared" si="14"/>
-        <v>336</v>
+        <v>1320</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="13"/>
+        <v>1320</v>
+      </c>
+      <c r="E48" s="8">
+        <v>64</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="13">
+        <v>1200</v>
+      </c>
       <c r="H48" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I48" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="9"/>
       <c r="B49" s="14">
         <f t="shared" si="14"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -9521,19 +9631,19 @@
       </c>
       <c r="I49" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="9"/>
       <c r="B50" s="14">
         <f t="shared" si="14"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -9544,19 +9654,19 @@
       </c>
       <c r="I50" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="9"/>
       <c r="B51" s="14">
         <f t="shared" si="14"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -9567,19 +9677,19 @@
       </c>
       <c r="I51" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="9"/>
       <c r="B52" s="14">
         <f t="shared" si="14"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -9590,19 +9700,19 @@
       </c>
       <c r="I52" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="9"/>
       <c r="B53" s="14">
         <f t="shared" si="14"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -9613,19 +9723,19 @@
       </c>
       <c r="I53" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="9"/>
       <c r="B54" s="14">
         <f t="shared" si="14"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -9636,19 +9746,19 @@
       </c>
       <c r="I54" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1">
       <c r="A55" s="9"/>
       <c r="B55" s="14">
         <f t="shared" si="14"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14">
         <f t="shared" si="15"/>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -9659,7 +9769,7 @@
       </c>
       <c r="I55" s="15">
         <f t="shared" si="16"/>
-        <v>336</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1">
@@ -9669,14 +9779,14 @@
       <c r="B56" s="31"/>
       <c r="C56" s="34">
         <f>SUM(C38:C55)</f>
-        <v>3096</v>
+        <v>4560</v>
       </c>
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
       <c r="G56" s="34">
         <f>SUM(G38:G55)</f>
-        <v>2760</v>
+        <v>4440</v>
       </c>
       <c r="H56" s="31"/>
       <c r="I56" s="32"/>
@@ -9696,7 +9806,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10817,7 +10927,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="16">
         <f t="shared" si="22"/>
@@ -10848,7 +10958,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" s="16">
         <f t="shared" si="22"/>
@@ -10878,7 +10988,9 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="9"/>
+      <c r="A45" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B45" s="16">
         <f t="shared" si="22"/>
         <v>1416</v>
@@ -10888,51 +11000,65 @@
         <f t="shared" si="19"/>
         <v>1416</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="16"/>
+      <c r="E45" s="12">
+        <v>63</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="16">
+        <v>600</v>
+      </c>
       <c r="H45" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>816</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="9"/>
+      <c r="A46" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B46" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>816</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="16"/>
+        <v>816</v>
+      </c>
+      <c r="E46" s="12">
+        <v>64</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="16">
+        <v>720</v>
+      </c>
       <c r="H46" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="9"/>
       <c r="B47" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="10"/>
@@ -10943,19 +11069,19 @@
       </c>
       <c r="I47" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="9"/>
       <c r="B48" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="10"/>
@@ -10966,19 +11092,19 @@
       </c>
       <c r="I48" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="9"/>
       <c r="B49" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="10"/>
@@ -10989,19 +11115,19 @@
       </c>
       <c r="I49" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="9"/>
       <c r="B50" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="10"/>
@@ -11012,19 +11138,19 @@
       </c>
       <c r="I50" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="9"/>
       <c r="B51" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="10"/>
@@ -11035,19 +11161,19 @@
       </c>
       <c r="I51" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="9"/>
       <c r="B52" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="10"/>
@@ -11058,19 +11184,19 @@
       </c>
       <c r="I52" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="9"/>
       <c r="B53" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="10"/>
@@ -11081,19 +11207,19 @@
       </c>
       <c r="I53" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="9"/>
       <c r="B54" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="10"/>
@@ -11104,19 +11230,19 @@
       </c>
       <c r="I54" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="9"/>
       <c r="B55" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="10"/>
@@ -11127,19 +11253,19 @@
       </c>
       <c r="I55" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="9"/>
       <c r="B56" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="10"/>
@@ -11150,19 +11276,19 @@
       </c>
       <c r="I56" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="9"/>
       <c r="B57" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="10"/>
@@ -11173,19 +11299,19 @@
       </c>
       <c r="I57" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="9"/>
       <c r="B58" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="10"/>
@@ -11196,19 +11322,19 @@
       </c>
       <c r="I58" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="9"/>
       <c r="B59" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="10"/>
@@ -11219,19 +11345,19 @@
       </c>
       <c r="I59" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="9"/>
       <c r="B60" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="10"/>
@@ -11242,19 +11368,19 @@
       </c>
       <c r="I60" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="9"/>
       <c r="B61" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="10"/>
@@ -11265,19 +11391,19 @@
       </c>
       <c r="I61" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="9"/>
       <c r="B62" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="10"/>
@@ -11288,19 +11414,19 @@
       </c>
       <c r="I62" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="9"/>
       <c r="B63" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="10"/>
@@ -11311,19 +11437,19 @@
       </c>
       <c r="I63" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="9"/>
       <c r="B64" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="10"/>
@@ -11334,19 +11460,19 @@
       </c>
       <c r="I64" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="9"/>
       <c r="B65" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="10"/>
@@ -11357,19 +11483,19 @@
       </c>
       <c r="I65" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="9"/>
       <c r="B66" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="10"/>
@@ -11380,19 +11506,19 @@
       </c>
       <c r="I66" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="9"/>
       <c r="B67" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="10"/>
@@ -11403,19 +11529,19 @@
       </c>
       <c r="I67" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1">
       <c r="A68" s="9"/>
       <c r="B68" s="16">
         <f t="shared" si="22"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="14">
         <f t="shared" si="19"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="10"/>
@@ -11426,7 +11552,7 @@
       </c>
       <c r="I68" s="15">
         <f t="shared" si="21"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1">
@@ -11443,7 +11569,7 @@
       <c r="F69" s="31"/>
       <c r="G69" s="34">
         <f>SUM(G38:G68)</f>
-        <v>1080</v>
+        <v>2400</v>
       </c>
       <c r="H69" s="31"/>
       <c r="I69" s="32"/>
@@ -11464,7 +11590,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13084,7 +13210,7 @@
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="14">
-        <f t="shared" ref="D56:D65" si="28">B56+C56</f>
+        <f t="shared" ref="D56:D63" si="28">B56+C56</f>
         <v>3168</v>
       </c>
       <c r="E56" s="12">
@@ -13097,11 +13223,11 @@
         <v>360</v>
       </c>
       <c r="H56" s="14">
-        <f t="shared" ref="H56:H65" si="29">G56</f>
+        <f t="shared" ref="H56:H63" si="29">G56</f>
         <v>360</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" ref="I56:I65" si="30">D56-H56</f>
+        <f t="shared" ref="I56:I63" si="30">D56-H56</f>
         <v>2808</v>
       </c>
     </row>
@@ -13316,7 +13442,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" s="16">
         <f t="shared" ref="B64:B65" si="31">I63</f>
@@ -13505,7 +13631,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" s="14">
         <f t="shared" si="38"/>
@@ -13532,7 +13658,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="14">
         <f t="shared" si="38"/>
@@ -13559,7 +13685,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" s="14">
         <f t="shared" si="38"/>
@@ -13590,7 +13716,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" s="14">
         <f t="shared" si="38"/>
@@ -13617,7 +13743,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" s="14">
         <f t="shared" si="38"/>
@@ -13648,7 +13774,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79" s="14">
         <f t="shared" si="38"/>
@@ -13679,7 +13805,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="14">
         <f t="shared" si="38"/>
@@ -13710,7 +13836,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="14">
         <f t="shared" si="38"/>
@@ -13741,7 +13867,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="14">
         <f t="shared" si="38"/>
@@ -13768,7 +13894,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B83" s="14">
         <f t="shared" si="38"/>
@@ -13795,7 +13921,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B84" s="14">
         <f t="shared" si="38"/>
@@ -13825,15 +13951,19 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="9"/>
+      <c r="A85" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B85" s="14">
         <f t="shared" si="38"/>
         <v>10080</v>
       </c>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1560</v>
+      </c>
       <c r="D85" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>11640</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -13844,42 +13974,54 @@
       </c>
       <c r="I85" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>11640</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="9"/>
+      <c r="A86" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B86" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>11640</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
-      </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="38"/>
+        <v>11640</v>
+      </c>
+      <c r="E86" s="8">
+        <v>63</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" s="38">
+        <v>5400</v>
+      </c>
       <c r="H86" s="14">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="9"/>
+      <c r="A87" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B87" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
-      </c>
-      <c r="C87" s="14"/>
+        <v>6240</v>
+      </c>
+      <c r="C87" s="14">
+        <v>1968</v>
+      </c>
       <c r="D87" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
@@ -13890,19 +14032,19 @@
       </c>
       <c r="I87" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="9"/>
       <c r="B88" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -13913,19 +14055,19 @@
       </c>
       <c r="I88" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="9"/>
       <c r="B89" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -13936,19 +14078,19 @@
       </c>
       <c r="I89" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="9"/>
       <c r="B90" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -13959,19 +14101,19 @@
       </c>
       <c r="I90" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="9"/>
       <c r="B91" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
@@ -13982,19 +14124,19 @@
       </c>
       <c r="I91" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="9"/>
       <c r="B92" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -14005,19 +14147,19 @@
       </c>
       <c r="I92" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="9"/>
       <c r="B93" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -14028,19 +14170,19 @@
       </c>
       <c r="I93" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="9"/>
       <c r="B94" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C94" s="14"/>
       <c r="D94" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -14051,19 +14193,19 @@
       </c>
       <c r="I94" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="9"/>
       <c r="B95" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -14074,19 +14216,19 @@
       </c>
       <c r="I95" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="9"/>
       <c r="B96" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -14097,19 +14239,19 @@
       </c>
       <c r="I96" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="9"/>
       <c r="B97" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -14120,19 +14262,19 @@
       </c>
       <c r="I97" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="9"/>
       <c r="B98" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -14143,19 +14285,19 @@
       </c>
       <c r="I98" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="9"/>
       <c r="B99" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -14166,19 +14308,19 @@
       </c>
       <c r="I99" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="9"/>
       <c r="B100" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -14189,19 +14331,19 @@
       </c>
       <c r="I100" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="9"/>
       <c r="B101" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -14212,19 +14354,19 @@
       </c>
       <c r="I101" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="9"/>
       <c r="B102" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
@@ -14235,19 +14377,19 @@
       </c>
       <c r="I102" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="9"/>
       <c r="B103" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C103" s="14"/>
       <c r="D103" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
@@ -14258,19 +14400,19 @@
       </c>
       <c r="I103" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="9"/>
       <c r="B104" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
@@ -14281,19 +14423,19 @@
       </c>
       <c r="I104" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="9"/>
       <c r="B105" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
@@ -14304,19 +14446,19 @@
       </c>
       <c r="I105" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="9"/>
       <c r="B106" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C106" s="14"/>
       <c r="D106" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -14327,19 +14469,19 @@
       </c>
       <c r="I106" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="9"/>
       <c r="B107" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C107" s="14"/>
       <c r="D107" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
@@ -14350,19 +14492,19 @@
       </c>
       <c r="I107" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="9"/>
       <c r="B108" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -14373,19 +14515,19 @@
       </c>
       <c r="I108" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="9"/>
       <c r="B109" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -14396,19 +14538,19 @@
       </c>
       <c r="I109" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="9"/>
       <c r="B110" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
@@ -14419,19 +14561,19 @@
       </c>
       <c r="I110" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="9"/>
       <c r="B111" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -14442,19 +14584,19 @@
       </c>
       <c r="I111" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="9"/>
       <c r="B112" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
@@ -14465,19 +14607,19 @@
       </c>
       <c r="I112" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="9"/>
       <c r="B113" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C113" s="14"/>
       <c r="D113" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
@@ -14488,19 +14630,19 @@
       </c>
       <c r="I113" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="9"/>
       <c r="B114" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
@@ -14511,19 +14653,19 @@
       </c>
       <c r="I114" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="9"/>
       <c r="B115" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C115" s="14"/>
       <c r="D115" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
@@ -14534,19 +14676,19 @@
       </c>
       <c r="I115" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="9"/>
       <c r="B116" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
@@ -14557,19 +14699,19 @@
       </c>
       <c r="I116" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="9"/>
       <c r="B117" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
@@ -14580,19 +14722,19 @@
       </c>
       <c r="I117" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="9"/>
       <c r="B118" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
@@ -14603,19 +14745,19 @@
       </c>
       <c r="I118" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="9"/>
       <c r="B119" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C119" s="14"/>
       <c r="D119" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
@@ -14626,19 +14768,19 @@
       </c>
       <c r="I119" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="9"/>
       <c r="B120" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C120" s="14"/>
       <c r="D120" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -14649,19 +14791,19 @@
       </c>
       <c r="I120" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="9"/>
       <c r="B121" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
@@ -14672,19 +14814,19 @@
       </c>
       <c r="I121" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="9"/>
       <c r="B122" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
@@ -14695,19 +14837,19 @@
       </c>
       <c r="I122" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="9"/>
       <c r="B123" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C123" s="14"/>
       <c r="D123" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
@@ -14718,19 +14860,19 @@
       </c>
       <c r="I123" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="9"/>
       <c r="B124" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
@@ -14741,19 +14883,19 @@
       </c>
       <c r="I124" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="9"/>
       <c r="B125" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C125" s="14"/>
       <c r="D125" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -14764,19 +14906,19 @@
       </c>
       <c r="I125" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="9"/>
       <c r="B126" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C126" s="14"/>
       <c r="D126" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -14787,19 +14929,19 @@
       </c>
       <c r="I126" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="9"/>
       <c r="B127" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
@@ -14810,19 +14952,19 @@
       </c>
       <c r="I127" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="9"/>
       <c r="B128" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
@@ -14833,19 +14975,19 @@
       </c>
       <c r="I128" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="9"/>
       <c r="B129" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -14856,19 +14998,19 @@
       </c>
       <c r="I129" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="9"/>
       <c r="B130" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
@@ -14879,19 +15021,19 @@
       </c>
       <c r="I130" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="9"/>
       <c r="B131" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
@@ -14902,19 +15044,19 @@
       </c>
       <c r="I131" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="9"/>
       <c r="B132" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C132" s="14"/>
       <c r="D132" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -14925,19 +15067,19 @@
       </c>
       <c r="I132" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="9"/>
       <c r="B133" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C133" s="14"/>
       <c r="D133" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
@@ -14948,19 +15090,19 @@
       </c>
       <c r="I133" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75" thickBot="1">
       <c r="A134" s="9"/>
       <c r="B134" s="14">
         <f t="shared" si="38"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="C134" s="14"/>
       <c r="D134" s="14">
         <f t="shared" si="39"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
@@ -14971,7 +15113,7 @@
       </c>
       <c r="I134" s="15">
         <f t="shared" si="40"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75" thickBot="1">
@@ -14981,14 +15123,14 @@
       <c r="B135" s="31"/>
       <c r="C135" s="34">
         <f>SUM(C71:C134)</f>
-        <v>18408</v>
+        <v>21936</v>
       </c>
       <c r="D135" s="31"/>
       <c r="E135" s="31"/>
       <c r="F135" s="31"/>
       <c r="G135" s="37">
         <f>SUM(G71:G134)</f>
-        <v>11280</v>
+        <v>16680</v>
       </c>
       <c r="H135" s="40"/>
       <c r="I135" s="32"/>

--- a/FINISHED GOODS REGISTER 2021-22.xlsx
+++ b/FINISHED GOODS REGISTER 2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2019-20-1kg PREMIUM" sheetId="29" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="118">
   <si>
     <t>DATE</t>
   </si>
@@ -352,6 +352,42 @@
   </si>
   <si>
     <t>18.05.2021</t>
+  </si>
+  <si>
+    <t>19.05.2021</t>
+  </si>
+  <si>
+    <t>20.05.2021</t>
+  </si>
+  <si>
+    <t>21.05.2021</t>
+  </si>
+  <si>
+    <t>22.05.2021</t>
+  </si>
+  <si>
+    <t>24.05.2021</t>
+  </si>
+  <si>
+    <t>25.05.2021</t>
+  </si>
+  <si>
+    <t>26.05.2021</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>27.05.2021</t>
+  </si>
+  <si>
+    <t>28.05.2021</t>
+  </si>
+  <si>
+    <t>29.05.2021</t>
+  </si>
+  <si>
+    <t>31.05.2021</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1037,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1433,7 +1469,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B19" s="14">
         <f t="shared" si="7"/>
         <v>264</v>
@@ -1443,28 +1481,38 @@
         <f t="shared" si="8"/>
         <v>264</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="13"/>
+      <c r="E19" s="8">
+        <v>66</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="13">
+        <v>72</v>
+      </c>
       <c r="H19" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="9"/>
-        <v>264</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="14">
         <f t="shared" si="7"/>
-        <v>264</v>
-      </c>
-      <c r="C20" s="14"/>
+        <v>192</v>
+      </c>
+      <c r="C20" s="14">
+        <v>360</v>
+      </c>
       <c r="D20" s="14">
         <f t="shared" si="8"/>
-        <v>264</v>
+        <v>552</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1475,19 +1523,19 @@
       </c>
       <c r="I20" s="15">
         <f t="shared" si="9"/>
-        <v>264</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="22"/>
       <c r="B21" s="14">
         <f t="shared" si="7"/>
-        <v>264</v>
+        <v>552</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14">
         <f t="shared" si="8"/>
-        <v>264</v>
+        <v>552</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1498,7 +1546,7 @@
       </c>
       <c r="I21" s="15">
         <f t="shared" si="9"/>
-        <v>264</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
@@ -1508,14 +1556,14 @@
       <c r="B22" s="27"/>
       <c r="C22" s="29">
         <f>SUM(C13:C21)</f>
-        <v>672</v>
+        <v>1032</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27">
         <f>SUM(G13:G21)</f>
-        <v>744</v>
+        <v>816</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="28"/>
@@ -1534,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2707,15 +2755,19 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="7"/>
+      <c r="A44" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B44" s="14">
         <f t="shared" si="16"/>
         <v>1860</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="14">
+        <v>300</v>
+      </c>
       <c r="D44" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2160</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -2726,19 +2778,23 @@
       </c>
       <c r="I44" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="7"/>
+      <c r="A45" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="B45" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
-      </c>
-      <c r="C45" s="14"/>
+        <v>2160</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1284</v>
+      </c>
       <c r="D45" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>3444</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -2749,42 +2805,54 @@
       </c>
       <c r="I45" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="7"/>
+      <c r="A46" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="B46" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>3444</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="13"/>
+        <v>3444</v>
+      </c>
+      <c r="E46" s="8">
+        <v>70</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="13">
+        <v>2100</v>
+      </c>
       <c r="H46" s="14">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="B47" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
-      </c>
-      <c r="C47" s="14"/>
+        <v>1344</v>
+      </c>
+      <c r="C47" s="14">
+        <v>864</v>
+      </c>
       <c r="D47" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -2795,19 +2863,19 @@
       </c>
       <c r="I47" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -2818,19 +2886,19 @@
       </c>
       <c r="I48" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -2841,19 +2909,19 @@
       </c>
       <c r="I49" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -2864,19 +2932,19 @@
       </c>
       <c r="I50" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -2887,19 +2955,19 @@
       </c>
       <c r="I51" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -2910,19 +2978,19 @@
       </c>
       <c r="I52" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -2933,19 +3001,19 @@
       </c>
       <c r="I53" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -2956,19 +3024,19 @@
       </c>
       <c r="I54" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -2979,19 +3047,19 @@
       </c>
       <c r="I55" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -3002,19 +3070,19 @@
       </c>
       <c r="I56" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -3025,19 +3093,19 @@
       </c>
       <c r="I57" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -3048,19 +3116,19 @@
       </c>
       <c r="I58" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -3071,19 +3139,19 @@
       </c>
       <c r="I59" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -3094,19 +3162,19 @@
       </c>
       <c r="I60" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -3117,19 +3185,19 @@
       </c>
       <c r="I61" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -3140,19 +3208,19 @@
       </c>
       <c r="I62" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
         <f t="shared" si="16"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14">
         <f t="shared" si="17"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -3163,7 +3231,7 @@
       </c>
       <c r="I63" s="15">
         <f t="shared" si="19"/>
-        <v>1860</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1">
@@ -3173,14 +3241,14 @@
       <c r="B64" s="31"/>
       <c r="C64" s="34">
         <f>SUM(C36:C63)</f>
-        <v>2112</v>
+        <v>4560</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="34">
         <f>SUM(G36:G63)</f>
-        <v>660</v>
+        <v>2760</v>
       </c>
       <c r="H64" s="31"/>
       <c r="I64" s="32"/>
@@ -3197,10 +3265,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3567,12 +3635,12 @@
         <v>95</v>
       </c>
       <c r="B17" s="16">
-        <f t="shared" ref="B17:B20" si="19">I16</f>
+        <f t="shared" ref="B17:B19" si="19">I16</f>
         <v>2256</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="14">
-        <f t="shared" ref="D17:D20" si="20">B17+C17</f>
+        <f t="shared" ref="D17:D19" si="20">B17+C17</f>
         <v>2256</v>
       </c>
       <c r="E17" s="17">
@@ -3585,11 +3653,11 @@
         <v>720</v>
       </c>
       <c r="H17" s="14">
-        <f t="shared" ref="H17:H20" si="21">G17</f>
+        <f t="shared" ref="H17:H19" si="21">G17</f>
         <v>720</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" ref="I17:I20" si="22">D17-H17</f>
+        <f t="shared" ref="I17:I19" si="22">D17-H17</f>
         <v>1536</v>
       </c>
     </row>
@@ -3651,47 +3719,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="B20" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="13"/>
+        <f t="shared" ref="B20:B21" si="23">I19</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1236</v>
+      </c>
       <c r="D20" s="14">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" ref="D20:D26" si="24">B20+C20</f>
+        <v>1236</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
       <c r="G20" s="13"/>
       <c r="H20" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H20:H26" si="25">G20</f>
         <v>0</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A21" s="35" t="s">
+        <f t="shared" ref="I20:I26" si="26">D20-H20</f>
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="16">
+        <f t="shared" si="23"/>
+        <v>1236</v>
+      </c>
+      <c r="C21" s="13">
+        <v>564</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="24"/>
+        <v>1800</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="26"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9"/>
+      <c r="B22" s="16">
+        <f t="shared" ref="B22:B26" si="27">I21</f>
+        <v>1800</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14">
+        <f t="shared" ref="D22:D26" si="28">B22+C22</f>
+        <v>1800</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14">
+        <f t="shared" ref="H22:H26" si="29">G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" ref="I22:I26" si="30">D22-H22</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9"/>
+      <c r="B23" s="16">
+        <f t="shared" si="27"/>
+        <v>1800</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14">
+        <f t="shared" si="28"/>
+        <v>1800</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="30"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9"/>
+      <c r="B24" s="16">
+        <f t="shared" si="27"/>
+        <v>1800</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14">
+        <f t="shared" si="28"/>
+        <v>1800</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="30"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9"/>
+      <c r="B25" s="16">
+        <f t="shared" si="27"/>
+        <v>1800</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14">
+        <f t="shared" si="28"/>
+        <v>1800</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="30"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="16">
+        <f t="shared" si="27"/>
+        <v>1800</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14">
+        <f t="shared" si="28"/>
+        <v>1800</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="30"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A27" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="34">
-        <f>SUM(C13:C20)</f>
+      <c r="B27" s="31"/>
+      <c r="C27" s="34">
+        <f>SUM(C13:C26)</f>
+        <v>4932</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="34">
+        <f>SUM(G13:G26)</f>
         <v>3132</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="34">
-        <f>SUM(G13:G20)</f>
-        <v>3132</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3708,7 +3922,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4619,7 +4833,9 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="9"/>
+      <c r="A36" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="B36" s="14">
         <f t="shared" si="22"/>
         <v>1560</v>
@@ -4629,51 +4845,69 @@
         <f t="shared" si="23"/>
         <v>1560</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="24"/>
+      <c r="E36" s="8">
+        <v>65</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="24">
+        <v>72</v>
+      </c>
       <c r="H36" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="24"/>
-        <v>1560</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="9"/>
+      <c r="A37" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B37" s="14">
         <f t="shared" si="22"/>
-        <v>1560</v>
+        <v>1488</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14">
         <f t="shared" si="23"/>
-        <v>1560</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="24"/>
+        <v>1488</v>
+      </c>
+      <c r="E37" s="8">
+        <v>66</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="24">
+        <v>48</v>
+      </c>
       <c r="H37" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="24"/>
-        <v>1560</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="9"/>
+      <c r="A38" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="B38" s="14">
         <f t="shared" si="22"/>
-        <v>1560</v>
-      </c>
-      <c r="C38" s="14"/>
+        <v>1440</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1032</v>
+      </c>
       <c r="D38" s="14">
         <f t="shared" si="23"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -4684,19 +4918,19 @@
       </c>
       <c r="I38" s="15">
         <f t="shared" si="24"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="9"/>
       <c r="B39" s="14">
         <f t="shared" si="22"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14">
         <f t="shared" si="23"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -4707,19 +4941,19 @@
       </c>
       <c r="I39" s="15">
         <f t="shared" si="24"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="9"/>
       <c r="B40" s="14">
         <f t="shared" si="22"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14">
         <f t="shared" si="23"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -4730,19 +4964,19 @@
       </c>
       <c r="I40" s="15">
         <f t="shared" si="24"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="9"/>
       <c r="B41" s="14">
         <f t="shared" si="22"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14">
         <f t="shared" si="23"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -4753,19 +4987,19 @@
       </c>
       <c r="I41" s="15">
         <f t="shared" si="24"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="9"/>
       <c r="B42" s="14">
         <f t="shared" si="22"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14">
         <f t="shared" si="23"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -4776,19 +5010,19 @@
       </c>
       <c r="I42" s="15">
         <f t="shared" si="24"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1">
       <c r="A43" s="9"/>
       <c r="B43" s="14">
         <f t="shared" si="22"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14">
         <f t="shared" si="23"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -4799,7 +5033,7 @@
       </c>
       <c r="I43" s="15">
         <f t="shared" si="24"/>
-        <v>1560</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" thickBot="1">
@@ -4809,14 +5043,14 @@
       <c r="B44" s="31"/>
       <c r="C44" s="34">
         <f>SUM(C29:C43)</f>
-        <v>2280</v>
+        <v>3312</v>
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="34">
         <f>SUM(G29:G43)</f>
-        <v>2688</v>
+        <v>2808</v>
       </c>
       <c r="H44" s="31"/>
       <c r="I44" s="32"/>
@@ -4833,10 +5067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5921,7 +6155,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="13"/>
       <c r="H41" s="14">
-        <f t="shared" ref="H41:H56" si="20">G41</f>
+        <f t="shared" ref="H41:H55" si="20">G41</f>
         <v>0</v>
       </c>
       <c r="I41" s="15">
@@ -5934,14 +6168,14 @@
         <v>91</v>
       </c>
       <c r="B42" s="14">
-        <f t="shared" ref="B42:B56" si="22">I41</f>
+        <f t="shared" ref="B42:B55" si="22">I41</f>
         <v>5580</v>
       </c>
       <c r="C42" s="14">
         <v>1440</v>
       </c>
       <c r="D42" s="14">
-        <f t="shared" ref="D42:D56" si="23">B42+C42</f>
+        <f t="shared" ref="D42:D55" si="23">B42+C42</f>
         <v>7020</v>
       </c>
       <c r="E42" s="8"/>
@@ -5952,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" ref="I42:I56" si="24">D42-H42</f>
+        <f t="shared" ref="I42:I55" si="24">D42-H42</f>
         <v>7020</v>
       </c>
     </row>
@@ -6224,15 +6458,19 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="9"/>
+      <c r="A52" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="B52" s="14">
         <f t="shared" si="22"/>
         <v>8910</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="14">
+        <v>1800</v>
+      </c>
       <c r="D52" s="14">
         <f t="shared" si="23"/>
-        <v>8910</v>
+        <v>10710</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -6243,19 +6481,23 @@
       </c>
       <c r="I52" s="15">
         <f t="shared" si="24"/>
-        <v>8910</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="9"/>
+      <c r="A53" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="B53" s="14">
         <f t="shared" si="22"/>
-        <v>8910</v>
-      </c>
-      <c r="C53" s="14"/>
+        <v>10710</v>
+      </c>
+      <c r="C53" s="14">
+        <v>1200</v>
+      </c>
       <c r="D53" s="14">
         <f t="shared" si="23"/>
-        <v>8910</v>
+        <v>11910</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -6266,96 +6508,259 @@
       </c>
       <c r="I53" s="15">
         <f t="shared" si="24"/>
-        <v>8910</v>
+        <v>11910</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="9"/>
+      <c r="A54" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B54" s="14">
         <f t="shared" si="22"/>
-        <v>8910</v>
+        <v>11910</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14">
         <f t="shared" si="23"/>
-        <v>8910</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="13"/>
+        <v>11910</v>
+      </c>
+      <c r="E54" s="8">
+        <v>67</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="13">
+        <v>900</v>
+      </c>
       <c r="H54" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="24"/>
-        <v>8910</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A55" s="9"/>
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B55" s="14">
         <f t="shared" si="22"/>
-        <v>8910</v>
+        <v>11010</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14">
         <f t="shared" si="23"/>
-        <v>8910</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="13"/>
+        <v>11010</v>
+      </c>
+      <c r="E55" s="8">
+        <v>68</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="13">
+        <v>300</v>
+      </c>
       <c r="H55" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="24"/>
-        <v>8910</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A56" s="9"/>
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="B56" s="14">
-        <f t="shared" si="22"/>
-        <v>8910</v>
+        <f t="shared" ref="B56:B61" si="25">I55</f>
+        <v>10710</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14">
-        <f t="shared" si="23"/>
-        <v>8910</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="13"/>
+        <f t="shared" ref="D56:D61" si="26">B56+C56</f>
+        <v>10710</v>
+      </c>
+      <c r="E56" s="8">
+        <v>70</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="13">
+        <v>3600</v>
+      </c>
       <c r="H56" s="14">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" ref="H56:H61" si="27">G56</f>
+        <v>3600</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="24"/>
-        <v>8910</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A57" s="33" t="s">
+        <f t="shared" ref="I56:I61" si="28">D56-H56</f>
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="14">
+        <f t="shared" si="25"/>
+        <v>7110</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14">
+        <f t="shared" si="26"/>
+        <v>7110</v>
+      </c>
+      <c r="E57" s="8">
+        <v>71</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="13">
+        <v>150</v>
+      </c>
+      <c r="H57" s="14">
+        <f t="shared" si="27"/>
+        <v>150</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" si="28"/>
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="14">
+        <f t="shared" si="25"/>
+        <v>6960</v>
+      </c>
+      <c r="C58" s="14">
+        <v>5370</v>
+      </c>
+      <c r="D58" s="14">
+        <f t="shared" si="26"/>
+        <v>12330</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="15">
+        <f t="shared" si="28"/>
+        <v>12330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="14">
+        <f t="shared" si="25"/>
+        <v>12330</v>
+      </c>
+      <c r="C59" s="14">
+        <v>780</v>
+      </c>
+      <c r="D59" s="14">
+        <f t="shared" si="26"/>
+        <v>13110</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="15">
+        <f t="shared" si="28"/>
+        <v>13110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="14">
+        <f t="shared" si="25"/>
+        <v>13110</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14">
+        <f t="shared" si="26"/>
+        <v>13110</v>
+      </c>
+      <c r="E60" s="8">
+        <v>75</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="13">
+        <v>450</v>
+      </c>
+      <c r="H60" s="14">
+        <f t="shared" si="27"/>
+        <v>450</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="28"/>
+        <v>12660</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A61" s="9"/>
+      <c r="B61" s="14">
+        <f t="shared" si="25"/>
+        <v>12660</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14">
+        <f t="shared" si="26"/>
+        <v>12660</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="15">
+        <f t="shared" si="28"/>
+        <v>12660</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A62" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="34">
-        <f>SUM(C40:C56)</f>
-        <v>13500</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="34">
-        <f>SUM(G40:G56)</f>
-        <v>8730</v>
-      </c>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="34">
+        <f>SUM(C40:C61)</f>
+        <v>22650</v>
+      </c>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="34">
+        <f>SUM(G40:G61)</f>
+        <v>14130</v>
+      </c>
+      <c r="H62" s="31"/>
+      <c r="I62" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6922,7 +7327,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7715,7 +8120,9 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="7"/>
+      <c r="A33" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="B33" s="14">
         <f t="shared" si="17"/>
         <v>682</v>
@@ -7725,28 +8132,38 @@
         <f t="shared" si="18"/>
         <v>682</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="13"/>
+      <c r="E33" s="8">
+        <v>70</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="13">
+        <v>330</v>
+      </c>
       <c r="H33" s="14">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="19"/>
-        <v>682</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="14">
         <f t="shared" si="17"/>
-        <v>682</v>
-      </c>
-      <c r="C34" s="14"/>
+        <v>352</v>
+      </c>
+      <c r="C34" s="14">
+        <v>110</v>
+      </c>
       <c r="D34" s="14">
         <f t="shared" si="18"/>
-        <v>682</v>
+        <v>462</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -7757,19 +8174,23 @@
       </c>
       <c r="I34" s="15">
         <f t="shared" si="19"/>
-        <v>682</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="B35" s="14">
         <f t="shared" si="17"/>
-        <v>682</v>
-      </c>
-      <c r="C35" s="14"/>
+        <v>462</v>
+      </c>
+      <c r="C35" s="14">
+        <v>242</v>
+      </c>
       <c r="D35" s="14">
         <f t="shared" si="18"/>
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -7780,19 +8201,23 @@
       </c>
       <c r="I35" s="15">
         <f t="shared" si="19"/>
-        <v>682</v>
+        <v>704</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="7"/>
+      <c r="A36" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="B36" s="14">
         <f t="shared" si="17"/>
-        <v>682</v>
-      </c>
-      <c r="C36" s="14"/>
+        <v>704</v>
+      </c>
+      <c r="C36" s="14">
+        <v>242</v>
+      </c>
       <c r="D36" s="14">
         <f t="shared" si="18"/>
-        <v>682</v>
+        <v>946</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -7803,19 +8228,19 @@
       </c>
       <c r="I36" s="15">
         <f t="shared" si="19"/>
-        <v>682</v>
+        <v>946</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="14">
         <f t="shared" si="17"/>
-        <v>682</v>
+        <v>946</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14">
         <f t="shared" si="18"/>
-        <v>682</v>
+        <v>946</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -7826,19 +8251,19 @@
       </c>
       <c r="I37" s="15">
         <f t="shared" si="19"/>
-        <v>682</v>
+        <v>946</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <f t="shared" si="17"/>
-        <v>682</v>
+        <v>946</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14">
         <f t="shared" si="18"/>
-        <v>682</v>
+        <v>946</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -7849,7 +8274,7 @@
       </c>
       <c r="I38" s="15">
         <f t="shared" si="19"/>
-        <v>682</v>
+        <v>946</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1">
@@ -7859,14 +8284,14 @@
       <c r="B39" s="31"/>
       <c r="C39" s="34">
         <f>SUM(C27:C38)</f>
-        <v>572</v>
+        <v>1166</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="34">
         <f>SUM(G27:G38)</f>
-        <v>440</v>
+        <v>770</v>
       </c>
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
@@ -7884,10 +8309,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8158,7 +8583,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14">
-        <f t="shared" ref="H13:H17" si="5">G13</f>
+        <f t="shared" ref="H13:H16" si="5">G13</f>
         <v>0</v>
       </c>
       <c r="I13" s="15">
@@ -8171,14 +8596,14 @@
         <v>96</v>
       </c>
       <c r="B14" s="14">
-        <f t="shared" ref="B14:B17" si="6">I13</f>
+        <f t="shared" ref="B14:B16" si="6">I13</f>
         <v>242</v>
       </c>
       <c r="C14" s="14">
         <v>44</v>
       </c>
       <c r="D14" s="14">
-        <f t="shared" ref="D14:D17" si="7">B14+C14</f>
+        <f t="shared" ref="D14:D16" si="7">B14+C14</f>
         <v>286</v>
       </c>
       <c r="E14" s="8"/>
@@ -8189,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="15">
-        <f t="shared" ref="I14:I17" si="8">D14-H14</f>
+        <f t="shared" ref="I14:I16" si="8">D14-H14</f>
         <v>286</v>
       </c>
     </row>
@@ -8251,47 +8676,155 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B17" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B17:B21" si="9">I16</f>
         <v>286</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D17:D21" si="10">B17+C17</f>
         <v>286</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13"/>
+      <c r="E17" s="8">
+        <v>69</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="13">
+        <v>110</v>
+      </c>
       <c r="H17" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="H17:H21" si="11">G17</f>
+        <v>110</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" si="8"/>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A18" s="35" t="s">
+        <f t="shared" ref="I17:I21" si="12">D17-H17</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="14">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
+      <c r="C18" s="14">
+        <v>198</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="10"/>
+        <v>374</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="12"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="14">
+        <f t="shared" si="9"/>
+        <v>374</v>
+      </c>
+      <c r="C19" s="14">
+        <v>110</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="10"/>
+        <v>484</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="12"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9"/>
+      <c r="B20" s="14">
+        <f t="shared" si="9"/>
+        <v>484</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14">
+        <f t="shared" si="10"/>
+        <v>484</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="12"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="14">
+        <f t="shared" si="9"/>
+        <v>484</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14">
+        <f t="shared" si="10"/>
+        <v>484</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="12"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A22" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="34">
-        <f>SUM(C12:C17)</f>
-        <v>330</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="34">
-        <f>SUM(G12:G17)</f>
-        <v>110</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="34">
+        <f>SUM(C12:C21)</f>
+        <v>638</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="34">
+        <f>SUM(G12:G21)</f>
+        <v>220</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8305,10 +8838,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9336,7 +9869,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="13"/>
       <c r="H39" s="14">
-        <f t="shared" ref="H39:H55" si="12">G39</f>
+        <f t="shared" ref="H39:H54" si="12">G39</f>
         <v>0</v>
       </c>
       <c r="I39" s="15">
@@ -9349,12 +9882,12 @@
         <v>98</v>
       </c>
       <c r="B40" s="14">
-        <f t="shared" ref="B40:B55" si="14">I39</f>
+        <f t="shared" ref="B40:B54" si="14">I39</f>
         <v>2472</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14">
-        <f t="shared" ref="D40:D55" si="15">B40+C40</f>
+        <f t="shared" ref="D40:D54" si="15">B40+C40</f>
         <v>2472</v>
       </c>
       <c r="E40" s="8">
@@ -9371,7 +9904,7 @@
         <v>960</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" ref="I40:I55" si="16">D40-H40</f>
+        <f t="shared" ref="I40:I54" si="16">D40-H40</f>
         <v>1512</v>
       </c>
     </row>
@@ -9612,15 +10145,19 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="9"/>
+      <c r="A49" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="B49" s="14">
         <f t="shared" si="14"/>
         <v>120</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="14">
+        <v>1728</v>
+      </c>
       <c r="D49" s="14">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>1848</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -9631,19 +10168,23 @@
       </c>
       <c r="I49" s="15">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="9"/>
+      <c r="A50" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="B50" s="14">
         <f t="shared" si="14"/>
-        <v>120</v>
-      </c>
-      <c r="C50" s="14"/>
+        <v>1848</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1368</v>
+      </c>
       <c r="D50" s="14">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>3216</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -9654,88 +10195,116 @@
       </c>
       <c r="I50" s="15">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="9"/>
+      <c r="A51" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B51" s="14">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>3216</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14">
         <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="13"/>
+        <v>3216</v>
+      </c>
+      <c r="E51" s="8">
+        <v>67</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="13">
+        <v>960</v>
+      </c>
       <c r="H51" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="I51" s="15">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="9"/>
+      <c r="A52" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B52" s="14">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>2256</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14">
         <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="13"/>
+        <v>2256</v>
+      </c>
+      <c r="E52" s="8">
+        <v>69</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="13">
+        <v>720</v>
+      </c>
       <c r="H52" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="I52" s="15">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="9"/>
+      <c r="A53" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="B53" s="14">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>1536</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14">
         <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="13"/>
+        <v>1536</v>
+      </c>
+      <c r="E53" s="8">
+        <v>70</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="13">
+        <v>480</v>
+      </c>
       <c r="H53" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="I53" s="15">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="9"/>
+      <c r="A54" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="B54" s="14">
         <f t="shared" si="14"/>
-        <v>120</v>
-      </c>
-      <c r="C54" s="14"/>
+        <v>1056</v>
+      </c>
+      <c r="C54" s="14">
+        <v>1872</v>
+      </c>
       <c r="D54" s="14">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>2928</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -9746,50 +10315,185 @@
       </c>
       <c r="I54" s="15">
         <f t="shared" si="16"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A55" s="9"/>
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="B55" s="14">
-        <f t="shared" si="14"/>
-        <v>120</v>
-      </c>
-      <c r="C55" s="14"/>
+        <f t="shared" ref="B55:B56" si="17">I54</f>
+        <v>2928</v>
+      </c>
+      <c r="C55" s="14">
+        <v>48</v>
+      </c>
       <c r="D55" s="14">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" ref="D55:D60" si="18">B55+C55</f>
+        <v>2976</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="13"/>
       <c r="H55" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H55:H60" si="19">G55</f>
         <v>0</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="16"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A56" s="33" t="s">
+        <f t="shared" ref="I55:I60" si="20">D55-H55</f>
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="14">
+        <f t="shared" si="17"/>
+        <v>2976</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14">
+        <f t="shared" si="18"/>
+        <v>2976</v>
+      </c>
+      <c r="E56" s="8">
+        <v>73</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="13">
+        <v>480</v>
+      </c>
+      <c r="H56" s="14">
+        <f t="shared" si="19"/>
+        <v>480</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" si="20"/>
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="14">
+        <f t="shared" ref="B57:B60" si="21">I56</f>
+        <v>2496</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14">
+        <f t="shared" ref="D57:D60" si="22">B57+C57</f>
+        <v>2496</v>
+      </c>
+      <c r="E57" s="8">
+        <v>74</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="13">
+        <v>1200</v>
+      </c>
+      <c r="H57" s="14">
+        <f t="shared" ref="H57:H60" si="23">G57</f>
+        <v>1200</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" ref="I57:I60" si="24">D57-H57</f>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="9"/>
+      <c r="B58" s="14">
+        <f t="shared" si="21"/>
+        <v>1296</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14">
+        <f t="shared" si="22"/>
+        <v>1296</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="15">
+        <f t="shared" si="24"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="9"/>
+      <c r="B59" s="14">
+        <f t="shared" si="21"/>
+        <v>1296</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14">
+        <f t="shared" si="22"/>
+        <v>1296</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="15">
+        <f t="shared" si="24"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A60" s="9"/>
+      <c r="B60" s="14">
+        <f t="shared" si="21"/>
+        <v>1296</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14">
+        <f t="shared" si="22"/>
+        <v>1296</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="24"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A61" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="34">
-        <f>SUM(C38:C55)</f>
-        <v>4560</v>
-      </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="34">
-        <f>SUM(G38:G55)</f>
-        <v>4440</v>
-      </c>
-      <c r="H56" s="31"/>
-      <c r="I56" s="32"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="34">
+        <f>SUM(C38:C60)</f>
+        <v>9576</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="34">
+        <f>SUM(G38:G60)</f>
+        <v>8280</v>
+      </c>
+      <c r="H61" s="31"/>
+      <c r="I61" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9806,7 +10510,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11050,15 +11754,19 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="9"/>
+      <c r="A47" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="B47" s="16">
         <f t="shared" si="22"/>
         <v>96</v>
       </c>
-      <c r="C47" s="16"/>
+      <c r="C47" s="16">
+        <v>912</v>
+      </c>
       <c r="D47" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1008</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="10"/>
@@ -11069,19 +11777,23 @@
       </c>
       <c r="I47" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="9"/>
+      <c r="A48" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="B48" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
-      </c>
-      <c r="C48" s="16"/>
+        <v>1008</v>
+      </c>
+      <c r="C48" s="16">
+        <v>312</v>
+      </c>
       <c r="D48" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1320</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="10"/>
@@ -11092,65 +11804,85 @@
       </c>
       <c r="I48" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="9"/>
+      <c r="A49" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B49" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1320</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="16"/>
+        <v>1320</v>
+      </c>
+      <c r="E49" s="12">
+        <v>67</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="16">
+        <v>240</v>
+      </c>
       <c r="H49" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I49" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="9"/>
+      <c r="A50" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B50" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1080</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="16"/>
+        <v>1080</v>
+      </c>
+      <c r="E50" s="12">
+        <v>69</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="16">
+        <v>360</v>
+      </c>
       <c r="H50" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>720</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="9"/>
+      <c r="A51" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="B51" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
-      </c>
-      <c r="C51" s="16"/>
+        <v>720</v>
+      </c>
+      <c r="C51" s="16">
+        <v>432</v>
+      </c>
       <c r="D51" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1152</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="10"/>
@@ -11161,42 +11893,54 @@
       </c>
       <c r="I51" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="9"/>
+      <c r="A52" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="B52" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1152</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="16"/>
+        <v>1152</v>
+      </c>
+      <c r="E52" s="12">
+        <v>70</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="16">
+        <v>360</v>
+      </c>
       <c r="H52" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I52" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>792</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="9"/>
+      <c r="A53" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="B53" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
-      </c>
-      <c r="C53" s="16"/>
+        <v>792</v>
+      </c>
+      <c r="C53" s="16">
+        <v>816</v>
+      </c>
       <c r="D53" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1608</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="10"/>
@@ -11207,42 +11951,50 @@
       </c>
       <c r="I53" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="9"/>
+      <c r="A54" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="B54" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1608</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="16"/>
+        <v>1608</v>
+      </c>
+      <c r="E54" s="12">
+        <v>75</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="16">
+        <v>120</v>
+      </c>
       <c r="H54" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="9"/>
       <c r="B55" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="10"/>
@@ -11253,19 +12005,19 @@
       </c>
       <c r="I55" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="9"/>
       <c r="B56" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="10"/>
@@ -11276,19 +12028,19 @@
       </c>
       <c r="I56" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="9"/>
       <c r="B57" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="10"/>
@@ -11299,19 +12051,19 @@
       </c>
       <c r="I57" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="9"/>
       <c r="B58" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="10"/>
@@ -11322,19 +12074,19 @@
       </c>
       <c r="I58" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="9"/>
       <c r="B59" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="10"/>
@@ -11345,19 +12097,19 @@
       </c>
       <c r="I59" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="9"/>
       <c r="B60" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="10"/>
@@ -11368,19 +12120,19 @@
       </c>
       <c r="I60" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="9"/>
       <c r="B61" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="10"/>
@@ -11391,19 +12143,19 @@
       </c>
       <c r="I61" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="9"/>
       <c r="B62" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="10"/>
@@ -11414,19 +12166,19 @@
       </c>
       <c r="I62" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="9"/>
       <c r="B63" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="10"/>
@@ -11437,19 +12189,19 @@
       </c>
       <c r="I63" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="9"/>
       <c r="B64" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="10"/>
@@ -11460,19 +12212,19 @@
       </c>
       <c r="I64" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="9"/>
       <c r="B65" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="10"/>
@@ -11483,19 +12235,19 @@
       </c>
       <c r="I65" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="9"/>
       <c r="B66" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="10"/>
@@ -11506,19 +12258,19 @@
       </c>
       <c r="I66" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="9"/>
       <c r="B67" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="10"/>
@@ -11529,19 +12281,19 @@
       </c>
       <c r="I67" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1">
       <c r="A68" s="9"/>
       <c r="B68" s="16">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="14">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="10"/>
@@ -11552,7 +12304,7 @@
       </c>
       <c r="I68" s="15">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1">
@@ -11562,14 +12314,14 @@
       <c r="B69" s="31"/>
       <c r="C69" s="34">
         <f>SUM(C38:C68)</f>
-        <v>2760</v>
+        <v>5232</v>
       </c>
       <c r="D69" s="31"/>
       <c r="E69" s="31"/>
       <c r="F69" s="31"/>
       <c r="G69" s="34">
         <f>SUM(G38:G68)</f>
-        <v>2400</v>
+        <v>3480</v>
       </c>
       <c r="H69" s="31"/>
       <c r="I69" s="32"/>
@@ -11589,8 +12341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14036,15 +14788,19 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="9"/>
+      <c r="A88" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="B88" s="14">
         <f t="shared" si="38"/>
         <v>8208</v>
       </c>
-      <c r="C88" s="14"/>
+      <c r="C88" s="14">
+        <v>1704</v>
+      </c>
       <c r="D88" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9912</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -14055,19 +14811,23 @@
       </c>
       <c r="I88" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9912</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="9"/>
+      <c r="A89" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="B89" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
-      </c>
-      <c r="C89" s="14"/>
+        <v>9912</v>
+      </c>
+      <c r="C89" s="14">
+        <v>1704</v>
+      </c>
       <c r="D89" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>11616</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -14078,19 +14838,23 @@
       </c>
       <c r="I89" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>11616</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="9"/>
+      <c r="A90" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="B90" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
-      </c>
-      <c r="C90" s="14"/>
+        <v>11616</v>
+      </c>
+      <c r="C90" s="14">
+        <v>600</v>
+      </c>
       <c r="D90" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>12216</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -14101,19 +14865,23 @@
       </c>
       <c r="I90" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>12216</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="9"/>
+      <c r="A91" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="B91" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
-      </c>
-      <c r="C91" s="14"/>
+        <v>12216</v>
+      </c>
+      <c r="C91" s="14">
+        <v>3288</v>
+      </c>
       <c r="D91" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>15504</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
@@ -14124,19 +14892,23 @@
       </c>
       <c r="I91" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>15504</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="9"/>
+      <c r="A92" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B92" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
-      </c>
-      <c r="C92" s="14"/>
+        <v>15504</v>
+      </c>
+      <c r="C92" s="14">
+        <v>2328</v>
+      </c>
       <c r="D92" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>17832</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -14147,88 +14919,116 @@
       </c>
       <c r="I92" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>17832</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="9"/>
+      <c r="A93" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B93" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>17832</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
-      </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="38"/>
+        <v>17832</v>
+      </c>
+      <c r="E93" s="8">
+        <v>67</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" s="38">
+        <v>3600</v>
+      </c>
       <c r="H93" s="14">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>14232</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="9"/>
+      <c r="A94" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B94" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>14232</v>
       </c>
       <c r="C94" s="14"/>
       <c r="D94" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
-      </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="38"/>
+        <v>14232</v>
+      </c>
+      <c r="E94" s="8">
+        <v>68</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" s="38">
+        <v>1440</v>
+      </c>
       <c r="H94" s="14">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>12792</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="9"/>
+      <c r="A95" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B95" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>12792</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
-      </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="38"/>
+        <v>12792</v>
+      </c>
+      <c r="E95" s="8">
+        <v>69</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="38">
+        <v>2400</v>
+      </c>
       <c r="H95" s="14">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>10392</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="9"/>
+      <c r="A96" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="B96" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
-      </c>
-      <c r="C96" s="14"/>
+        <v>10392</v>
+      </c>
+      <c r="C96" s="14">
+        <v>1152</v>
+      </c>
       <c r="D96" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>11544</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -14239,42 +15039,54 @@
       </c>
       <c r="I96" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>11544</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="9"/>
+      <c r="A97" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="B97" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>11544</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
-      </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="38"/>
+        <v>11544</v>
+      </c>
+      <c r="E97" s="8">
+        <v>70</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" s="38">
+        <v>1800</v>
+      </c>
       <c r="H97" s="14">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9744</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="9"/>
+      <c r="A98" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="B98" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
-      </c>
-      <c r="C98" s="14"/>
+        <v>9744</v>
+      </c>
+      <c r="C98" s="14">
+        <v>3144</v>
+      </c>
       <c r="D98" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>12888</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -14285,42 +15097,54 @@
       </c>
       <c r="I98" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>12888</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="9"/>
+      <c r="A99" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="B99" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>12888</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
-      </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="38"/>
+        <v>12888</v>
+      </c>
+      <c r="E99" s="8">
+        <v>71</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G99" s="38">
+        <v>48</v>
+      </c>
       <c r="H99" s="14">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>12840</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="9"/>
+      <c r="A100" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="B100" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
-      </c>
-      <c r="C100" s="14"/>
+        <v>12840</v>
+      </c>
+      <c r="C100" s="14">
+        <v>1104</v>
+      </c>
       <c r="D100" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>13944</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -14331,19 +15155,23 @@
       </c>
       <c r="I100" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>13944</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="9"/>
+      <c r="A101" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="B101" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
-      </c>
-      <c r="C101" s="14"/>
+        <v>13944</v>
+      </c>
+      <c r="C101" s="14">
+        <v>1032</v>
+      </c>
       <c r="D101" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>14976</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -14354,88 +15182,112 @@
       </c>
       <c r="I101" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>14976</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="9"/>
+      <c r="A102" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="B102" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>14976</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
-      </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="38"/>
+        <v>14976</v>
+      </c>
+      <c r="E102" s="8">
+        <v>73</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" s="38">
+        <v>2400</v>
+      </c>
       <c r="H102" s="14">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>12576</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="9"/>
+      <c r="A103" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="B103" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>12576</v>
       </c>
       <c r="C103" s="14"/>
       <c r="D103" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
-      </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="38"/>
+        <v>12576</v>
+      </c>
+      <c r="E103" s="8">
+        <v>74</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103" s="38">
+        <v>1440</v>
+      </c>
       <c r="H103" s="14">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>11136</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="9"/>
+      <c r="A104" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="B104" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>11136</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
-      </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="38"/>
+        <v>11136</v>
+      </c>
+      <c r="E104" s="8">
+        <v>75</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G104" s="38">
+        <v>1200</v>
+      </c>
       <c r="H104" s="14">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="9"/>
       <c r="B105" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
@@ -14446,19 +15298,19 @@
       </c>
       <c r="I105" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="9"/>
       <c r="B106" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C106" s="14"/>
       <c r="D106" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -14469,19 +15321,19 @@
       </c>
       <c r="I106" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="9"/>
       <c r="B107" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C107" s="14"/>
       <c r="D107" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
@@ -14492,19 +15344,19 @@
       </c>
       <c r="I107" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="9"/>
       <c r="B108" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -14515,19 +15367,19 @@
       </c>
       <c r="I108" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="9"/>
       <c r="B109" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -14538,19 +15390,19 @@
       </c>
       <c r="I109" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="9"/>
       <c r="B110" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
@@ -14561,19 +15413,19 @@
       </c>
       <c r="I110" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="9"/>
       <c r="B111" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -14584,19 +15436,19 @@
       </c>
       <c r="I111" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="9"/>
       <c r="B112" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
@@ -14607,19 +15459,19 @@
       </c>
       <c r="I112" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="9"/>
       <c r="B113" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C113" s="14"/>
       <c r="D113" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
@@ -14630,19 +15482,19 @@
       </c>
       <c r="I113" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="9"/>
       <c r="B114" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
@@ -14653,19 +15505,19 @@
       </c>
       <c r="I114" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="9"/>
       <c r="B115" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C115" s="14"/>
       <c r="D115" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
@@ -14676,19 +15528,19 @@
       </c>
       <c r="I115" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="9"/>
       <c r="B116" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
@@ -14699,19 +15551,19 @@
       </c>
       <c r="I116" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="9"/>
       <c r="B117" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
@@ -14722,19 +15574,19 @@
       </c>
       <c r="I117" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="9"/>
       <c r="B118" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
@@ -14745,19 +15597,19 @@
       </c>
       <c r="I118" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="9"/>
       <c r="B119" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C119" s="14"/>
       <c r="D119" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
@@ -14768,19 +15620,19 @@
       </c>
       <c r="I119" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="9"/>
       <c r="B120" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C120" s="14"/>
       <c r="D120" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -14791,19 +15643,19 @@
       </c>
       <c r="I120" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="9"/>
       <c r="B121" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
@@ -14814,19 +15666,19 @@
       </c>
       <c r="I121" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="9"/>
       <c r="B122" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
@@ -14837,19 +15689,19 @@
       </c>
       <c r="I122" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="9"/>
       <c r="B123" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C123" s="14"/>
       <c r="D123" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
@@ -14860,19 +15712,19 @@
       </c>
       <c r="I123" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="9"/>
       <c r="B124" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
@@ -14883,19 +15735,19 @@
       </c>
       <c r="I124" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="9"/>
       <c r="B125" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C125" s="14"/>
       <c r="D125" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -14906,19 +15758,19 @@
       </c>
       <c r="I125" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="9"/>
       <c r="B126" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C126" s="14"/>
       <c r="D126" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -14929,19 +15781,19 @@
       </c>
       <c r="I126" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="9"/>
       <c r="B127" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
@@ -14952,19 +15804,19 @@
       </c>
       <c r="I127" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="9"/>
       <c r="B128" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
@@ -14975,19 +15827,19 @@
       </c>
       <c r="I128" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="9"/>
       <c r="B129" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -14998,19 +15850,19 @@
       </c>
       <c r="I129" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="9"/>
       <c r="B130" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
@@ -15021,19 +15873,19 @@
       </c>
       <c r="I130" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="9"/>
       <c r="B131" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
@@ -15044,19 +15896,19 @@
       </c>
       <c r="I131" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="9"/>
       <c r="B132" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C132" s="14"/>
       <c r="D132" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -15067,19 +15919,19 @@
       </c>
       <c r="I132" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="9"/>
       <c r="B133" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C133" s="14"/>
       <c r="D133" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
@@ -15090,19 +15942,19 @@
       </c>
       <c r="I133" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75" thickBot="1">
       <c r="A134" s="9"/>
       <c r="B134" s="14">
         <f t="shared" si="38"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="C134" s="14"/>
       <c r="D134" s="14">
         <f t="shared" si="39"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
@@ -15113,7 +15965,7 @@
       </c>
       <c r="I134" s="15">
         <f t="shared" si="40"/>
-        <v>8208</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75" thickBot="1">
@@ -15123,14 +15975,14 @@
       <c r="B135" s="31"/>
       <c r="C135" s="34">
         <f>SUM(C71:C134)</f>
-        <v>21936</v>
+        <v>37992</v>
       </c>
       <c r="D135" s="31"/>
       <c r="E135" s="31"/>
       <c r="F135" s="31"/>
       <c r="G135" s="37">
         <f>SUM(G71:G134)</f>
-        <v>16680</v>
+        <v>31008</v>
       </c>
       <c r="H135" s="40"/>
       <c r="I135" s="32"/>

--- a/FINISHED GOODS REGISTER 2021-22.xlsx
+++ b/FINISHED GOODS REGISTER 2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Downloads\excel-main\excel-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7E9A9-0870-4919-96C2-01E32D6142B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019-20-1kg PREMIUM" sheetId="29" r:id="rId1"/>
@@ -35,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2019-20-500GM. SPL'!$A$2:$I$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2019-20-5kg'!$A$2:$K$34</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="150">
   <si>
     <t>DATE</t>
   </si>
@@ -454,12 +448,57 @@
   <si>
     <t>05.06.2021</t>
   </si>
+  <si>
+    <t>08.06.2021</t>
+  </si>
+  <si>
+    <t>10.06.2021</t>
+  </si>
+  <si>
+    <t>21.06.2021</t>
+  </si>
+  <si>
+    <t>25.06.2021</t>
+  </si>
+  <si>
+    <t>07.06.2021</t>
+  </si>
+  <si>
+    <t>09.06.2021</t>
+  </si>
+  <si>
+    <t>11.06.2021</t>
+  </si>
+  <si>
+    <t>16.06.2021</t>
+  </si>
+  <si>
+    <t>19.06.2021</t>
+  </si>
+  <si>
+    <t>21-06.2021</t>
+  </si>
+  <si>
+    <t>jaipur</t>
+  </si>
+  <si>
+    <t>kundli</t>
+  </si>
+  <si>
+    <t>26.06.2021</t>
+  </si>
+  <si>
+    <t>28.06.2021</t>
+  </si>
+  <si>
+    <t>29.06.2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -677,11 +716,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -797,6 +858,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,7 +930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,27 +962,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,24 +996,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,14 +1171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -1157,7 +1194,7 @@
     <col min="19" max="19" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>110</v>
       </c>
@@ -1171,7 +1208,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1261,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -1255,7 +1292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -1282,7 +1319,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
@@ -1313,7 +1350,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="16">
         <f>I6</f>
@@ -1337,7 +1374,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="26" t="s">
         <v>2</v>
       </c>
@@ -1356,7 +1393,7 @@
       <c r="H8" s="27"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.5" thickBot="1">
       <c r="A11" s="45" t="s">
         <v>69</v>
       </c>
@@ -1369,7 +1406,7 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="39" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
@@ -1422,7 +1459,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
         <v>94</v>
       </c>
@@ -1453,7 +1490,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
         <v>93</v>
       </c>
@@ -1480,7 +1517,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>93</v>
       </c>
@@ -1511,7 +1548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>95</v>
       </c>
@@ -1538,7 +1575,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>95</v>
       </c>
@@ -1569,7 +1606,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>100</v>
       </c>
@@ -1600,7 +1637,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>104</v>
       </c>
@@ -1627,7 +1664,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="22"/>
       <c r="B21" s="14">
         <f t="shared" si="7"/>
@@ -1650,7 +1687,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="26" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +1706,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="28"/>
     </row>
-    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="19.5" thickBot="1">
       <c r="A25" s="45" t="s">
         <v>108</v>
       </c>
@@ -1682,7 +1719,7 @@
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
     </row>
-    <row r="26" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="39" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>109</v>
       </c>
@@ -1735,9 +1772,12 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="B28" s="14">
+        <f>I27</f>
         <v>552</v>
       </c>
       <c r="C28" s="14"/>
@@ -1745,49 +1785,69 @@
         <f t="shared" ref="D28:D35" si="10">B28+C28</f>
         <v>552</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="13"/>
+      <c r="E28" s="8">
+        <v>84</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="13">
+        <v>240</v>
+      </c>
       <c r="H28" s="14">
         <f t="shared" ref="H28:H35" si="11">G28</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" ref="I28:I35" si="12">D28-H28</f>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="B29" s="14">
-        <v>552</v>
+        <f t="shared" ref="B29:B35" si="13">I28</f>
+        <v>312</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="13"/>
+        <v>312</v>
+      </c>
+      <c r="E29" s="8">
+        <v>87</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="13">
+        <v>72</v>
+      </c>
       <c r="H29" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="C30" s="14">
         <v>552</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="14">
-        <v>552</v>
-      </c>
-      <c r="C30" s="14"/>
       <c r="D30" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
+        <v>792</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1798,40 +1858,54 @@
       </c>
       <c r="I30" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="B31" s="14">
-        <v>552</v>
+        <f t="shared" si="13"/>
+        <v>792</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="13"/>
+        <v>792</v>
+      </c>
+      <c r="E31" s="8">
+        <v>97</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="13">
+        <v>600</v>
+      </c>
       <c r="H31" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="B32" s="14">
-        <v>552</v>
-      </c>
-      <c r="C32" s="14"/>
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+      <c r="C32" s="14">
+        <v>24</v>
+      </c>
       <c r="D32" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
+        <v>216</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1842,18 +1916,19 @@
       </c>
       <c r="I32" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="9"/>
       <c r="B33" s="14">
-        <v>552</v>
+        <f t="shared" si="13"/>
+        <v>216</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
+        <v>216</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1864,18 +1939,19 @@
       </c>
       <c r="I33" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="9"/>
       <c r="B34" s="14">
-        <v>552</v>
+        <f t="shared" si="13"/>
+        <v>216</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
+        <v>216</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1886,18 +1962,19 @@
       </c>
       <c r="I34" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
       <c r="A35" s="22"/>
       <c r="B35" s="14">
-        <v>552</v>
+        <f t="shared" si="13"/>
+        <v>216</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
+        <v>216</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1908,24 +1985,24 @@
       </c>
       <c r="I35" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1">
       <c r="A36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="29">
         <f>SUM(C27:C35)</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27">
         <f>SUM(G27:G35)</f>
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
@@ -1942,14 +2019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -1962,7 +2039,7 @@
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>125</v>
       </c>
@@ -1975,7 +2052,7 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2028,7 +2105,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +2136,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2167,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -2117,7 +2194,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -2146,7 +2223,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2173,7 +2250,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -2204,7 +2281,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -2235,7 +2312,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -2266,7 +2343,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -2293,7 +2370,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -2324,7 +2401,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -2355,7 +2432,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2386,7 +2463,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -2417,7 +2494,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>48</v>
       </c>
@@ -2448,7 +2525,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
@@ -2479,7 +2556,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>55</v>
       </c>
@@ -2506,7 +2583,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
@@ -2537,7 +2614,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +2641,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
@@ -2595,7 +2672,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
@@ -2626,7 +2703,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
@@ -2653,7 +2730,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
         <v>58</v>
       </c>
@@ -2684,7 +2761,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -2711,7 +2788,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>64</v>
       </c>
@@ -2742,7 +2819,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2773,7 +2850,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>66</v>
       </c>
@@ -2804,7 +2881,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="A30" s="7"/>
       <c r="B30" s="15">
         <f t="shared" si="12"/>
@@ -2827,7 +2904,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="35" t="s">
         <v>2</v>
       </c>
@@ -2846,7 +2923,7 @@
       <c r="H31" s="31"/>
       <c r="I31" s="32"/>
     </row>
-    <row r="34" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="19.5" thickBot="1">
       <c r="A34" s="45" t="s">
         <v>78</v>
       </c>
@@ -2859,7 +2936,7 @@
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
     </row>
-    <row r="35" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="39" thickBot="1">
       <c r="A35" s="19" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
         <v>70</v>
       </c>
@@ -2912,7 +2989,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
         <v>80</v>
       </c>
@@ -2939,7 +3016,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>88</v>
       </c>
@@ -2966,7 +3043,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>85</v>
       </c>
@@ -2997,7 +3074,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
         <v>85</v>
       </c>
@@ -3028,7 +3105,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
         <v>94</v>
       </c>
@@ -3059,7 +3136,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -3086,7 +3163,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
         <v>95</v>
       </c>
@@ -3117,7 +3194,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>100</v>
       </c>
@@ -3144,7 +3221,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>101</v>
       </c>
@@ -3171,7 +3248,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
         <v>101</v>
       </c>
@@ -3202,7 +3279,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>107</v>
       </c>
@@ -3229,7 +3306,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1">
       <c r="A48" s="7"/>
       <c r="B48" s="14">
         <f t="shared" si="16"/>
@@ -3252,7 +3329,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1">
       <c r="A49" s="35" t="s">
         <v>2</v>
       </c>
@@ -3271,7 +3348,7 @@
       <c r="H49" s="31"/>
       <c r="I49" s="32"/>
     </row>
-    <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="19.5" thickBot="1">
       <c r="A52" s="45" t="s">
         <v>128</v>
       </c>
@@ -3284,7 +3361,7 @@
       <c r="H52" s="45"/>
       <c r="I52" s="45"/>
     </row>
-    <row r="53" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="39" thickBot="1">
       <c r="A53" s="19" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="7" t="s">
         <v>109</v>
       </c>
@@ -3337,7 +3414,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
         <v>109</v>
       </c>
@@ -3364,7 +3441,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="7" t="s">
         <v>109</v>
       </c>
@@ -3393,7 +3470,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
         <v>131</v>
       </c>
@@ -3422,7 +3499,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
         <v>134</v>
       </c>
@@ -3449,7 +3526,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
         <f t="shared" si="20"/>
@@ -3472,7 +3549,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="14">
         <f t="shared" si="20"/>
@@ -3495,7 +3572,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
         <f t="shared" si="20"/>
@@ -3518,7 +3595,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="14">
         <f t="shared" si="20"/>
@@ -3541,7 +3618,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
         <f t="shared" si="20"/>
@@ -3564,7 +3641,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="7"/>
       <c r="B64" s="14">
         <f t="shared" si="20"/>
@@ -3587,7 +3664,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="7"/>
       <c r="B65" s="14">
         <f t="shared" si="20"/>
@@ -3610,7 +3687,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.75" thickBot="1">
       <c r="A66" s="7"/>
       <c r="B66" s="14">
         <f t="shared" si="20"/>
@@ -3633,7 +3710,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15.75" thickBot="1">
       <c r="A67" s="35" t="s">
         <v>2</v>
       </c>
@@ -3664,14 +3741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -3688,7 +3765,7 @@
     <col min="13" max="13" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>129</v>
       </c>
@@ -3703,7 +3780,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3732,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -3756,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -3783,7 +3860,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -3810,7 +3887,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -3841,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="16">
         <f t="shared" ref="B7" si="8">I6</f>
@@ -3864,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="35" t="s">
         <v>2</v>
       </c>
@@ -3883,7 +3960,7 @@
       <c r="H8" s="31"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="19.5" thickBot="1">
       <c r="A11" s="45" t="s">
         <v>79</v>
       </c>
@@ -3896,7 +3973,7 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="39" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -3925,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
@@ -3949,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
         <v>88</v>
       </c>
@@ -3976,7 +4053,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="9" t="s">
         <v>89</v>
       </c>
@@ -4003,7 +4080,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
         <v>85</v>
       </c>
@@ -4030,7 +4107,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>85</v>
       </c>
@@ -4061,7 +4138,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>86</v>
       </c>
@@ -4088,7 +4165,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>86</v>
       </c>
@@ -4119,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>106</v>
       </c>
@@ -4146,7 +4223,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>107</v>
       </c>
@@ -4173,7 +4250,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="9"/>
       <c r="B22" s="16">
         <f t="shared" ref="B22" si="27">I21</f>
@@ -4196,7 +4273,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="35" t="s">
         <v>2</v>
       </c>
@@ -4215,7 +4292,7 @@
       <c r="H23" s="31"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19.5" thickBot="1">
       <c r="A26" s="45" t="s">
         <v>130</v>
       </c>
@@ -4228,7 +4305,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
     </row>
-    <row r="27" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="39" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>109</v>
       </c>
@@ -4281,7 +4358,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>109</v>
       </c>
@@ -4310,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9"/>
       <c r="B30" s="16">
         <f t="shared" ref="B30:B37" si="34">I29</f>
@@ -4333,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9"/>
       <c r="B31" s="16">
         <f t="shared" si="34"/>
@@ -4356,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9"/>
       <c r="B32" s="16">
         <f t="shared" si="34"/>
@@ -4379,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9"/>
       <c r="B33" s="16">
         <f t="shared" si="34"/>
@@ -4402,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="9"/>
       <c r="B34" s="16">
         <f t="shared" si="34"/>
@@ -4425,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="9"/>
       <c r="B35" s="16">
         <f t="shared" si="34"/>
@@ -4448,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="9"/>
       <c r="B36" s="16">
         <f t="shared" si="34"/>
@@ -4471,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1">
       <c r="A37" s="9"/>
       <c r="B37" s="16">
         <f t="shared" si="34"/>
@@ -4494,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="35" t="s">
         <v>2</v>
       </c>
@@ -4525,14 +4602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -4545,7 +4622,7 @@
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" s="46" t="s">
         <v>111</v>
       </c>
@@ -4558,7 +4635,7 @@
       <c r="H1" s="46"/>
       <c r="I1" s="46"/>
     </row>
-    <row r="2" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4587,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -4611,7 +4688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -4638,7 +4715,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -4669,7 +4746,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -4700,7 +4777,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -4731,7 +4808,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
@@ -4762,7 +4839,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
@@ -4793,7 +4870,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -4824,7 +4901,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
@@ -4855,7 +4932,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
@@ -4886,7 +4963,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -4917,7 +4994,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -4944,7 +5021,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -4975,7 +5052,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>58</v>
       </c>
@@ -5006,7 +5083,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>64</v>
       </c>
@@ -5037,7 +5114,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>65</v>
       </c>
@@ -5064,7 +5141,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>65</v>
       </c>
@@ -5095,7 +5172,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5122,7 +5199,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="44" t="s">
         <v>66</v>
       </c>
@@ -5153,7 +5230,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="9"/>
       <c r="B22" s="16">
         <f t="shared" si="15"/>
@@ -5176,7 +5253,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="30" t="s">
         <v>2</v>
       </c>
@@ -5195,7 +5272,7 @@
       <c r="H23" s="31"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19.5" thickBot="1">
       <c r="A26" s="46" t="s">
         <v>71</v>
       </c>
@@ -5208,7 +5285,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="39" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
@@ -5237,7 +5314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>70</v>
       </c>
@@ -5261,7 +5338,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>89</v>
       </c>
@@ -5292,7 +5369,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>94</v>
       </c>
@@ -5323,7 +5400,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
         <v>93</v>
       </c>
@@ -5350,7 +5427,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9" t="s">
         <v>93</v>
       </c>
@@ -5381,7 +5458,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
         <v>95</v>
       </c>
@@ -5408,7 +5485,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -5439,7 +5516,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="9" t="s">
         <v>98</v>
       </c>
@@ -5470,7 +5547,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="9" t="s">
         <v>100</v>
       </c>
@@ -5501,7 +5578,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="9" t="s">
         <v>107</v>
       </c>
@@ -5528,7 +5605,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <f t="shared" si="22"/>
@@ -5551,7 +5628,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1">
       <c r="A39" s="30" t="s">
         <v>2</v>
       </c>
@@ -5570,7 +5647,7 @@
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="42" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="19.5" thickBot="1">
       <c r="A42" s="46" t="s">
         <v>112</v>
       </c>
@@ -5583,7 +5660,7 @@
       <c r="H42" s="46"/>
       <c r="I42" s="46"/>
     </row>
-    <row r="43" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="39" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>0</v>
       </c>
@@ -5612,7 +5689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>109</v>
       </c>
@@ -5636,7 +5713,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>109</v>
       </c>
@@ -5648,7 +5725,7 @@
         <v>1224</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" ref="D45:D54" si="25">B45+C45</f>
+        <f t="shared" ref="D45:D60" si="25">B45+C45</f>
         <v>3696</v>
       </c>
       <c r="E45" s="8"/>
@@ -5663,12 +5740,12 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B46" s="14">
-        <f t="shared" ref="B46:B54" si="28">I45</f>
+        <f t="shared" ref="B46:B60" si="28">I45</f>
         <v>3696</v>
       </c>
       <c r="C46" s="14"/>
@@ -5677,9 +5754,11 @@
         <v>3696</v>
       </c>
       <c r="E46" s="8">
-        <v>77</v>
-      </c>
-      <c r="F46" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="G46" s="24">
         <v>1440</v>
       </c>
@@ -5692,8 +5771,10 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+    <row r="47" spans="1:9">
+      <c r="A47" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="B47" s="14">
         <f t="shared" si="28"/>
         <v>2256</v>
@@ -5703,143 +5784,193 @@
         <f t="shared" si="25"/>
         <v>2256</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="24"/>
+      <c r="E47" s="8">
+        <v>80</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="24">
+        <v>120</v>
+      </c>
       <c r="H47" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="B48" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
+        <v>2136</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="24"/>
+        <v>2136</v>
+      </c>
+      <c r="E48" s="8">
+        <v>82</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="24">
+        <v>72</v>
+      </c>
       <c r="H48" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I48" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="B49" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
+        <v>2064</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="24"/>
+        <v>2064</v>
+      </c>
+      <c r="E49" s="8">
+        <v>85</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1800</v>
+      </c>
       <c r="H49" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="I49" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="B50" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
+        <v>264</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="24"/>
+        <v>264</v>
+      </c>
+      <c r="E50" s="8">
+        <v>88</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="24">
+        <v>120</v>
+      </c>
       <c r="H50" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="B51" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
+        <v>144</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="24"/>
+        <v>144</v>
+      </c>
+      <c r="E51" s="8">
+        <v>92</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="24">
+        <v>24</v>
+      </c>
       <c r="H51" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I51" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="B52" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
+        <v>120</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="E52" s="8">
+        <v>95</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="24">
+        <v>24</v>
+      </c>
       <c r="H52" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I52" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="B53" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
-      </c>
-      <c r="C53" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="C53" s="14">
+        <v>288</v>
+      </c>
       <c r="D53" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
+        <v>384</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -5850,16 +5981,20 @@
       </c>
       <c r="I53" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="B54" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
-      </c>
-      <c r="C54" s="14"/>
+        <v>384</v>
+      </c>
+      <c r="C54" s="14">
+        <v>1872</v>
+      </c>
       <c r="D54" s="14">
         <f t="shared" si="25"/>
         <v>2256</v>
@@ -5876,24 +6011,206 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
+    <row r="55" spans="1:9">
+      <c r="A55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="14">
+        <f t="shared" si="28"/>
+        <v>2256</v>
+      </c>
+      <c r="C55" s="48"/>
+      <c r="D55" s="14">
+        <f t="shared" si="25"/>
+        <v>2256</v>
+      </c>
+      <c r="E55" s="49">
+        <v>97</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="50">
+        <v>1440</v>
+      </c>
+      <c r="H55" s="14">
+        <f t="shared" ref="H55:H60" si="29">G55</f>
+        <v>1440</v>
+      </c>
+      <c r="I55" s="15">
+        <f t="shared" ref="I55:I60" si="30">D55-H55</f>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="14">
+        <f t="shared" si="28"/>
+        <v>816</v>
+      </c>
+      <c r="C56" s="48"/>
+      <c r="D56" s="14">
+        <f t="shared" si="25"/>
+        <v>816</v>
+      </c>
+      <c r="E56" s="49">
+        <v>108</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="50">
+        <v>600</v>
+      </c>
+      <c r="H56" s="14">
+        <f t="shared" si="29"/>
+        <v>600</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" si="30"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="14">
+        <f t="shared" si="28"/>
+        <v>216</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="14">
+        <f t="shared" si="25"/>
+        <v>216</v>
+      </c>
+      <c r="E57" s="49">
+        <v>109</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="50">
+        <v>120</v>
+      </c>
+      <c r="H57" s="14">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" si="30"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="14">
+        <f t="shared" si="28"/>
+        <v>96</v>
+      </c>
+      <c r="C58" s="48"/>
+      <c r="D58" s="14">
+        <f t="shared" si="25"/>
+        <v>96</v>
+      </c>
+      <c r="E58" s="49">
+        <v>112</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="50">
+        <v>72</v>
+      </c>
+      <c r="H58" s="14">
+        <f t="shared" si="29"/>
+        <v>72</v>
+      </c>
+      <c r="I58" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="14">
+        <f t="shared" si="28"/>
+        <v>24</v>
+      </c>
+      <c r="C59" s="48">
+        <v>1080</v>
+      </c>
+      <c r="D59" s="14">
+        <f t="shared" si="25"/>
+        <v>1104</v>
+      </c>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="15">
+        <f t="shared" si="30"/>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A60" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="14">
+        <f t="shared" si="28"/>
+        <v>1104</v>
+      </c>
+      <c r="C60" s="48"/>
+      <c r="D60" s="14">
+        <f t="shared" si="25"/>
+        <v>1104</v>
+      </c>
+      <c r="E60" s="49">
+        <v>113</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="50">
+        <v>720</v>
+      </c>
+      <c r="H60" s="14">
+        <f t="shared" si="29"/>
+        <v>720</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="30"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A61" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="34">
+      <c r="B61" s="31"/>
+      <c r="C61" s="34">
         <f>SUM(C44:C54)</f>
-        <v>1224</v>
-      </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="34">
-        <f>SUM(G44:G54)</f>
-        <v>1440</v>
-      </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="32"/>
+        <v>3384</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="34">
+        <f>SUM(G44:G58)</f>
+        <v>5832</v>
+      </c>
+      <c r="H61" s="31"/>
+      <c r="I61" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5907,14 +6224,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -5928,7 +6245,7 @@
     <col min="10" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>114</v>
       </c>
@@ -5942,7 +6259,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="39.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5971,7 +6288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -5995,7 +6312,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -6026,7 +6343,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -6053,7 +6370,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -6084,7 +6401,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -6111,7 +6428,7 @@
         <v>8610</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
@@ -6142,7 +6459,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
@@ -6169,7 +6486,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -6200,7 +6517,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
@@ -6227,7 +6544,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
@@ -6258,7 +6575,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -6285,7 +6602,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -6316,7 +6633,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
         <v>48</v>
       </c>
@@ -6343,7 +6660,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
@@ -6374,7 +6691,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -6405,7 +6722,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
@@ -6432,7 +6749,7 @@
         <v>10830</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>55</v>
       </c>
@@ -6463,7 +6780,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>56</v>
       </c>
@@ -6490,7 +6807,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>57</v>
       </c>
@@ -6521,7 +6838,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>58</v>
       </c>
@@ -6548,7 +6865,7 @@
         <v>7860</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>58</v>
       </c>
@@ -6579,7 +6896,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>60</v>
       </c>
@@ -6606,7 +6923,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
@@ -6637,7 +6954,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>64</v>
       </c>
@@ -6664,7 +6981,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
@@ -6695,7 +7012,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -6722,7 +7039,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
@@ -6753,7 +7070,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -6780,7 +7097,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
         <v>68</v>
       </c>
@@ -6811,7 +7128,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
@@ -6842,7 +7159,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
         <v>92</v>
       </c>
@@ -6869,7 +7186,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
       <c r="A34" s="9"/>
       <c r="B34" s="16">
         <f t="shared" si="15"/>
@@ -6892,7 +7209,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
       <c r="A35" s="33" t="s">
         <v>2</v>
       </c>
@@ -6911,7 +7228,7 @@
       <c r="H35" s="31"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="19.5" thickBot="1">
       <c r="A38" s="45" t="s">
         <v>72</v>
       </c>
@@ -6924,7 +7241,7 @@
       <c r="H38" s="45"/>
       <c r="I38" s="45"/>
     </row>
-    <row r="39" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="39.75" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>0</v>
       </c>
@@ -6953,7 +7270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
         <v>70</v>
       </c>
@@ -6977,7 +7294,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
         <v>80</v>
       </c>
@@ -7004,7 +7321,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="9" t="s">
         <v>81</v>
       </c>
@@ -7031,7 +7348,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="9" t="s">
         <v>82</v>
       </c>
@@ -7058,7 +7375,7 @@
         <v>10410</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>84</v>
       </c>
@@ -7089,7 +7406,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
         <v>85</v>
       </c>
@@ -7120,7 +7437,7 @@
         <v>9570</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -7151,7 +7468,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
         <v>86</v>
       </c>
@@ -7182,7 +7499,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
         <v>94</v>
       </c>
@@ -7209,7 +7526,7 @@
         <v>6930</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>94</v>
       </c>
@@ -7240,7 +7557,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>93</v>
       </c>
@@ -7267,7 +7584,7 @@
         <v>9210</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
         <v>95</v>
       </c>
@@ -7298,7 +7615,7 @@
         <v>8910</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="9" t="s">
         <v>97</v>
       </c>
@@ -7325,7 +7642,7 @@
         <v>10710</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="9" t="s">
         <v>98</v>
       </c>
@@ -7352,7 +7669,7 @@
         <v>11910</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="9" t="s">
         <v>100</v>
       </c>
@@ -7383,7 +7700,7 @@
         <v>11010</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="9" t="s">
         <v>100</v>
       </c>
@@ -7414,7 +7731,7 @@
         <v>10710</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="9" t="s">
         <v>101</v>
       </c>
@@ -7445,7 +7762,7 @@
         <v>7110</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="9" t="s">
         <v>102</v>
       </c>
@@ -7476,7 +7793,7 @@
         <v>6960</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
         <v>105</v>
       </c>
@@ -7503,7 +7820,7 @@
         <v>12330</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
         <v>106</v>
       </c>
@@ -7530,7 +7847,7 @@
         <v>13110</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="9" t="s">
         <v>107</v>
       </c>
@@ -7561,7 +7878,7 @@
         <v>12660</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15.75" thickBot="1">
       <c r="A61" s="9"/>
       <c r="B61" s="14">
         <f t="shared" si="25"/>
@@ -7584,7 +7901,7 @@
         <v>12660</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15.75" thickBot="1">
       <c r="A62" s="33" t="s">
         <v>2</v>
       </c>
@@ -7603,7 +7920,7 @@
       <c r="H62" s="31"/>
       <c r="I62" s="32"/>
     </row>
-    <row r="65" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="19.5" thickBot="1">
       <c r="A65" s="45" t="s">
         <v>113</v>
       </c>
@@ -7616,7 +7933,7 @@
       <c r="H65" s="45"/>
       <c r="I65" s="45"/>
     </row>
-    <row r="66" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="39.75" thickBot="1">
       <c r="A66" s="6" t="s">
         <v>0</v>
       </c>
@@ -7645,7 +7962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
         <v>109</v>
       </c>
@@ -7669,7 +7986,7 @@
         <v>12660</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="7" t="s">
         <v>109</v>
       </c>
@@ -7698,7 +8015,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="9" t="s">
         <v>131</v>
       </c>
@@ -7727,7 +8044,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="9" t="s">
         <v>133</v>
       </c>
@@ -7754,7 +8071,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="9"/>
       <c r="B71" s="14">
         <f t="shared" si="32"/>
@@ -7777,7 +8094,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="9"/>
       <c r="B72" s="14">
         <f t="shared" si="32"/>
@@ -7800,7 +8117,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="9"/>
       <c r="B73" s="14">
         <f t="shared" si="32"/>
@@ -7823,7 +8140,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="9"/>
       <c r="B74" s="14">
         <f t="shared" si="32"/>
@@ -7846,7 +8163,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="9"/>
       <c r="B75" s="14">
         <f t="shared" si="32"/>
@@ -7869,7 +8186,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="9"/>
       <c r="B76" s="14">
         <f t="shared" si="32"/>
@@ -7892,7 +8209,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="9"/>
       <c r="B77" s="14">
         <f t="shared" si="32"/>
@@ -7915,7 +8232,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="9"/>
       <c r="B78" s="14">
         <f t="shared" si="32"/>
@@ -7938,7 +8255,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="9"/>
       <c r="B79" s="14">
         <f t="shared" si="32"/>
@@ -7961,7 +8278,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="9"/>
       <c r="B80" s="14">
         <f t="shared" si="32"/>
@@ -7984,7 +8301,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="9"/>
       <c r="B81" s="14">
         <f t="shared" si="32"/>
@@ -8007,7 +8324,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="9"/>
       <c r="B82" s="14">
         <f t="shared" si="32"/>
@@ -8030,7 +8347,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="9"/>
       <c r="B83" s="14">
         <f t="shared" si="32"/>
@@ -8053,7 +8370,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="9"/>
       <c r="B84" s="14">
         <f t="shared" si="32"/>
@@ -8076,7 +8393,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="9"/>
       <c r="B85" s="14">
         <f t="shared" si="32"/>
@@ -8099,7 +8416,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="9"/>
       <c r="B86" s="14">
         <f t="shared" si="32"/>
@@ -8122,7 +8439,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="9"/>
       <c r="B87" s="14">
         <f t="shared" si="32"/>
@@ -8145,7 +8462,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" thickBot="1">
       <c r="A88" s="9"/>
       <c r="B88" s="14">
         <f t="shared" si="32"/>
@@ -8168,7 +8485,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.75" thickBot="1">
       <c r="A89" s="33" t="s">
         <v>2</v>
       </c>
@@ -8199,14 +8516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -8220,7 +8537,7 @@
     <col min="10" max="10" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>116</v>
       </c>
@@ -8234,7 +8551,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="51.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8263,7 +8580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -8287,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -8314,7 +8631,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -8341,7 +8658,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -8372,7 +8689,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
@@ -8403,7 +8720,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="7"/>
       <c r="B8" s="14">
         <f t="shared" si="3"/>
@@ -8426,7 +8743,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="35" t="s">
         <v>2</v>
       </c>
@@ -8445,7 +8762,7 @@
       <c r="H9" s="31"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="45" t="s">
         <v>73</v>
       </c>
@@ -8458,7 +8775,7 @@
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="51.75" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -8487,7 +8804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
@@ -8511,7 +8828,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="7"/>
       <c r="B15" s="14">
         <f>I14</f>
@@ -8534,7 +8851,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
@@ -8553,7 +8870,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="32"/>
     </row>
-    <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="19.5" thickBot="1">
       <c r="A19" s="45" t="s">
         <v>115</v>
       </c>
@@ -8566,7 +8883,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="51.75" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
@@ -8595,7 +8912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>109</v>
       </c>
@@ -8619,7 +8936,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>131</v>
       </c>
@@ -8645,7 +8962,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
         <v>131</v>
       </c>
@@ -8673,7 +8990,7 @@
         <v>-288</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>132</v>
       </c>
@@ -8699,7 +9016,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="7"/>
       <c r="B25" s="14">
         <v>192</v>
@@ -8721,7 +9038,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7"/>
       <c r="B26" s="14">
         <v>192</v>
@@ -8743,7 +9060,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7"/>
       <c r="B27" s="14">
         <v>192</v>
@@ -8765,7 +9082,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7"/>
       <c r="B28" s="14">
         <v>192</v>
@@ -8787,7 +9104,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1">
       <c r="A29" s="7"/>
       <c r="B29" s="14">
         <v>192</v>
@@ -8809,7 +9126,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>2</v>
       </c>
@@ -8840,14 +9157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
@@ -8859,7 +9176,7 @@
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>119</v>
       </c>
@@ -8872,7 +9189,7 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8901,7 +9218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -8925,7 +9242,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -8956,7 +9273,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -8987,7 +9304,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -9018,7 +9335,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -9045,7 +9362,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -9072,7 +9389,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -9103,7 +9420,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
@@ -9130,7 +9447,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>55</v>
       </c>
@@ -9161,7 +9478,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -9192,7 +9509,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
@@ -9219,7 +9536,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
@@ -9246,7 +9563,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
@@ -9273,7 +9590,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
@@ -9300,7 +9617,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
@@ -9331,7 +9648,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9358,7 +9675,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>92</v>
       </c>
@@ -9385,7 +9702,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="7"/>
       <c r="B20" s="14">
         <f>I19</f>
@@ -9408,7 +9725,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>2</v>
       </c>
@@ -9427,7 +9744,7 @@
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="19.5" thickBot="1">
       <c r="A25" s="45" t="s">
         <v>118</v>
       </c>
@@ -9440,7 +9757,7 @@
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
     </row>
-    <row r="26" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="39" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -9469,7 +9786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>70</v>
       </c>
@@ -9493,7 +9810,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>81</v>
       </c>
@@ -9520,7 +9837,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
@@ -9547,7 +9864,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>84</v>
       </c>
@@ -9574,7 +9891,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>94</v>
       </c>
@@ -9605,7 +9922,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>93</v>
       </c>
@@ -9636,7 +9953,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>101</v>
       </c>
@@ -9667,7 +9984,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
         <v>104</v>
       </c>
@@ -9694,7 +10011,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
@@ -9721,7 +10038,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -9748,7 +10065,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1">
       <c r="A37" s="7"/>
       <c r="B37" s="14">
         <f t="shared" si="17"/>
@@ -9771,7 +10088,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="35" t="s">
         <v>2</v>
       </c>
@@ -9790,7 +10107,7 @@
       <c r="H38" s="31"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="19.5" thickBot="1">
       <c r="A41" s="45" t="s">
         <v>117</v>
       </c>
@@ -9803,7 +10120,7 @@
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="39" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>0</v>
       </c>
@@ -9832,7 +10149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
         <v>109</v>
       </c>
@@ -9856,7 +10173,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>109</v>
       </c>
@@ -9885,7 +10202,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
@@ -9914,7 +10231,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="B46" s="14">
         <f t="shared" si="22"/>
@@ -9937,7 +10254,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7"/>
       <c r="B47" s="14">
         <f t="shared" si="22"/>
@@ -9960,7 +10277,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="14">
         <f t="shared" si="22"/>
@@ -9983,7 +10300,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="14">
         <f t="shared" si="22"/>
@@ -10006,7 +10323,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="14">
         <f t="shared" si="22"/>
@@ -10029,7 +10346,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="14">
         <f t="shared" si="22"/>
@@ -10052,7 +10369,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="14">
         <f t="shared" si="22"/>
@@ -10075,7 +10392,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" thickBot="1">
       <c r="A53" s="7"/>
       <c r="B53" s="14">
         <f t="shared" si="22"/>
@@ -10098,7 +10415,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" thickBot="1">
       <c r="A54" s="35" t="s">
         <v>2</v>
       </c>
@@ -10118,7 +10435,7 @@
       <c r="I54" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I20" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A2:I20"/>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A25:I25"/>
@@ -10130,14 +10447,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -10150,7 +10467,7 @@
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>9</v>
       </c>
@@ -10163,7 +10480,7 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -10192,7 +10509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -10216,7 +10533,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>64</v>
       </c>
@@ -10247,7 +10564,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
@@ -10278,7 +10595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="9"/>
       <c r="B6" s="16">
         <f t="shared" si="3"/>
@@ -10301,7 +10618,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="35" t="s">
         <v>2</v>
       </c>
@@ -10320,7 +10637,7 @@
       <c r="H7" s="31"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19.5" thickBot="1">
       <c r="A10" s="45" t="s">
         <v>74</v>
       </c>
@@ -10333,7 +10650,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="39" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -10362,7 +10679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
@@ -10386,7 +10703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>87</v>
       </c>
@@ -10413,7 +10730,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>86</v>
       </c>
@@ -10440,7 +10757,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>94</v>
       </c>
@@ -10467,7 +10784,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>94</v>
       </c>
@@ -10498,7 +10815,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>100</v>
       </c>
@@ -10529,7 +10846,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>101</v>
       </c>
@@ -10556,7 +10873,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>104</v>
       </c>
@@ -10583,7 +10900,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="9"/>
       <c r="B20" s="14">
         <f t="shared" si="9"/>
@@ -10606,7 +10923,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>2</v>
       </c>
@@ -10625,7 +10942,7 @@
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="24" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="19.5" thickBot="1">
       <c r="A24" s="45" t="s">
         <v>120</v>
       </c>
@@ -10638,7 +10955,7 @@
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
     </row>
-    <row r="25" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="39" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
@@ -10667,7 +10984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>109</v>
       </c>
@@ -10691,7 +11008,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7"/>
       <c r="B27" s="14">
         <f>I26</f>
@@ -10714,7 +11031,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7"/>
       <c r="B28" s="14">
         <f t="shared" ref="B28:B34" si="15">I27</f>
@@ -10737,7 +11054,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9"/>
       <c r="B29" s="14">
         <f t="shared" si="15"/>
@@ -10760,7 +11077,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9"/>
       <c r="B30" s="14">
         <f t="shared" si="15"/>
@@ -10783,7 +11100,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9"/>
       <c r="B31" s="14">
         <f t="shared" si="15"/>
@@ -10806,7 +11123,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9"/>
       <c r="B32" s="14">
         <f t="shared" si="15"/>
@@ -10829,7 +11146,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9"/>
       <c r="B33" s="14">
         <f t="shared" si="15"/>
@@ -10852,7 +11169,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
       <c r="A34" s="9"/>
       <c r="B34" s="14">
         <f t="shared" si="15"/>
@@ -10875,7 +11192,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
       <c r="A35" s="35" t="s">
         <v>2</v>
       </c>
@@ -10906,14 +11223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
@@ -10925,7 +11242,7 @@
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>121</v>
       </c>
@@ -10938,7 +11255,7 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="51" customHeight="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -10967,7 +11284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -10991,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -11018,7 +11335,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -11049,7 +11366,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -11080,7 +11397,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -11107,7 +11424,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -11138,7 +11455,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
@@ -11169,7 +11486,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -11200,7 +11517,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
@@ -11227,7 +11544,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
@@ -11258,7 +11575,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
@@ -11285,7 +11602,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -11316,7 +11633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>57</v>
       </c>
@@ -11343,7 +11660,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>57</v>
       </c>
@@ -11374,7 +11691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
@@ -11401,7 +11718,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>58</v>
       </c>
@@ -11432,7 +11749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>60</v>
       </c>
@@ -11459,7 +11776,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>60</v>
       </c>
@@ -11490,7 +11807,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>60</v>
       </c>
@@ -11521,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>61</v>
       </c>
@@ -11548,7 +11865,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>62</v>
       </c>
@@ -11579,7 +11896,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>64</v>
       </c>
@@ -11606,7 +11923,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>65</v>
       </c>
@@ -11633,7 +11950,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>65</v>
       </c>
@@ -11664,7 +11981,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
         <v>66</v>
       </c>
@@ -11695,7 +12012,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9" t="s">
         <v>68</v>
       </c>
@@ -11722,7 +12039,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -11753,7 +12070,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -11784,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="9"/>
       <c r="B31" s="16">
         <f t="shared" si="7"/>
@@ -11807,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="33" t="s">
         <v>2</v>
       </c>
@@ -11826,7 +12143,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="19.5" thickBot="1">
       <c r="A35" s="45" t="s">
         <v>75</v>
       </c>
@@ -11839,7 +12156,7 @@
       <c r="H35" s="45"/>
       <c r="I35" s="45"/>
     </row>
-    <row r="36" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="39.75" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>0</v>
       </c>
@@ -11868,7 +12185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
@@ -11892,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>70</v>
       </c>
@@ -11919,7 +12236,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>26</v>
       </c>
@@ -11946,7 +12263,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
         <v>88</v>
       </c>
@@ -11977,7 +12294,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
         <v>85</v>
       </c>
@@ -12004,7 +12321,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
         <v>85</v>
       </c>
@@ -12035,7 +12352,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
         <v>85</v>
       </c>
@@ -12066,7 +12383,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>94</v>
       </c>
@@ -12097,7 +12414,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
         <v>93</v>
       </c>
@@ -12124,7 +12441,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>93</v>
       </c>
@@ -12155,7 +12472,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
         <v>95</v>
       </c>
@@ -12182,7 +12499,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
         <v>95</v>
       </c>
@@ -12213,7 +12530,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>97</v>
       </c>
@@ -12240,7 +12557,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>98</v>
       </c>
@@ -12267,7 +12584,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
         <v>100</v>
       </c>
@@ -12298,7 +12615,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="9" t="s">
         <v>100</v>
       </c>
@@ -12329,7 +12646,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="9" t="s">
         <v>101</v>
       </c>
@@ -12360,7 +12677,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="9" t="s">
         <v>102</v>
       </c>
@@ -12387,7 +12704,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="9" t="s">
         <v>104</v>
       </c>
@@ -12414,7 +12731,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="9" t="s">
         <v>107</v>
       </c>
@@ -12445,7 +12762,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="9" t="s">
         <v>107</v>
       </c>
@@ -12476,7 +12793,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.75" thickBot="1">
       <c r="A58" s="9"/>
       <c r="B58" s="14">
         <f t="shared" si="21"/>
@@ -12499,7 +12816,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.75" thickBot="1">
       <c r="A59" s="33" t="s">
         <v>2</v>
       </c>
@@ -12518,7 +12835,7 @@
       <c r="H59" s="31"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="62" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="19.5" thickBot="1">
       <c r="A62" s="45" t="s">
         <v>122</v>
       </c>
@@ -12531,7 +12848,7 @@
       <c r="H62" s="45"/>
       <c r="I62" s="45"/>
     </row>
-    <row r="63" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="39.75" thickBot="1">
       <c r="A63" s="6" t="s">
         <v>0</v>
       </c>
@@ -12560,7 +12877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
         <v>109</v>
       </c>
@@ -12584,7 +12901,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="7" t="s">
         <v>109</v>
       </c>
@@ -12611,7 +12928,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
         <v>109</v>
       </c>
@@ -12640,7 +12957,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
         <v>131</v>
       </c>
@@ -12669,7 +12986,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="7" t="s">
         <v>134</v>
       </c>
@@ -12696,7 +13013,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="7"/>
       <c r="B69" s="14">
         <f t="shared" si="28"/>
@@ -12719,7 +13036,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="7"/>
       <c r="B70" s="14">
         <f t="shared" si="28"/>
@@ -12742,7 +13059,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="9"/>
       <c r="B71" s="14">
         <f t="shared" si="28"/>
@@ -12765,7 +13082,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="9"/>
       <c r="B72" s="14">
         <f t="shared" si="28"/>
@@ -12788,7 +13105,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="9"/>
       <c r="B73" s="14">
         <f t="shared" si="28"/>
@@ -12811,7 +13128,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="9"/>
       <c r="B74" s="14">
         <f t="shared" si="28"/>
@@ -12834,7 +13151,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="9"/>
       <c r="B75" s="14">
         <f t="shared" si="28"/>
@@ -12857,7 +13174,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="9"/>
       <c r="B76" s="14">
         <f t="shared" si="28"/>
@@ -12880,7 +13197,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="9"/>
       <c r="B77" s="14">
         <f t="shared" si="28"/>
@@ -12903,7 +13220,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="9"/>
       <c r="B78" s="14">
         <f t="shared" si="28"/>
@@ -12926,7 +13243,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="9"/>
       <c r="B79" s="14">
         <f t="shared" si="28"/>
@@ -12949,7 +13266,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="9"/>
       <c r="B80" s="14">
         <f t="shared" si="28"/>
@@ -12972,7 +13289,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="9"/>
       <c r="B81" s="14">
         <f t="shared" si="28"/>
@@ -12995,7 +13312,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="9"/>
       <c r="B82" s="14">
         <f t="shared" si="28"/>
@@ -13018,7 +13335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="9"/>
       <c r="B83" s="14">
         <f t="shared" si="28"/>
@@ -13041,7 +13358,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="9"/>
       <c r="B84" s="14">
         <f t="shared" si="28"/>
@@ -13064,7 +13381,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15.75" thickBot="1">
       <c r="A85" s="9"/>
       <c r="B85" s="14">
         <f t="shared" si="28"/>
@@ -13087,7 +13404,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15.75" thickBot="1">
       <c r="A86" s="33" t="s">
         <v>2</v>
       </c>
@@ -13118,14 +13435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
@@ -13138,7 +13455,7 @@
     <col min="9" max="9" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>127</v>
       </c>
@@ -13151,7 +13468,7 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="39.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -13180,7 +13497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -13204,7 +13521,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -13235,7 +13552,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
@@ -13262,7 +13579,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -13293,7 +13610,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
@@ -13324,7 +13641,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -13355,7 +13672,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
@@ -13382,7 +13699,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
@@ -13409,7 +13726,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -13440,7 +13757,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
@@ -13467,7 +13784,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
@@ -13494,7 +13811,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -13525,7 +13842,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -13556,7 +13873,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
@@ -13587,7 +13904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>57</v>
       </c>
@@ -13614,7 +13931,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>57</v>
       </c>
@@ -13645,7 +13962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>58</v>
       </c>
@@ -13672,7 +13989,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
@@ -13703,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>60</v>
       </c>
@@ -13730,7 +14047,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>60</v>
       </c>
@@ -13761,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>61</v>
       </c>
@@ -13788,7 +14105,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>62</v>
       </c>
@@ -13815,7 +14132,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>62</v>
       </c>
@@ -13846,7 +14163,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>65</v>
       </c>
@@ -13873,7 +14190,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
         <v>65</v>
       </c>
@@ -13904,7 +14221,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -13935,7 +14252,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -13962,7 +14279,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -13993,7 +14310,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
         <v>68</v>
       </c>
@@ -14024,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="9"/>
       <c r="B32" s="16">
         <f t="shared" si="15"/>
@@ -14047,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="33" t="s">
         <v>2</v>
       </c>
@@ -14066,7 +14383,7 @@
       <c r="H33" s="31"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="19.5" thickBot="1">
       <c r="A36" s="45" t="s">
         <v>76</v>
       </c>
@@ -14079,7 +14396,7 @@
       <c r="H36" s="45"/>
       <c r="I36" s="45"/>
     </row>
-    <row r="37" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="39.75" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
@@ -14108,7 +14425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>70</v>
       </c>
@@ -14134,7 +14451,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="9" t="s">
         <v>80</v>
       </c>
@@ -14161,7 +14478,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
@@ -14188,7 +14505,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="9" t="s">
         <v>26</v>
       </c>
@@ -14215,7 +14532,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
@@ -14246,7 +14563,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="9" t="s">
         <v>85</v>
       </c>
@@ -14277,7 +14594,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>93</v>
       </c>
@@ -14308,7 +14625,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
         <v>95</v>
       </c>
@@ -14339,7 +14656,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -14366,7 +14683,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
         <v>98</v>
       </c>
@@ -14393,7 +14710,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
         <v>100</v>
       </c>
@@ -14424,7 +14741,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
@@ -14455,7 +14772,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>101</v>
       </c>
@@ -14482,7 +14799,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
         <v>101</v>
       </c>
@@ -14513,7 +14830,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="9" t="s">
         <v>102</v>
       </c>
@@ -14540,7 +14857,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="9" t="s">
         <v>107</v>
       </c>
@@ -14571,7 +14888,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" thickBot="1">
       <c r="A54" s="9"/>
       <c r="B54" s="16">
         <f t="shared" si="22"/>
@@ -14594,7 +14911,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1">
       <c r="A55" s="33" t="s">
         <v>2</v>
       </c>
@@ -14613,7 +14930,7 @@
       <c r="H55" s="31"/>
       <c r="I55" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="19.5" thickBot="1">
       <c r="A58" s="45" t="s">
         <v>123</v>
       </c>
@@ -14626,7 +14943,7 @@
       <c r="H58" s="45"/>
       <c r="I58" s="45"/>
     </row>
-    <row r="59" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="39.75" thickBot="1">
       <c r="A59" s="6" t="s">
         <v>0</v>
       </c>
@@ -14655,7 +14972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="7" t="s">
         <v>109</v>
       </c>
@@ -14679,7 +14996,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
         <v>109</v>
       </c>
@@ -14708,7 +15025,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="9" t="s">
         <v>131</v>
       </c>
@@ -14737,7 +15054,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="9"/>
       <c r="B63" s="16">
         <f t="shared" ref="B63:B77" si="26">I62</f>
@@ -14760,7 +15077,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="9"/>
       <c r="B64" s="16">
         <f t="shared" si="26"/>
@@ -14783,7 +15100,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="9"/>
       <c r="B65" s="16">
         <f t="shared" si="26"/>
@@ -14806,7 +15123,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="9"/>
       <c r="B66" s="16">
         <f t="shared" si="26"/>
@@ -14829,7 +15146,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="9"/>
       <c r="B67" s="16">
         <f t="shared" si="26"/>
@@ -14852,7 +15169,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="9"/>
       <c r="B68" s="16">
         <f t="shared" si="26"/>
@@ -14875,7 +15192,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="9"/>
       <c r="B69" s="16">
         <f t="shared" si="26"/>
@@ -14898,7 +15215,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="9"/>
       <c r="B70" s="16">
         <f t="shared" si="26"/>
@@ -14921,7 +15238,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="9"/>
       <c r="B71" s="16">
         <f t="shared" si="26"/>
@@ -14944,7 +15261,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="9"/>
       <c r="B72" s="16">
         <f t="shared" si="26"/>
@@ -14967,7 +15284,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="9"/>
       <c r="B73" s="16">
         <f t="shared" si="26"/>
@@ -14990,7 +15307,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="9"/>
       <c r="B74" s="16">
         <f t="shared" si="26"/>
@@ -15013,7 +15330,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="9"/>
       <c r="B75" s="16">
         <f t="shared" si="26"/>
@@ -15036,7 +15353,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="9"/>
       <c r="B76" s="16">
         <f t="shared" si="26"/>
@@ -15059,7 +15376,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15.75" thickBot="1">
       <c r="A77" s="9"/>
       <c r="B77" s="16">
         <f t="shared" si="26"/>
@@ -15082,7 +15399,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.75" thickBot="1">
       <c r="A78" s="33" t="s">
         <v>2</v>
       </c>
@@ -15113,14 +15430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
@@ -15133,7 +15450,7 @@
     <col min="9" max="9" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>126</v>
       </c>
@@ -15146,7 +15463,7 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -15175,7 +15492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -15199,7 +15516,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -15226,7 +15543,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -15257,7 +15574,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -15284,7 +15601,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -15315,7 +15632,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -15346,7 +15663,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -15373,7 +15690,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -15402,7 +15719,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -15429,7 +15746,7 @@
         <v>5616</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -15460,7 +15777,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
@@ -15487,7 +15804,7 @@
         <v>6744</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
         <v>35</v>
       </c>
@@ -15518,7 +15835,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -15545,7 +15862,7 @@
         <v>8832</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -15576,7 +15893,7 @@
         <v>8472</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -15607,7 +15924,7 @@
         <v>4872</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -15638,7 +15955,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
@@ -15669,7 +15986,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -15700,7 +16017,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
@@ -15727,7 +16044,7 @@
         <v>4272</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>40</v>
       </c>
@@ -15758,7 +16075,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
@@ -15785,7 +16102,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
@@ -15816,7 +16133,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
@@ -15843,7 +16160,7 @@
         <v>6816</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
@@ -15874,7 +16191,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
         <v>45</v>
       </c>
@@ -15905,7 +16222,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9" t="s">
         <v>45</v>
       </c>
@@ -15936,7 +16253,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>48</v>
       </c>
@@ -15963,7 +16280,7 @@
         <v>7896</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>48</v>
       </c>
@@ -15994,7 +16311,7 @@
         <v>7824</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
         <v>52</v>
       </c>
@@ -16021,7 +16338,7 @@
         <v>8328</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9" t="s">
         <v>52</v>
       </c>
@@ -16052,7 +16369,7 @@
         <v>7608</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
         <v>52</v>
       </c>
@@ -16083,7 +16400,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="9" t="s">
         <v>55</v>
       </c>
@@ -16110,7 +16427,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="9" t="s">
         <v>55</v>
       </c>
@@ -16141,7 +16458,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="9" t="s">
         <v>55</v>
       </c>
@@ -16172,7 +16489,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="9" t="s">
         <v>56</v>
       </c>
@@ -16199,7 +16516,7 @@
         <v>5256</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="9" t="s">
         <v>57</v>
       </c>
@@ -16226,7 +16543,7 @@
         <v>8688</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="9" t="s">
         <v>57</v>
       </c>
@@ -16257,7 +16574,7 @@
         <v>8568</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="9" t="s">
         <v>57</v>
       </c>
@@ -16288,7 +16605,7 @@
         <v>7368</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="9" t="s">
         <v>58</v>
       </c>
@@ -16315,7 +16632,7 @@
         <v>7704</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="9" t="s">
         <v>58</v>
       </c>
@@ -16346,7 +16663,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="9" t="s">
         <v>60</v>
       </c>
@@ -16373,7 +16690,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>60</v>
       </c>
@@ -16404,7 +16721,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
         <v>60</v>
       </c>
@@ -16435,7 +16752,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>60</v>
       </c>
@@ -16466,7 +16783,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
         <v>61</v>
       </c>
@@ -16493,7 +16810,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
         <v>62</v>
       </c>
@@ -16520,7 +16837,7 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>62</v>
       </c>
@@ -16551,7 +16868,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>63</v>
       </c>
@@ -16578,7 +16895,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
         <v>64</v>
       </c>
@@ -16609,7 +16926,7 @@
         <v>6888</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="9" t="s">
         <v>64</v>
       </c>
@@ -16640,7 +16957,7 @@
         <v>6768</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="9" t="s">
         <v>65</v>
       </c>
@@ -16667,7 +16984,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="9" t="s">
         <v>65</v>
       </c>
@@ -16698,7 +17015,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
@@ -16727,7 +17044,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="9" t="s">
         <v>65</v>
       </c>
@@ -16758,7 +17075,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="9" t="s">
         <v>66</v>
       </c>
@@ -16785,7 +17102,7 @@
         <v>4872</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
         <v>66</v>
       </c>
@@ -16816,7 +17133,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
         <v>66</v>
       </c>
@@ -16847,7 +17164,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="9" t="s">
         <v>68</v>
       </c>
@@ -16874,7 +17191,7 @@
         <v>6288</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="9" t="s">
         <v>68</v>
       </c>
@@ -16905,7 +17222,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="9" t="s">
         <v>68</v>
       </c>
@@ -16936,7 +17253,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="9" t="s">
         <v>68</v>
       </c>
@@ -16967,7 +17284,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="9" t="s">
         <v>92</v>
       </c>
@@ -16994,7 +17311,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15.75" thickBot="1">
       <c r="A65" s="9"/>
       <c r="B65" s="16">
         <f t="shared" si="31"/>
@@ -17017,7 +17334,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.75" thickBot="1">
       <c r="A66" s="33" t="s">
         <v>2</v>
       </c>
@@ -17036,7 +17353,7 @@
       <c r="H66" s="40"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="19.5" thickBot="1">
       <c r="A69" s="45" t="s">
         <v>77</v>
       </c>
@@ -17049,7 +17366,7 @@
       <c r="H69" s="45"/>
       <c r="I69" s="45"/>
     </row>
-    <row r="70" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="39" thickBot="1">
       <c r="A70" s="6" t="s">
         <v>0</v>
       </c>
@@ -17078,7 +17395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="7" t="s">
         <v>70</v>
       </c>
@@ -17102,7 +17419,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>83</v>
       </c>
@@ -17129,7 +17446,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="9" t="s">
         <v>84</v>
       </c>
@@ -17156,7 +17473,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="9" t="s">
         <v>87</v>
       </c>
@@ -17183,7 +17500,7 @@
         <v>11304</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="9" t="s">
         <v>88</v>
       </c>
@@ -17210,7 +17527,7 @@
         <v>14352</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="9" t="s">
         <v>88</v>
       </c>
@@ -17241,7 +17558,7 @@
         <v>11952</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="9" t="s">
         <v>89</v>
       </c>
@@ -17268,7 +17585,7 @@
         <v>13512</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="9" t="s">
         <v>89</v>
       </c>
@@ -17299,7 +17616,7 @@
         <v>13392</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="9" t="s">
         <v>85</v>
       </c>
@@ -17330,7 +17647,7 @@
         <v>10992</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="9" t="s">
         <v>85</v>
       </c>
@@ -17361,7 +17678,7 @@
         <v>10152</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="9" t="s">
         <v>85</v>
       </c>
@@ -17392,7 +17709,7 @@
         <v>8832</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="9" t="s">
         <v>86</v>
       </c>
@@ -17419,7 +17736,7 @@
         <v>11256</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="9" t="s">
         <v>94</v>
       </c>
@@ -17446,7 +17763,7 @@
         <v>14280</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="9" t="s">
         <v>94</v>
       </c>
@@ -17477,7 +17794,7 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="9" t="s">
         <v>93</v>
       </c>
@@ -17504,7 +17821,7 @@
         <v>11640</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="9" t="s">
         <v>93</v>
       </c>
@@ -17535,7 +17852,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="9" t="s">
         <v>95</v>
       </c>
@@ -17562,7 +17879,7 @@
         <v>8208</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="9" t="s">
         <v>96</v>
       </c>
@@ -17589,7 +17906,7 @@
         <v>9912</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="9" t="s">
         <v>97</v>
       </c>
@@ -17616,7 +17933,7 @@
         <v>11616</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="9" t="s">
         <v>98</v>
       </c>
@@ -17643,7 +17960,7 @@
         <v>12216</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="9" t="s">
         <v>99</v>
       </c>
@@ -17670,7 +17987,7 @@
         <v>15504</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="9" t="s">
         <v>100</v>
       </c>
@@ -17697,7 +18014,7 @@
         <v>17832</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="9" t="s">
         <v>100</v>
       </c>
@@ -17728,7 +18045,7 @@
         <v>14232</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="9" t="s">
         <v>100</v>
       </c>
@@ -17759,7 +18076,7 @@
         <v>12792</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="9" t="s">
         <v>100</v>
       </c>
@@ -17790,7 +18107,7 @@
         <v>10392</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="9" t="s">
         <v>101</v>
       </c>
@@ -17817,7 +18134,7 @@
         <v>11544</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="9" t="s">
         <v>101</v>
       </c>
@@ -17848,7 +18165,7 @@
         <v>9744</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="9" t="s">
         <v>102</v>
       </c>
@@ -17875,7 +18192,7 @@
         <v>12888</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="9" t="s">
         <v>102</v>
       </c>
@@ -17906,7 +18223,7 @@
         <v>12840</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="9" t="s">
         <v>104</v>
       </c>
@@ -17933,7 +18250,7 @@
         <v>13944</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="9" t="s">
         <v>107</v>
       </c>
@@ -17960,7 +18277,7 @@
         <v>14976</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="9" t="s">
         <v>107</v>
       </c>
@@ -17991,7 +18308,7 @@
         <v>12576</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="9" t="s">
         <v>107</v>
       </c>
@@ -18022,7 +18339,7 @@
         <v>11136</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="9" t="s">
         <v>107</v>
       </c>
@@ -18053,7 +18370,7 @@
         <v>9936</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" thickBot="1">
       <c r="A105" s="9"/>
       <c r="B105" s="14">
         <f t="shared" si="38"/>
@@ -18076,7 +18393,7 @@
         <v>9936</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.75" thickBot="1">
       <c r="A106" s="33" t="s">
         <v>2</v>
       </c>
@@ -18095,7 +18412,7 @@
       <c r="H106" s="40"/>
       <c r="I106" s="32"/>
     </row>
-    <row r="109" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="19.5" thickBot="1">
       <c r="A109" s="45" t="s">
         <v>124</v>
       </c>
@@ -18108,7 +18425,7 @@
       <c r="H109" s="45"/>
       <c r="I109" s="45"/>
     </row>
-    <row r="110" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="39" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>0</v>
       </c>
@@ -18137,7 +18454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="7" t="s">
         <v>109</v>
       </c>
@@ -18161,7 +18478,7 @@
         <v>9939</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="7" t="s">
         <v>109</v>
       </c>
@@ -18188,7 +18505,7 @@
         <v>10851</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
         <v>109</v>
       </c>
@@ -18217,7 +18534,7 @@
         <v>9651</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
         <v>131</v>
       </c>
@@ -18244,7 +18561,7 @@
         <v>11835</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="9" t="s">
         <v>131</v>
       </c>
@@ -18273,7 +18590,7 @@
         <v>8235</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="9" t="s">
         <v>132</v>
       </c>
@@ -18300,7 +18617,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="9"/>
       <c r="B117" s="14">
         <f t="shared" si="44"/>
@@ -18323,7 +18640,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="9"/>
       <c r="B118" s="14">
         <f t="shared" si="44"/>
@@ -18346,7 +18663,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="9"/>
       <c r="B119" s="14">
         <f t="shared" si="44"/>
@@ -18369,7 +18686,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="9"/>
       <c r="B120" s="14">
         <f t="shared" si="44"/>
@@ -18392,7 +18709,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="9"/>
       <c r="B121" s="14">
         <f t="shared" si="44"/>
@@ -18415,7 +18732,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="9"/>
       <c r="B122" s="14">
         <f t="shared" si="44"/>
@@ -18438,7 +18755,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="9"/>
       <c r="B123" s="14">
         <f t="shared" si="44"/>
@@ -18461,7 +18778,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="9"/>
       <c r="B124" s="14">
         <f t="shared" si="44"/>
@@ -18484,7 +18801,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="9"/>
       <c r="B125" s="14">
         <f t="shared" si="44"/>
@@ -18507,7 +18824,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="9"/>
       <c r="B126" s="14">
         <f t="shared" si="44"/>
@@ -18530,7 +18847,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="9"/>
       <c r="B127" s="14">
         <f t="shared" si="44"/>
@@ -18553,7 +18870,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="9"/>
       <c r="B128" s="14">
         <f t="shared" si="44"/>
@@ -18576,7 +18893,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="9"/>
       <c r="B129" s="14">
         <f t="shared" si="44"/>
@@ -18599,7 +18916,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="9"/>
       <c r="B130" s="14">
         <f t="shared" si="44"/>
@@ -18622,7 +18939,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="9"/>
       <c r="B131" s="14">
         <f t="shared" si="44"/>
@@ -18645,7 +18962,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="9"/>
       <c r="B132" s="14">
         <f t="shared" si="44"/>
@@ -18668,7 +18985,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="9"/>
       <c r="B133" s="14">
         <f t="shared" si="44"/>
@@ -18691,7 +19008,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="9"/>
       <c r="B134" s="14">
         <f t="shared" si="44"/>
@@ -18714,7 +19031,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="9"/>
       <c r="B135" s="14">
         <f t="shared" si="44"/>
@@ -18737,7 +19054,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="9"/>
       <c r="B136" s="14">
         <f t="shared" si="44"/>
@@ -18760,7 +19077,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="9"/>
       <c r="B137" s="14">
         <f t="shared" si="44"/>
@@ -18783,7 +19100,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="9"/>
       <c r="B138" s="14">
         <f t="shared" si="44"/>
@@ -18806,7 +19123,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="9"/>
       <c r="B139" s="14">
         <f t="shared" si="44"/>
@@ -18829,7 +19146,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="9"/>
       <c r="B140" s="14">
         <f t="shared" si="44"/>
@@ -18852,7 +19169,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="9"/>
       <c r="B141" s="14">
         <f t="shared" si="44"/>
@@ -18875,7 +19192,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="9"/>
       <c r="B142" s="14">
         <f t="shared" si="44"/>
@@ -18898,7 +19215,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="9"/>
       <c r="B143" s="14">
         <f t="shared" si="44"/>
@@ -18921,7 +19238,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="9"/>
       <c r="B144" s="14">
         <f t="shared" si="44"/>
@@ -18944,7 +19261,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15.75" thickBot="1">
       <c r="A145" s="9"/>
       <c r="B145" s="14">
         <f t="shared" si="44"/>
@@ -18967,7 +19284,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15.75" thickBot="1">
       <c r="A146" s="33" t="s">
         <v>2</v>
       </c>

--- a/FINISHED GOODS REGISTER 2021-22.xlsx
+++ b/FINISHED GOODS REGISTER 2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Downloads\excel-main\excel-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7E9A9-0870-4919-96C2-01E32D6142B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2019-20-1kg PREMIUM" sheetId="29" r:id="rId1"/>
@@ -35,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2019-20-500GM. SPL'!$A$2:$I$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2019-20-5kg'!$A$2:$K$34</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="150">
   <si>
     <t>DATE</t>
   </si>
@@ -454,12 +448,57 @@
   <si>
     <t>05.06.2021</t>
   </si>
+  <si>
+    <t>08.06.2021</t>
+  </si>
+  <si>
+    <t>10.06.2021</t>
+  </si>
+  <si>
+    <t>21.06.2021</t>
+  </si>
+  <si>
+    <t>25.06.2021</t>
+  </si>
+  <si>
+    <t>07.06.2021</t>
+  </si>
+  <si>
+    <t>09.06.2021</t>
+  </si>
+  <si>
+    <t>11.06.2021</t>
+  </si>
+  <si>
+    <t>16.06.2021</t>
+  </si>
+  <si>
+    <t>19.06.2021</t>
+  </si>
+  <si>
+    <t>21-06.2021</t>
+  </si>
+  <si>
+    <t>jaipur</t>
+  </si>
+  <si>
+    <t>kundli</t>
+  </si>
+  <si>
+    <t>26.06.2021</t>
+  </si>
+  <si>
+    <t>28.06.2021</t>
+  </si>
+  <si>
+    <t>29.06.2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -677,11 +716,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -791,6 +852,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,7 +930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,27 +962,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,24 +996,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,14 +1171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -1157,21 +1194,21 @@
     <col min="19" max="19" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1261,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -1255,7 +1292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -1282,7 +1319,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
@@ -1313,7 +1350,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="16">
         <f>I6</f>
@@ -1337,7 +1374,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="26" t="s">
         <v>2</v>
       </c>
@@ -1356,20 +1393,20 @@
       <c r="H8" s="27"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="1:10" ht="39" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
@@ -1422,7 +1459,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
         <v>94</v>
       </c>
@@ -1453,7 +1490,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
         <v>93</v>
       </c>
@@ -1480,7 +1517,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>93</v>
       </c>
@@ -1511,7 +1548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>95</v>
       </c>
@@ -1538,7 +1575,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>95</v>
       </c>
@@ -1569,7 +1606,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>100</v>
       </c>
@@ -1600,7 +1637,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>104</v>
       </c>
@@ -1627,7 +1664,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="22"/>
       <c r="B21" s="14">
         <f t="shared" si="7"/>
@@ -1650,7 +1687,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="26" t="s">
         <v>2</v>
       </c>
@@ -1669,20 +1706,20 @@
       <c r="H22" s="27"/>
       <c r="I22" s="28"/>
     </row>
-    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+    <row r="25" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A25" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-    </row>
-    <row r="26" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="1:9" ht="39" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>109</v>
       </c>
@@ -1735,9 +1772,12 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="B28" s="14">
+        <f>I27</f>
         <v>552</v>
       </c>
       <c r="C28" s="14"/>
@@ -1745,49 +1785,69 @@
         <f t="shared" ref="D28:D35" si="10">B28+C28</f>
         <v>552</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="13"/>
+      <c r="E28" s="8">
+        <v>84</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="13">
+        <v>240</v>
+      </c>
       <c r="H28" s="14">
         <f t="shared" ref="H28:H35" si="11">G28</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" ref="I28:I35" si="12">D28-H28</f>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="B29" s="14">
-        <v>552</v>
+        <f t="shared" ref="B29:B35" si="13">I28</f>
+        <v>312</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="13"/>
+        <v>312</v>
+      </c>
+      <c r="E29" s="8">
+        <v>87</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="13">
+        <v>72</v>
+      </c>
       <c r="H29" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="C30" s="14">
         <v>552</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="14">
-        <v>552</v>
-      </c>
-      <c r="C30" s="14"/>
       <c r="D30" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
+        <v>792</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1798,40 +1858,54 @@
       </c>
       <c r="I30" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="B31" s="14">
-        <v>552</v>
+        <f t="shared" si="13"/>
+        <v>792</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="13"/>
+        <v>792</v>
+      </c>
+      <c r="E31" s="8">
+        <v>97</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="13">
+        <v>600</v>
+      </c>
       <c r="H31" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="B32" s="14">
-        <v>552</v>
-      </c>
-      <c r="C32" s="14"/>
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+      <c r="C32" s="14">
+        <v>24</v>
+      </c>
       <c r="D32" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
+        <v>216</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1842,18 +1916,19 @@
       </c>
       <c r="I32" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="9"/>
       <c r="B33" s="14">
-        <v>552</v>
+        <f t="shared" si="13"/>
+        <v>216</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
+        <v>216</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1864,18 +1939,19 @@
       </c>
       <c r="I33" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="9"/>
       <c r="B34" s="14">
-        <v>552</v>
+        <f t="shared" si="13"/>
+        <v>216</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
+        <v>216</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1886,18 +1962,19 @@
       </c>
       <c r="I34" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
       <c r="A35" s="22"/>
       <c r="B35" s="14">
-        <v>552</v>
+        <f t="shared" si="13"/>
+        <v>216</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14">
         <f t="shared" si="10"/>
-        <v>552</v>
+        <v>216</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1908,24 +1985,24 @@
       </c>
       <c r="I35" s="15">
         <f t="shared" si="12"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1">
       <c r="A36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="29">
         <f>SUM(C27:C35)</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27">
         <f>SUM(G27:G35)</f>
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
@@ -1942,14 +2019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -1962,20 +2039,20 @@
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2028,7 +2105,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +2136,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2167,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -2117,7 +2194,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -2146,7 +2223,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2173,7 +2250,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -2204,7 +2281,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -2235,7 +2312,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -2266,7 +2343,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -2293,7 +2370,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -2324,7 +2401,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -2355,7 +2432,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2386,7 +2463,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -2417,7 +2494,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>48</v>
       </c>
@@ -2448,7 +2525,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
@@ -2479,7 +2556,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>55</v>
       </c>
@@ -2506,7 +2583,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
@@ -2537,7 +2614,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +2641,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
@@ -2595,7 +2672,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
@@ -2626,7 +2703,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
@@ -2653,7 +2730,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
         <v>58</v>
       </c>
@@ -2684,7 +2761,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -2711,7 +2788,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>64</v>
       </c>
@@ -2742,7 +2819,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2773,7 +2850,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>66</v>
       </c>
@@ -2804,7 +2881,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="A30" s="7"/>
       <c r="B30" s="15">
         <f t="shared" si="12"/>
@@ -2827,7 +2904,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="35" t="s">
         <v>2</v>
       </c>
@@ -2846,20 +2923,20 @@
       <c r="H31" s="31"/>
       <c r="I31" s="32"/>
     </row>
-    <row r="34" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+    <row r="34" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A34" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-    </row>
-    <row r="35" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+    </row>
+    <row r="35" spans="1:9" ht="39" thickBot="1">
       <c r="A35" s="19" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
         <v>70</v>
       </c>
@@ -2912,7 +2989,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
         <v>80</v>
       </c>
@@ -2939,7 +3016,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>88</v>
       </c>
@@ -2966,7 +3043,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>85</v>
       </c>
@@ -2997,7 +3074,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
         <v>85</v>
       </c>
@@ -3028,7 +3105,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
         <v>94</v>
       </c>
@@ -3059,7 +3136,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -3086,7 +3163,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
         <v>95</v>
       </c>
@@ -3117,7 +3194,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>100</v>
       </c>
@@ -3144,7 +3221,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>101</v>
       </c>
@@ -3171,7 +3248,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
         <v>101</v>
       </c>
@@ -3202,7 +3279,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>107</v>
       </c>
@@ -3229,7 +3306,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1">
       <c r="A48" s="7"/>
       <c r="B48" s="14">
         <f t="shared" si="16"/>
@@ -3252,7 +3329,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1">
       <c r="A49" s="35" t="s">
         <v>2</v>
       </c>
@@ -3271,20 +3348,20 @@
       <c r="H49" s="31"/>
       <c r="I49" s="32"/>
     </row>
-    <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="45" t="s">
+    <row r="52" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A52" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-    </row>
-    <row r="53" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+    </row>
+    <row r="53" spans="1:9" ht="39" thickBot="1">
       <c r="A53" s="19" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="7" t="s">
         <v>109</v>
       </c>
@@ -3337,7 +3414,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
         <v>109</v>
       </c>
@@ -3364,7 +3441,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="7" t="s">
         <v>109</v>
       </c>
@@ -3393,7 +3470,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
         <v>131</v>
       </c>
@@ -3422,7 +3499,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
         <v>134</v>
       </c>
@@ -3449,7 +3526,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="14">
         <f t="shared" si="20"/>
@@ -3472,7 +3549,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="14">
         <f t="shared" si="20"/>
@@ -3495,7 +3572,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="14">
         <f t="shared" si="20"/>
@@ -3518,7 +3595,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="14">
         <f t="shared" si="20"/>
@@ -3541,7 +3618,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="7"/>
       <c r="B63" s="14">
         <f t="shared" si="20"/>
@@ -3564,7 +3641,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="7"/>
       <c r="B64" s="14">
         <f t="shared" si="20"/>
@@ -3587,7 +3664,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="7"/>
       <c r="B65" s="14">
         <f t="shared" si="20"/>
@@ -3610,7 +3687,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.75" thickBot="1">
       <c r="A66" s="7"/>
       <c r="B66" s="14">
         <f t="shared" si="20"/>
@@ -3633,7 +3710,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15.75" thickBot="1">
       <c r="A67" s="35" t="s">
         <v>2</v>
       </c>
@@ -3664,14 +3741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -3688,22 +3765,22 @@
     <col min="13" max="13" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3732,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -3756,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -3783,7 +3860,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -3810,7 +3887,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -3841,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="16">
         <f t="shared" ref="B7" si="8">I6</f>
@@ -3864,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="35" t="s">
         <v>2</v>
       </c>
@@ -3883,20 +3960,20 @@
       <c r="H8" s="31"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A11" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-    </row>
-    <row r="12" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="1:11" ht="39" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -3925,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
@@ -3949,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
         <v>88</v>
       </c>
@@ -3976,7 +4053,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="9" t="s">
         <v>89</v>
       </c>
@@ -4003,7 +4080,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
         <v>85</v>
       </c>
@@ -4030,7 +4107,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>85</v>
       </c>
@@ -4061,7 +4138,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>86</v>
       </c>
@@ -4088,7 +4165,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>86</v>
       </c>
@@ -4119,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>106</v>
       </c>
@@ -4146,7 +4223,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>107</v>
       </c>
@@ -4173,7 +4250,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="9"/>
       <c r="B22" s="16">
         <f t="shared" ref="B22" si="27">I21</f>
@@ -4196,7 +4273,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="35" t="s">
         <v>2</v>
       </c>
@@ -4215,20 +4292,20 @@
       <c r="H23" s="31"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A26" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="1:9" ht="39" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>109</v>
       </c>
@@ -4281,7 +4358,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>109</v>
       </c>
@@ -4310,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9"/>
       <c r="B30" s="16">
         <f t="shared" ref="B30:B37" si="34">I29</f>
@@ -4333,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9"/>
       <c r="B31" s="16">
         <f t="shared" si="34"/>
@@ -4356,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9"/>
       <c r="B32" s="16">
         <f t="shared" si="34"/>
@@ -4379,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9"/>
       <c r="B33" s="16">
         <f t="shared" si="34"/>
@@ -4402,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="9"/>
       <c r="B34" s="16">
         <f t="shared" si="34"/>
@@ -4425,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="9"/>
       <c r="B35" s="16">
         <f t="shared" si="34"/>
@@ -4448,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="9"/>
       <c r="B36" s="16">
         <f t="shared" si="34"/>
@@ -4471,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1">
       <c r="A37" s="9"/>
       <c r="B37" s="16">
         <f t="shared" si="34"/>
@@ -4494,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="35" t="s">
         <v>2</v>
       </c>
@@ -4525,14 +4602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -4545,20 +4622,20 @@
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4587,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -4611,7 +4688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -4638,7 +4715,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -4669,7 +4746,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -4700,7 +4777,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -4731,7 +4808,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
@@ -4762,7 +4839,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
@@ -4793,7 +4870,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -4824,7 +4901,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
@@ -4855,7 +4932,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
@@ -4886,7 +4963,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -4917,7 +4994,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -4944,7 +5021,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -4975,7 +5052,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>58</v>
       </c>
@@ -5006,7 +5083,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>64</v>
       </c>
@@ -5037,7 +5114,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>65</v>
       </c>
@@ -5064,7 +5141,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>65</v>
       </c>
@@ -5095,7 +5172,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5122,7 +5199,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="44" t="s">
         <v>66</v>
       </c>
@@ -5153,7 +5230,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="9"/>
       <c r="B22" s="16">
         <f t="shared" si="15"/>
@@ -5176,7 +5253,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="30" t="s">
         <v>2</v>
       </c>
@@ -5195,20 +5272,20 @@
       <c r="H23" s="31"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A26" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-    </row>
-    <row r="27" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+    </row>
+    <row r="27" spans="1:9" ht="39" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
@@ -5237,7 +5314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>70</v>
       </c>
@@ -5261,7 +5338,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>89</v>
       </c>
@@ -5292,7 +5369,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>94</v>
       </c>
@@ -5323,7 +5400,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
         <v>93</v>
       </c>
@@ -5350,7 +5427,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9" t="s">
         <v>93</v>
       </c>
@@ -5381,7 +5458,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
         <v>95</v>
       </c>
@@ -5408,7 +5485,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -5439,7 +5516,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="9" t="s">
         <v>98</v>
       </c>
@@ -5470,7 +5547,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="9" t="s">
         <v>100</v>
       </c>
@@ -5501,7 +5578,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="9" t="s">
         <v>107</v>
       </c>
@@ -5528,7 +5605,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <f t="shared" si="22"/>
@@ -5551,7 +5628,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1">
       <c r="A39" s="30" t="s">
         <v>2</v>
       </c>
@@ -5570,20 +5647,20 @@
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="42" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46" t="s">
+    <row r="42" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-    </row>
-    <row r="43" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+    </row>
+    <row r="43" spans="1:9" ht="39" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>0</v>
       </c>
@@ -5612,7 +5689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>109</v>
       </c>
@@ -5636,7 +5713,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>109</v>
       </c>
@@ -5648,7 +5725,7 @@
         <v>1224</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" ref="D45:D54" si="25">B45+C45</f>
+        <f t="shared" ref="D45:D60" si="25">B45+C45</f>
         <v>3696</v>
       </c>
       <c r="E45" s="8"/>
@@ -5663,12 +5740,12 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B46" s="14">
-        <f t="shared" ref="B46:B54" si="28">I45</f>
+        <f t="shared" ref="B46:B60" si="28">I45</f>
         <v>3696</v>
       </c>
       <c r="C46" s="14"/>
@@ -5677,9 +5754,11 @@
         <v>3696</v>
       </c>
       <c r="E46" s="8">
-        <v>77</v>
-      </c>
-      <c r="F46" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="G46" s="24">
         <v>1440</v>
       </c>
@@ -5692,8 +5771,10 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+    <row r="47" spans="1:9">
+      <c r="A47" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="B47" s="14">
         <f t="shared" si="28"/>
         <v>2256</v>
@@ -5703,143 +5784,193 @@
         <f t="shared" si="25"/>
         <v>2256</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="24"/>
+      <c r="E47" s="8">
+        <v>80</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="24">
+        <v>120</v>
+      </c>
       <c r="H47" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="B48" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
+        <v>2136</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="24"/>
+        <v>2136</v>
+      </c>
+      <c r="E48" s="8">
+        <v>82</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="24">
+        <v>72</v>
+      </c>
       <c r="H48" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I48" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="B49" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
+        <v>2064</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="24"/>
+        <v>2064</v>
+      </c>
+      <c r="E49" s="8">
+        <v>85</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1800</v>
+      </c>
       <c r="H49" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="I49" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="B50" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
+        <v>264</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="24"/>
+        <v>264</v>
+      </c>
+      <c r="E50" s="8">
+        <v>88</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="24">
+        <v>120</v>
+      </c>
       <c r="H50" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="B51" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
+        <v>144</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="24"/>
+        <v>144</v>
+      </c>
+      <c r="E51" s="8">
+        <v>92</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="24">
+        <v>24</v>
+      </c>
       <c r="H51" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I51" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="B52" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
+        <v>120</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="E52" s="8">
+        <v>95</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="24">
+        <v>24</v>
+      </c>
       <c r="H52" s="14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I52" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="B53" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
-      </c>
-      <c r="C53" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="C53" s="14">
+        <v>288</v>
+      </c>
       <c r="D53" s="14">
         <f t="shared" si="25"/>
-        <v>2256</v>
+        <v>384</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -5850,16 +5981,20 @@
       </c>
       <c r="I53" s="15">
         <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="B54" s="14">
         <f t="shared" si="28"/>
-        <v>2256</v>
-      </c>
-      <c r="C54" s="14"/>
+        <v>384</v>
+      </c>
+      <c r="C54" s="14">
+        <v>1872</v>
+      </c>
       <c r="D54" s="14">
         <f t="shared" si="25"/>
         <v>2256</v>
@@ -5876,24 +6011,206 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
+    <row r="55" spans="1:9">
+      <c r="A55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="14">
+        <f t="shared" si="28"/>
+        <v>2256</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="14">
+        <f t="shared" si="25"/>
+        <v>2256</v>
+      </c>
+      <c r="E55" s="47">
+        <v>97</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="48">
+        <v>1440</v>
+      </c>
+      <c r="H55" s="14">
+        <f t="shared" ref="H55:H60" si="29">G55</f>
+        <v>1440</v>
+      </c>
+      <c r="I55" s="15">
+        <f t="shared" ref="I55:I60" si="30">D55-H55</f>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="14">
+        <f t="shared" si="28"/>
+        <v>816</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="14">
+        <f t="shared" si="25"/>
+        <v>816</v>
+      </c>
+      <c r="E56" s="47">
+        <v>108</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="48">
+        <v>600</v>
+      </c>
+      <c r="H56" s="14">
+        <f t="shared" si="29"/>
+        <v>600</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" si="30"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="14">
+        <f t="shared" si="28"/>
+        <v>216</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="14">
+        <f t="shared" si="25"/>
+        <v>216</v>
+      </c>
+      <c r="E57" s="47">
+        <v>109</v>
+      </c>
+      <c r="F57" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="48">
+        <v>120</v>
+      </c>
+      <c r="H57" s="14">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" si="30"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="14">
+        <f t="shared" si="28"/>
+        <v>96</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="14">
+        <f t="shared" si="25"/>
+        <v>96</v>
+      </c>
+      <c r="E58" s="47">
+        <v>112</v>
+      </c>
+      <c r="F58" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="48">
+        <v>72</v>
+      </c>
+      <c r="H58" s="14">
+        <f t="shared" si="29"/>
+        <v>72</v>
+      </c>
+      <c r="I58" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="14">
+        <f t="shared" si="28"/>
+        <v>24</v>
+      </c>
+      <c r="C59" s="46">
+        <v>1080</v>
+      </c>
+      <c r="D59" s="14">
+        <f t="shared" si="25"/>
+        <v>1104</v>
+      </c>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="15">
+        <f t="shared" si="30"/>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A60" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="14">
+        <f t="shared" si="28"/>
+        <v>1104</v>
+      </c>
+      <c r="C60" s="46"/>
+      <c r="D60" s="14">
+        <f t="shared" si="25"/>
+        <v>1104</v>
+      </c>
+      <c r="E60" s="47">
+        <v>113</v>
+      </c>
+      <c r="F60" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="48">
+        <v>720</v>
+      </c>
+      <c r="H60" s="14">
+        <f t="shared" si="29"/>
+        <v>720</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="30"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A61" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="34">
+      <c r="B61" s="31"/>
+      <c r="C61" s="34">
         <f>SUM(C44:C54)</f>
-        <v>1224</v>
-      </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="34">
-        <f>SUM(G44:G54)</f>
-        <v>1440</v>
-      </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="32"/>
+        <v>3384</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="34">
+        <f>SUM(G44:G58)</f>
+        <v>5832</v>
+      </c>
+      <c r="H61" s="31"/>
+      <c r="I61" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5907,14 +6224,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -5928,21 +6245,21 @@
     <col min="10" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="39.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5971,7 +6288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -5995,7 +6312,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -6026,7 +6343,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -6053,7 +6370,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -6084,7 +6401,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -6111,7 +6428,7 @@
         <v>8610</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
@@ -6142,7 +6459,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
@@ -6169,7 +6486,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -6200,7 +6517,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
@@ -6227,7 +6544,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
@@ -6258,7 +6575,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -6285,7 +6602,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -6316,7 +6633,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
         <v>48</v>
       </c>
@@ -6343,7 +6660,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
@@ -6374,7 +6691,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -6405,7 +6722,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
@@ -6432,7 +6749,7 @@
         <v>10830</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>55</v>
       </c>
@@ -6463,7 +6780,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>56</v>
       </c>
@@ -6490,7 +6807,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>57</v>
       </c>
@@ -6521,7 +6838,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>58</v>
       </c>
@@ -6548,7 +6865,7 @@
         <v>7860</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>58</v>
       </c>
@@ -6579,7 +6896,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>60</v>
       </c>
@@ -6606,7 +6923,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
@@ -6637,7 +6954,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>64</v>
       </c>
@@ -6664,7 +6981,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
@@ -6695,7 +7012,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -6722,7 +7039,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
@@ -6753,7 +7070,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -6780,7 +7097,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
         <v>68</v>
       </c>
@@ -6811,7 +7128,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
@@ -6842,7 +7159,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
         <v>92</v>
       </c>
@@ -6869,7 +7186,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
       <c r="A34" s="9"/>
       <c r="B34" s="16">
         <f t="shared" si="15"/>
@@ -6892,7 +7209,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
       <c r="A35" s="33" t="s">
         <v>2</v>
       </c>
@@ -6911,20 +7228,20 @@
       <c r="H35" s="31"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45" t="s">
+    <row r="38" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A38" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-    </row>
-    <row r="39" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+    </row>
+    <row r="39" spans="1:9" ht="39.75" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>0</v>
       </c>
@@ -6953,7 +7270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
         <v>70</v>
       </c>
@@ -6977,7 +7294,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
         <v>80</v>
       </c>
@@ -7004,7 +7321,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="9" t="s">
         <v>81</v>
       </c>
@@ -7031,7 +7348,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="9" t="s">
         <v>82</v>
       </c>
@@ -7058,7 +7375,7 @@
         <v>10410</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>84</v>
       </c>
@@ -7089,7 +7406,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
         <v>85</v>
       </c>
@@ -7120,7 +7437,7 @@
         <v>9570</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -7151,7 +7468,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
         <v>86</v>
       </c>
@@ -7182,7 +7499,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
         <v>94</v>
       </c>
@@ -7209,7 +7526,7 @@
         <v>6930</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>94</v>
       </c>
@@ -7240,7 +7557,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>93</v>
       </c>
@@ -7267,7 +7584,7 @@
         <v>9210</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
         <v>95</v>
       </c>
@@ -7298,7 +7615,7 @@
         <v>8910</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="9" t="s">
         <v>97</v>
       </c>
@@ -7325,7 +7642,7 @@
         <v>10710</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="9" t="s">
         <v>98</v>
       </c>
@@ -7352,7 +7669,7 @@
         <v>11910</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="9" t="s">
         <v>100</v>
       </c>
@@ -7383,7 +7700,7 @@
         <v>11010</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="9" t="s">
         <v>100</v>
       </c>
@@ -7414,7 +7731,7 @@
         <v>10710</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="9" t="s">
         <v>101</v>
       </c>
@@ -7445,7 +7762,7 @@
         <v>7110</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="9" t="s">
         <v>102</v>
       </c>
@@ -7476,7 +7793,7 @@
         <v>6960</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
         <v>105</v>
       </c>
@@ -7503,7 +7820,7 @@
         <v>12330</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
         <v>106</v>
       </c>
@@ -7530,7 +7847,7 @@
         <v>13110</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="9" t="s">
         <v>107</v>
       </c>
@@ -7561,7 +7878,7 @@
         <v>12660</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15.75" thickBot="1">
       <c r="A61" s="9"/>
       <c r="B61" s="14">
         <f t="shared" si="25"/>
@@ -7584,7 +7901,7 @@
         <v>12660</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15.75" thickBot="1">
       <c r="A62" s="33" t="s">
         <v>2</v>
       </c>
@@ -7603,20 +7920,20 @@
       <c r="H62" s="31"/>
       <c r="I62" s="32"/>
     </row>
-    <row r="65" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="s">
+    <row r="65" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A65" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-    </row>
-    <row r="66" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+    </row>
+    <row r="66" spans="1:9" ht="39.75" thickBot="1">
       <c r="A66" s="6" t="s">
         <v>0</v>
       </c>
@@ -7645,7 +7962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
         <v>109</v>
       </c>
@@ -7669,7 +7986,7 @@
         <v>12660</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="7" t="s">
         <v>109</v>
       </c>
@@ -7698,7 +8015,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="9" t="s">
         <v>131</v>
       </c>
@@ -7727,7 +8044,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="9" t="s">
         <v>133</v>
       </c>
@@ -7754,7 +8071,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="9"/>
       <c r="B71" s="14">
         <f t="shared" si="32"/>
@@ -7777,7 +8094,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="9"/>
       <c r="B72" s="14">
         <f t="shared" si="32"/>
@@ -7800,7 +8117,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="9"/>
       <c r="B73" s="14">
         <f t="shared" si="32"/>
@@ -7823,7 +8140,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="9"/>
       <c r="B74" s="14">
         <f t="shared" si="32"/>
@@ -7846,7 +8163,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="9"/>
       <c r="B75" s="14">
         <f t="shared" si="32"/>
@@ -7869,7 +8186,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="9"/>
       <c r="B76" s="14">
         <f t="shared" si="32"/>
@@ -7892,7 +8209,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="9"/>
       <c r="B77" s="14">
         <f t="shared" si="32"/>
@@ -7915,7 +8232,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="9"/>
       <c r="B78" s="14">
         <f t="shared" si="32"/>
@@ -7938,7 +8255,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="9"/>
       <c r="B79" s="14">
         <f t="shared" si="32"/>
@@ -7961,7 +8278,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="9"/>
       <c r="B80" s="14">
         <f t="shared" si="32"/>
@@ -7984,7 +8301,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="9"/>
       <c r="B81" s="14">
         <f t="shared" si="32"/>
@@ -8007,7 +8324,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="9"/>
       <c r="B82" s="14">
         <f t="shared" si="32"/>
@@ -8030,7 +8347,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="9"/>
       <c r="B83" s="14">
         <f t="shared" si="32"/>
@@ -8053,7 +8370,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="9"/>
       <c r="B84" s="14">
         <f t="shared" si="32"/>
@@ -8076,7 +8393,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="9"/>
       <c r="B85" s="14">
         <f t="shared" si="32"/>
@@ -8099,7 +8416,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="9"/>
       <c r="B86" s="14">
         <f t="shared" si="32"/>
@@ -8122,7 +8439,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="9"/>
       <c r="B87" s="14">
         <f t="shared" si="32"/>
@@ -8145,7 +8462,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" thickBot="1">
       <c r="A88" s="9"/>
       <c r="B88" s="14">
         <f t="shared" si="32"/>
@@ -8168,7 +8485,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.75" thickBot="1">
       <c r="A89" s="33" t="s">
         <v>2</v>
       </c>
@@ -8199,14 +8516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -8220,21 +8537,21 @@
     <col min="10" max="10" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="51.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8263,7 +8580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -8287,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -8314,7 +8631,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -8341,7 +8658,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -8372,7 +8689,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
@@ -8403,7 +8720,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="7"/>
       <c r="B8" s="14">
         <f t="shared" si="3"/>
@@ -8426,7 +8743,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="35" t="s">
         <v>2</v>
       </c>
@@ -8445,20 +8762,20 @@
       <c r="H9" s="31"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A12" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-    </row>
-    <row r="13" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+    </row>
+    <row r="13" spans="1:10" ht="51.75" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -8487,7 +8804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
@@ -8511,7 +8828,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="7"/>
       <c r="B15" s="14">
         <f>I14</f>
@@ -8534,7 +8851,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
@@ -8553,20 +8870,20 @@
       <c r="H16" s="31"/>
       <c r="I16" s="32"/>
     </row>
-    <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A19" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="1:9" ht="51.75" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
@@ -8595,7 +8912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>109</v>
       </c>
@@ -8619,7 +8936,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>131</v>
       </c>
@@ -8645,7 +8962,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
         <v>131</v>
       </c>
@@ -8673,7 +8990,7 @@
         <v>-288</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>132</v>
       </c>
@@ -8699,7 +9016,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="7"/>
       <c r="B25" s="14">
         <v>192</v>
@@ -8721,7 +9038,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7"/>
       <c r="B26" s="14">
         <v>192</v>
@@ -8743,7 +9060,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7"/>
       <c r="B27" s="14">
         <v>192</v>
@@ -8765,7 +9082,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7"/>
       <c r="B28" s="14">
         <v>192</v>
@@ -8787,7 +9104,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1">
       <c r="A29" s="7"/>
       <c r="B29" s="14">
         <v>192</v>
@@ -8809,7 +9126,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>2</v>
       </c>
@@ -8840,14 +9157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
@@ -8859,20 +9176,20 @@
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8901,7 +9218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -8925,7 +9242,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -8956,7 +9273,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -8987,7 +9304,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -9018,7 +9335,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -9045,7 +9362,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -9072,7 +9389,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -9103,7 +9420,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
@@ -9130,7 +9447,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>55</v>
       </c>
@@ -9161,7 +9478,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -9192,7 +9509,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
@@ -9219,7 +9536,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
@@ -9246,7 +9563,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
@@ -9273,7 +9590,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
@@ -9300,7 +9617,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
@@ -9331,7 +9648,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9358,7 +9675,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>92</v>
       </c>
@@ -9385,7 +9702,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="7"/>
       <c r="B20" s="14">
         <f>I19</f>
@@ -9408,7 +9725,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>2</v>
       </c>
@@ -9427,20 +9744,20 @@
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+    <row r="25" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A25" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-    </row>
-    <row r="26" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="1:9" ht="39" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -9469,7 +9786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>70</v>
       </c>
@@ -9493,7 +9810,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>81</v>
       </c>
@@ -9520,7 +9837,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
@@ -9547,7 +9864,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>84</v>
       </c>
@@ -9574,7 +9891,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>94</v>
       </c>
@@ -9605,7 +9922,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>93</v>
       </c>
@@ -9636,7 +9953,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>101</v>
       </c>
@@ -9667,7 +9984,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
         <v>104</v>
       </c>
@@ -9694,7 +10011,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
@@ -9721,7 +10038,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -9748,7 +10065,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1">
       <c r="A37" s="7"/>
       <c r="B37" s="14">
         <f t="shared" si="17"/>
@@ -9771,7 +10088,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="35" t="s">
         <v>2</v>
       </c>
@@ -9790,20 +10107,20 @@
       <c r="H38" s="31"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="45" t="s">
+    <row r="41" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A41" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-    </row>
-    <row r="42" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+    </row>
+    <row r="42" spans="1:9" ht="39" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>0</v>
       </c>
@@ -9832,7 +10149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
         <v>109</v>
       </c>
@@ -9856,7 +10173,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>109</v>
       </c>
@@ -9885,7 +10202,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
@@ -9914,7 +10231,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="B46" s="14">
         <f t="shared" si="22"/>
@@ -9937,7 +10254,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7"/>
       <c r="B47" s="14">
         <f t="shared" si="22"/>
@@ -9960,7 +10277,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="14">
         <f t="shared" si="22"/>
@@ -9983,7 +10300,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="14">
         <f t="shared" si="22"/>
@@ -10006,7 +10323,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="14">
         <f t="shared" si="22"/>
@@ -10029,7 +10346,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="14">
         <f t="shared" si="22"/>
@@ -10052,7 +10369,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="14">
         <f t="shared" si="22"/>
@@ -10075,7 +10392,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" thickBot="1">
       <c r="A53" s="7"/>
       <c r="B53" s="14">
         <f t="shared" si="22"/>
@@ -10098,7 +10415,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" thickBot="1">
       <c r="A54" s="35" t="s">
         <v>2</v>
       </c>
@@ -10118,7 +10435,7 @@
       <c r="I54" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I20" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A2:I20"/>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A25:I25"/>
@@ -10130,14 +10447,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -10150,20 +10467,20 @@
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -10192,7 +10509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -10216,7 +10533,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>64</v>
       </c>
@@ -10247,7 +10564,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
@@ -10278,7 +10595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="9"/>
       <c r="B6" s="16">
         <f t="shared" si="3"/>
@@ -10301,7 +10618,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="35" t="s">
         <v>2</v>
       </c>
@@ -10320,20 +10637,20 @@
       <c r="H7" s="31"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A10" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+    </row>
+    <row r="11" spans="1:9" ht="39" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -10362,7 +10679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
@@ -10386,7 +10703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>87</v>
       </c>
@@ -10413,7 +10730,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>86</v>
       </c>
@@ -10440,7 +10757,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>94</v>
       </c>
@@ -10467,7 +10784,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>94</v>
       </c>
@@ -10498,7 +10815,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>100</v>
       </c>
@@ -10529,7 +10846,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>101</v>
       </c>
@@ -10556,7 +10873,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>104</v>
       </c>
@@ -10583,7 +10900,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="9"/>
       <c r="B20" s="14">
         <f t="shared" si="9"/>
@@ -10606,7 +10923,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>2</v>
       </c>
@@ -10625,20 +10942,20 @@
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="24" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+    <row r="24" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A24" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="25" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" spans="1:9" ht="39" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
@@ -10667,7 +10984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>109</v>
       </c>
@@ -10691,7 +11008,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7"/>
       <c r="B27" s="14">
         <f>I26</f>
@@ -10714,7 +11031,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7"/>
       <c r="B28" s="14">
         <f t="shared" ref="B28:B34" si="15">I27</f>
@@ -10737,7 +11054,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9"/>
       <c r="B29" s="14">
         <f t="shared" si="15"/>
@@ -10760,7 +11077,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9"/>
       <c r="B30" s="14">
         <f t="shared" si="15"/>
@@ -10783,7 +11100,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9"/>
       <c r="B31" s="14">
         <f t="shared" si="15"/>
@@ -10806,7 +11123,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9"/>
       <c r="B32" s="14">
         <f t="shared" si="15"/>
@@ -10829,7 +11146,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9"/>
       <c r="B33" s="14">
         <f t="shared" si="15"/>
@@ -10852,7 +11169,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
       <c r="A34" s="9"/>
       <c r="B34" s="14">
         <f t="shared" si="15"/>
@@ -10875,7 +11192,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
       <c r="A35" s="35" t="s">
         <v>2</v>
       </c>
@@ -10906,14 +11223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
@@ -10925,20 +11242,20 @@
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="51" customHeight="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -10967,7 +11284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -10991,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -11018,7 +11335,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -11049,7 +11366,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -11080,7 +11397,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -11107,7 +11424,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -11138,7 +11455,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
@@ -11169,7 +11486,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -11200,7 +11517,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
@@ -11227,7 +11544,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
@@ -11258,7 +11575,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
@@ -11285,7 +11602,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -11316,7 +11633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>57</v>
       </c>
@@ -11343,7 +11660,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>57</v>
       </c>
@@ -11374,7 +11691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
@@ -11401,7 +11718,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>58</v>
       </c>
@@ -11432,7 +11749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>60</v>
       </c>
@@ -11459,7 +11776,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>60</v>
       </c>
@@ -11490,7 +11807,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>60</v>
       </c>
@@ -11521,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>61</v>
       </c>
@@ -11548,7 +11865,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>62</v>
       </c>
@@ -11579,7 +11896,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>64</v>
       </c>
@@ -11606,7 +11923,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>65</v>
       </c>
@@ -11633,7 +11950,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>65</v>
       </c>
@@ -11664,7 +11981,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
         <v>66</v>
       </c>
@@ -11695,7 +12012,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9" t="s">
         <v>68</v>
       </c>
@@ -11722,7 +12039,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -11753,7 +12070,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -11784,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="9"/>
       <c r="B31" s="16">
         <f t="shared" si="7"/>
@@ -11807,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="33" t="s">
         <v>2</v>
       </c>
@@ -11826,20 +12143,20 @@
       <c r="H32" s="31"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+    <row r="35" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A35" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-    </row>
-    <row r="36" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+    </row>
+    <row r="36" spans="1:9" ht="39.75" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>0</v>
       </c>
@@ -11868,7 +12185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
@@ -11892,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>70</v>
       </c>
@@ -11919,7 +12236,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>26</v>
       </c>
@@ -11946,7 +12263,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
         <v>88</v>
       </c>
@@ -11977,7 +12294,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
         <v>85</v>
       </c>
@@ -12004,7 +12321,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
         <v>85</v>
       </c>
@@ -12035,7 +12352,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
         <v>85</v>
       </c>
@@ -12066,7 +12383,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>94</v>
       </c>
@@ -12097,7 +12414,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
         <v>93</v>
       </c>
@@ -12124,7 +12441,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>93</v>
       </c>
@@ -12155,7 +12472,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
         <v>95</v>
       </c>
@@ -12182,7 +12499,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
         <v>95</v>
       </c>
@@ -12213,7 +12530,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>97</v>
       </c>
@@ -12240,7 +12557,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>98</v>
       </c>
@@ -12267,7 +12584,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
         <v>100</v>
       </c>
@@ -12298,7 +12615,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="9" t="s">
         <v>100</v>
       </c>
@@ -12329,7 +12646,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="9" t="s">
         <v>101</v>
       </c>
@@ -12360,7 +12677,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="9" t="s">
         <v>102</v>
       </c>
@@ -12387,7 +12704,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="9" t="s">
         <v>104</v>
       </c>
@@ -12414,7 +12731,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="9" t="s">
         <v>107</v>
       </c>
@@ -12445,7 +12762,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="9" t="s">
         <v>107</v>
       </c>
@@ -12476,7 +12793,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.75" thickBot="1">
       <c r="A58" s="9"/>
       <c r="B58" s="14">
         <f t="shared" si="21"/>
@@ -12499,7 +12816,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.75" thickBot="1">
       <c r="A59" s="33" t="s">
         <v>2</v>
       </c>
@@ -12518,20 +12835,20 @@
       <c r="H59" s="31"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="62" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="45" t="s">
+    <row r="62" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A62" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-    </row>
-    <row r="63" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+    </row>
+    <row r="63" spans="1:9" ht="39.75" thickBot="1">
       <c r="A63" s="6" t="s">
         <v>0</v>
       </c>
@@ -12560,7 +12877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
         <v>109</v>
       </c>
@@ -12584,7 +12901,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="7" t="s">
         <v>109</v>
       </c>
@@ -12611,7 +12928,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
         <v>109</v>
       </c>
@@ -12640,7 +12957,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
         <v>131</v>
       </c>
@@ -12669,7 +12986,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="7" t="s">
         <v>134</v>
       </c>
@@ -12696,7 +13013,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="7"/>
       <c r="B69" s="14">
         <f t="shared" si="28"/>
@@ -12719,7 +13036,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="7"/>
       <c r="B70" s="14">
         <f t="shared" si="28"/>
@@ -12742,7 +13059,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="9"/>
       <c r="B71" s="14">
         <f t="shared" si="28"/>
@@ -12765,7 +13082,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="9"/>
       <c r="B72" s="14">
         <f t="shared" si="28"/>
@@ -12788,7 +13105,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="9"/>
       <c r="B73" s="14">
         <f t="shared" si="28"/>
@@ -12811,7 +13128,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="9"/>
       <c r="B74" s="14">
         <f t="shared" si="28"/>
@@ -12834,7 +13151,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="9"/>
       <c r="B75" s="14">
         <f t="shared" si="28"/>
@@ -12857,7 +13174,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="9"/>
       <c r="B76" s="14">
         <f t="shared" si="28"/>
@@ -12880,7 +13197,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="9"/>
       <c r="B77" s="14">
         <f t="shared" si="28"/>
@@ -12903,7 +13220,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="9"/>
       <c r="B78" s="14">
         <f t="shared" si="28"/>
@@ -12926,7 +13243,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="9"/>
       <c r="B79" s="14">
         <f t="shared" si="28"/>
@@ -12949,7 +13266,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="9"/>
       <c r="B80" s="14">
         <f t="shared" si="28"/>
@@ -12972,7 +13289,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="9"/>
       <c r="B81" s="14">
         <f t="shared" si="28"/>
@@ -12995,7 +13312,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="9"/>
       <c r="B82" s="14">
         <f t="shared" si="28"/>
@@ -13018,7 +13335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="9"/>
       <c r="B83" s="14">
         <f t="shared" si="28"/>
@@ -13041,7 +13358,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="9"/>
       <c r="B84" s="14">
         <f t="shared" si="28"/>
@@ -13064,7 +13381,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15.75" thickBot="1">
       <c r="A85" s="9"/>
       <c r="B85" s="14">
         <f t="shared" si="28"/>
@@ -13087,7 +13404,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15.75" thickBot="1">
       <c r="A86" s="33" t="s">
         <v>2</v>
       </c>
@@ -13118,14 +13435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
@@ -13138,20 +13455,20 @@
     <col min="9" max="9" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -13180,7 +13497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -13204,7 +13521,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -13235,7 +13552,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
@@ -13262,7 +13579,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -13293,7 +13610,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
@@ -13324,7 +13641,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -13355,7 +13672,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
@@ -13382,7 +13699,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
@@ -13409,7 +13726,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -13440,7 +13757,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
@@ -13467,7 +13784,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
@@ -13494,7 +13811,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -13525,7 +13842,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -13556,7 +13873,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
@@ -13587,7 +13904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>57</v>
       </c>
@@ -13614,7 +13931,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>57</v>
       </c>
@@ -13645,7 +13962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>58</v>
       </c>
@@ -13672,7 +13989,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
@@ -13703,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>60</v>
       </c>
@@ -13730,7 +14047,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>60</v>
       </c>
@@ -13761,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>61</v>
       </c>
@@ -13788,7 +14105,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>62</v>
       </c>
@@ -13815,7 +14132,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>62</v>
       </c>
@@ -13846,7 +14163,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>65</v>
       </c>
@@ -13873,7 +14190,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
         <v>65</v>
       </c>
@@ -13904,7 +14221,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -13935,7 +14252,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -13962,7 +14279,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -13993,7 +14310,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
         <v>68</v>
       </c>
@@ -14024,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="9"/>
       <c r="B32" s="16">
         <f t="shared" si="15"/>
@@ -14047,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="33" t="s">
         <v>2</v>
       </c>
@@ -14066,20 +14383,20 @@
       <c r="H33" s="31"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
+    <row r="36" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A36" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+    </row>
+    <row r="37" spans="1:9" ht="39.75" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
@@ -14108,7 +14425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>70</v>
       </c>
@@ -14134,7 +14451,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="9" t="s">
         <v>80</v>
       </c>
@@ -14161,7 +14478,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
@@ -14188,7 +14505,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="9" t="s">
         <v>26</v>
       </c>
@@ -14215,7 +14532,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
@@ -14246,7 +14563,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="9" t="s">
         <v>85</v>
       </c>
@@ -14277,7 +14594,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>93</v>
       </c>
@@ -14308,7 +14625,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
         <v>95</v>
       </c>
@@ -14339,7 +14656,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -14366,7 +14683,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
         <v>98</v>
       </c>
@@ -14393,7 +14710,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
         <v>100</v>
       </c>
@@ -14424,7 +14741,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
@@ -14455,7 +14772,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>101</v>
       </c>
@@ -14482,7 +14799,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
         <v>101</v>
       </c>
@@ -14513,7 +14830,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="9" t="s">
         <v>102</v>
       </c>
@@ -14540,7 +14857,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="9" t="s">
         <v>107</v>
       </c>
@@ -14571,7 +14888,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" thickBot="1">
       <c r="A54" s="9"/>
       <c r="B54" s="16">
         <f t="shared" si="22"/>
@@ -14594,7 +14911,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1">
       <c r="A55" s="33" t="s">
         <v>2</v>
       </c>
@@ -14613,20 +14930,20 @@
       <c r="H55" s="31"/>
       <c r="I55" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="45" t="s">
+    <row r="58" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A58" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-    </row>
-    <row r="59" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+    </row>
+    <row r="59" spans="1:9" ht="39.75" thickBot="1">
       <c r="A59" s="6" t="s">
         <v>0</v>
       </c>
@@ -14655,7 +14972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="7" t="s">
         <v>109</v>
       </c>
@@ -14679,7 +14996,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
         <v>109</v>
       </c>
@@ -14708,7 +15025,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="9" t="s">
         <v>131</v>
       </c>
@@ -14737,7 +15054,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="9"/>
       <c r="B63" s="16">
         <f t="shared" ref="B63:B77" si="26">I62</f>
@@ -14760,7 +15077,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="9"/>
       <c r="B64" s="16">
         <f t="shared" si="26"/>
@@ -14783,7 +15100,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="9"/>
       <c r="B65" s="16">
         <f t="shared" si="26"/>
@@ -14806,7 +15123,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="9"/>
       <c r="B66" s="16">
         <f t="shared" si="26"/>
@@ -14829,7 +15146,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="9"/>
       <c r="B67" s="16">
         <f t="shared" si="26"/>
@@ -14852,7 +15169,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="9"/>
       <c r="B68" s="16">
         <f t="shared" si="26"/>
@@ -14875,7 +15192,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="9"/>
       <c r="B69" s="16">
         <f t="shared" si="26"/>
@@ -14898,7 +15215,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="9"/>
       <c r="B70" s="16">
         <f t="shared" si="26"/>
@@ -14921,7 +15238,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="9"/>
       <c r="B71" s="16">
         <f t="shared" si="26"/>
@@ -14944,7 +15261,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="9"/>
       <c r="B72" s="16">
         <f t="shared" si="26"/>
@@ -14967,7 +15284,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="9"/>
       <c r="B73" s="16">
         <f t="shared" si="26"/>
@@ -14990,7 +15307,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="9"/>
       <c r="B74" s="16">
         <f t="shared" si="26"/>
@@ -15013,7 +15330,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="9"/>
       <c r="B75" s="16">
         <f t="shared" si="26"/>
@@ -15036,7 +15353,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="9"/>
       <c r="B76" s="16">
         <f t="shared" si="26"/>
@@ -15059,7 +15376,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15.75" thickBot="1">
       <c r="A77" s="9"/>
       <c r="B77" s="16">
         <f t="shared" si="26"/>
@@ -15082,7 +15399,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.75" thickBot="1">
       <c r="A78" s="33" t="s">
         <v>2</v>
       </c>
@@ -15113,14 +15430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
@@ -15133,20 +15450,20 @@
     <col min="9" max="9" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -15175,7 +15492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -15199,7 +15516,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -15226,7 +15543,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -15257,7 +15574,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -15284,7 +15601,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -15315,7 +15632,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -15346,7 +15663,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -15373,7 +15690,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -15402,7 +15719,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -15429,7 +15746,7 @@
         <v>5616</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -15460,7 +15777,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
@@ -15487,7 +15804,7 @@
         <v>6744</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
         <v>35</v>
       </c>
@@ -15518,7 +15835,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -15545,7 +15862,7 @@
         <v>8832</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -15576,7 +15893,7 @@
         <v>8472</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -15607,7 +15924,7 @@
         <v>4872</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -15638,7 +15955,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
@@ -15669,7 +15986,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -15700,7 +16017,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
@@ -15727,7 +16044,7 @@
         <v>4272</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>40</v>
       </c>
@@ -15758,7 +16075,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
@@ -15785,7 +16102,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
@@ -15816,7 +16133,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
@@ -15843,7 +16160,7 @@
         <v>6816</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
@@ -15874,7 +16191,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
         <v>45</v>
       </c>
@@ -15905,7 +16222,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9" t="s">
         <v>45</v>
       </c>
@@ -15936,7 +16253,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>48</v>
       </c>
@@ -15963,7 +16280,7 @@
         <v>7896</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>48</v>
       </c>
@@ -15994,7 +16311,7 @@
         <v>7824</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
         <v>52</v>
       </c>
@@ -16021,7 +16338,7 @@
         <v>8328</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9" t="s">
         <v>52</v>
       </c>
@@ -16052,7 +16369,7 @@
         <v>7608</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
         <v>52</v>
       </c>
@@ -16083,7 +16400,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="9" t="s">
         <v>55</v>
       </c>
@@ -16110,7 +16427,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="9" t="s">
         <v>55</v>
       </c>
@@ -16141,7 +16458,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="9" t="s">
         <v>55</v>
       </c>
@@ -16172,7 +16489,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="9" t="s">
         <v>56</v>
       </c>
@@ -16199,7 +16516,7 @@
         <v>5256</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="9" t="s">
         <v>57</v>
       </c>
@@ -16226,7 +16543,7 @@
         <v>8688</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="9" t="s">
         <v>57</v>
       </c>
@@ -16257,7 +16574,7 @@
         <v>8568</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="9" t="s">
         <v>57</v>
       </c>
@@ -16288,7 +16605,7 @@
         <v>7368</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="9" t="s">
         <v>58</v>
       </c>
@@ -16315,7 +16632,7 @@
         <v>7704</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="9" t="s">
         <v>58</v>
       </c>
@@ -16346,7 +16663,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="9" t="s">
         <v>60</v>
       </c>
@@ -16373,7 +16690,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>60</v>
       </c>
@@ -16404,7 +16721,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
         <v>60</v>
       </c>
@@ -16435,7 +16752,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>60</v>
       </c>
@@ -16466,7 +16783,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
         <v>61</v>
       </c>
@@ -16493,7 +16810,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
         <v>62</v>
       </c>
@@ -16520,7 +16837,7 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>62</v>
       </c>
@@ -16551,7 +16868,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>63</v>
       </c>
@@ -16578,7 +16895,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
         <v>64</v>
       </c>
@@ -16609,7 +16926,7 @@
         <v>6888</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="9" t="s">
         <v>64</v>
       </c>
@@ -16640,7 +16957,7 @@
         <v>6768</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="9" t="s">
         <v>65</v>
       </c>
@@ -16667,7 +16984,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="9" t="s">
         <v>65</v>
       </c>
@@ -16698,7 +17015,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
@@ -16727,7 +17044,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="9" t="s">
         <v>65</v>
       </c>
@@ -16758,7 +17075,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="9" t="s">
         <v>66</v>
       </c>
@@ -16785,7 +17102,7 @@
         <v>4872</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
         <v>66</v>
       </c>
@@ -16816,7 +17133,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
         <v>66</v>
       </c>
@@ -16847,7 +17164,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="9" t="s">
         <v>68</v>
       </c>
@@ -16874,7 +17191,7 @@
         <v>6288</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="9" t="s">
         <v>68</v>
       </c>
@@ -16905,7 +17222,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="9" t="s">
         <v>68</v>
       </c>
@@ -16936,7 +17253,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="9" t="s">
         <v>68</v>
       </c>
@@ -16967,7 +17284,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="9" t="s">
         <v>92</v>
       </c>
@@ -16994,7 +17311,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15.75" thickBot="1">
       <c r="A65" s="9"/>
       <c r="B65" s="16">
         <f t="shared" si="31"/>
@@ -17017,7 +17334,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.75" thickBot="1">
       <c r="A66" s="33" t="s">
         <v>2</v>
       </c>
@@ -17036,20 +17353,20 @@
       <c r="H66" s="40"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="45" t="s">
+    <row r="69" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A69" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-    </row>
-    <row r="70" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+    </row>
+    <row r="70" spans="1:9" ht="39" thickBot="1">
       <c r="A70" s="6" t="s">
         <v>0</v>
       </c>
@@ -17078,7 +17395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="7" t="s">
         <v>70</v>
       </c>
@@ -17102,7 +17419,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>83</v>
       </c>
@@ -17129,7 +17446,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="9" t="s">
         <v>84</v>
       </c>
@@ -17156,7 +17473,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="9" t="s">
         <v>87</v>
       </c>
@@ -17183,7 +17500,7 @@
         <v>11304</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="9" t="s">
         <v>88</v>
       </c>
@@ -17210,7 +17527,7 @@
         <v>14352</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="9" t="s">
         <v>88</v>
       </c>
@@ -17241,7 +17558,7 @@
         <v>11952</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="9" t="s">
         <v>89</v>
       </c>
@@ -17268,7 +17585,7 @@
         <v>13512</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="9" t="s">
         <v>89</v>
       </c>
@@ -17299,7 +17616,7 @@
         <v>13392</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="9" t="s">
         <v>85</v>
       </c>
@@ -17330,7 +17647,7 @@
         <v>10992</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="9" t="s">
         <v>85</v>
       </c>
@@ -17361,7 +17678,7 @@
         <v>10152</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="9" t="s">
         <v>85</v>
       </c>
@@ -17392,7 +17709,7 @@
         <v>8832</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="9" t="s">
         <v>86</v>
       </c>
@@ -17419,7 +17736,7 @@
         <v>11256</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="9" t="s">
         <v>94</v>
       </c>
@@ -17446,7 +17763,7 @@
         <v>14280</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="9" t="s">
         <v>94</v>
       </c>
@@ -17477,7 +17794,7 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="9" t="s">
         <v>93</v>
       </c>
@@ -17504,7 +17821,7 @@
         <v>11640</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="9" t="s">
         <v>93</v>
       </c>
@@ -17535,7 +17852,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="9" t="s">
         <v>95</v>
       </c>
@@ -17562,7 +17879,7 @@
         <v>8208</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="9" t="s">
         <v>96</v>
       </c>
@@ -17589,7 +17906,7 @@
         <v>9912</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="9" t="s">
         <v>97</v>
       </c>
@@ -17616,7 +17933,7 @@
         <v>11616</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="9" t="s">
         <v>98</v>
       </c>
@@ -17643,7 +17960,7 @@
         <v>12216</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="9" t="s">
         <v>99</v>
       </c>
@@ -17670,7 +17987,7 @@
         <v>15504</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="9" t="s">
         <v>100</v>
       </c>
@@ -17697,7 +18014,7 @@
         <v>17832</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="9" t="s">
         <v>100</v>
       </c>
@@ -17728,7 +18045,7 @@
         <v>14232</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="9" t="s">
         <v>100</v>
       </c>
@@ -17759,7 +18076,7 @@
         <v>12792</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="9" t="s">
         <v>100</v>
       </c>
@@ -17790,7 +18107,7 @@
         <v>10392</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="9" t="s">
         <v>101</v>
       </c>
@@ -17817,7 +18134,7 @@
         <v>11544</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="9" t="s">
         <v>101</v>
       </c>
@@ -17848,7 +18165,7 @@
         <v>9744</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="9" t="s">
         <v>102</v>
       </c>
@@ -17875,7 +18192,7 @@
         <v>12888</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="9" t="s">
         <v>102</v>
       </c>
@@ -17906,7 +18223,7 @@
         <v>12840</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="9" t="s">
         <v>104</v>
       </c>
@@ -17933,7 +18250,7 @@
         <v>13944</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="9" t="s">
         <v>107</v>
       </c>
@@ -17960,7 +18277,7 @@
         <v>14976</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="9" t="s">
         <v>107</v>
       </c>
@@ -17991,7 +18308,7 @@
         <v>12576</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="9" t="s">
         <v>107</v>
       </c>
@@ -18022,7 +18339,7 @@
         <v>11136</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="9" t="s">
         <v>107</v>
       </c>
@@ -18053,7 +18370,7 @@
         <v>9936</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" thickBot="1">
       <c r="A105" s="9"/>
       <c r="B105" s="14">
         <f t="shared" si="38"/>
@@ -18076,7 +18393,7 @@
         <v>9936</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.75" thickBot="1">
       <c r="A106" s="33" t="s">
         <v>2</v>
       </c>
@@ -18095,20 +18412,20 @@
       <c r="H106" s="40"/>
       <c r="I106" s="32"/>
     </row>
-    <row r="109" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="45" t="s">
+    <row r="109" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A109" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
-    </row>
-    <row r="110" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
+    </row>
+    <row r="110" spans="1:9" ht="39" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>0</v>
       </c>
@@ -18137,7 +18454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="7" t="s">
         <v>109</v>
       </c>
@@ -18161,7 +18478,7 @@
         <v>9939</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="7" t="s">
         <v>109</v>
       </c>
@@ -18188,7 +18505,7 @@
         <v>10851</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
         <v>109</v>
       </c>
@@ -18217,7 +18534,7 @@
         <v>9651</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
         <v>131</v>
       </c>
@@ -18244,7 +18561,7 @@
         <v>11835</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="9" t="s">
         <v>131</v>
       </c>
@@ -18273,7 +18590,7 @@
         <v>8235</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="9" t="s">
         <v>132</v>
       </c>
@@ -18300,7 +18617,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="9"/>
       <c r="B117" s="14">
         <f t="shared" si="44"/>
@@ -18323,7 +18640,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="9"/>
       <c r="B118" s="14">
         <f t="shared" si="44"/>
@@ -18346,7 +18663,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="9"/>
       <c r="B119" s="14">
         <f t="shared" si="44"/>
@@ -18369,7 +18686,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="9"/>
       <c r="B120" s="14">
         <f t="shared" si="44"/>
@@ -18392,7 +18709,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="9"/>
       <c r="B121" s="14">
         <f t="shared" si="44"/>
@@ -18415,7 +18732,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="9"/>
       <c r="B122" s="14">
         <f t="shared" si="44"/>
@@ -18438,7 +18755,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="9"/>
       <c r="B123" s="14">
         <f t="shared" si="44"/>
@@ -18461,7 +18778,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="9"/>
       <c r="B124" s="14">
         <f t="shared" si="44"/>
@@ -18484,7 +18801,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="9"/>
       <c r="B125" s="14">
         <f t="shared" si="44"/>
@@ -18507,7 +18824,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="9"/>
       <c r="B126" s="14">
         <f t="shared" si="44"/>
@@ -18530,7 +18847,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="9"/>
       <c r="B127" s="14">
         <f t="shared" si="44"/>
@@ -18553,7 +18870,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="9"/>
       <c r="B128" s="14">
         <f t="shared" si="44"/>
@@ -18576,7 +18893,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="9"/>
       <c r="B129" s="14">
         <f t="shared" si="44"/>
@@ -18599,7 +18916,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="9"/>
       <c r="B130" s="14">
         <f t="shared" si="44"/>
@@ -18622,7 +18939,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="9"/>
       <c r="B131" s="14">
         <f t="shared" si="44"/>
@@ -18645,7 +18962,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="9"/>
       <c r="B132" s="14">
         <f t="shared" si="44"/>
@@ -18668,7 +18985,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="9"/>
       <c r="B133" s="14">
         <f t="shared" si="44"/>
@@ -18691,7 +19008,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="9"/>
       <c r="B134" s="14">
         <f t="shared" si="44"/>
@@ -18714,7 +19031,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="9"/>
       <c r="B135" s="14">
         <f t="shared" si="44"/>
@@ -18737,7 +19054,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="9"/>
       <c r="B136" s="14">
         <f t="shared" si="44"/>
@@ -18760,7 +19077,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="9"/>
       <c r="B137" s="14">
         <f t="shared" si="44"/>
@@ -18783,7 +19100,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="9"/>
       <c r="B138" s="14">
         <f t="shared" si="44"/>
@@ -18806,7 +19123,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="9"/>
       <c r="B139" s="14">
         <f t="shared" si="44"/>
@@ -18829,7 +19146,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="9"/>
       <c r="B140" s="14">
         <f t="shared" si="44"/>
@@ -18852,7 +19169,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="9"/>
       <c r="B141" s="14">
         <f t="shared" si="44"/>
@@ -18875,7 +19192,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="9"/>
       <c r="B142" s="14">
         <f t="shared" si="44"/>
@@ -18898,7 +19215,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="9"/>
       <c r="B143" s="14">
         <f t="shared" si="44"/>
@@ -18921,7 +19238,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="9"/>
       <c r="B144" s="14">
         <f t="shared" si="44"/>
@@ -18944,7 +19261,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15.75" thickBot="1">
       <c r="A145" s="9"/>
       <c r="B145" s="14">
         <f t="shared" si="44"/>
@@ -18967,7 +19284,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15.75" thickBot="1">
       <c r="A146" s="33" t="s">
         <v>2</v>
       </c>

--- a/FINISHED GOODS REGISTER 2021-22.xlsx
+++ b/FINISHED GOODS REGISTER 2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2019-20-1kg PREMIUM" sheetId="29" r:id="rId1"/>
@@ -852,12 +852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,6 +862,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,17 +1195,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="39" thickBot="1">
@@ -1394,17 +1394,17 @@
       <c r="I8" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:10" ht="39" thickBot="1">
       <c r="A12" s="6" t="s">
@@ -1707,17 +1707,17 @@
       <c r="I22" s="28"/>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9" ht="39" thickBot="1">
       <c r="A26" s="6" t="s">
@@ -2040,17 +2040,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="19" t="s">
@@ -2924,17 +2924,17 @@
       <c r="I31" s="32"/>
     </row>
     <row r="34" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" spans="1:9" ht="39" thickBot="1">
       <c r="A35" s="19" t="s">
@@ -3349,17 +3349,17 @@
       <c r="I49" s="32"/>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
     </row>
     <row r="53" spans="1:9" ht="39" thickBot="1">
       <c r="A53" s="19" t="s">
@@ -3744,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3766,17 +3766,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
@@ -3961,17 +3961,17 @@
       <c r="I8" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:11" ht="39" thickBot="1">
       <c r="A12" s="6" t="s">
@@ -4293,17 +4293,17 @@
       <c r="I23" s="32"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="39" thickBot="1">
       <c r="A27" s="6" t="s">
@@ -4623,17 +4623,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
@@ -5273,17 +5273,17 @@
       <c r="I23" s="32"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
     </row>
     <row r="27" spans="1:9" ht="39" thickBot="1">
       <c r="A27" s="6" t="s">
@@ -5648,17 +5648,17 @@
       <c r="I39" s="32"/>
     </row>
     <row r="42" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
     </row>
     <row r="43" spans="1:9" ht="39" thickBot="1">
       <c r="A43" s="6" t="s">
@@ -6019,18 +6019,18 @@
         <f t="shared" si="28"/>
         <v>2256</v>
       </c>
-      <c r="C55" s="48"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="14">
         <f t="shared" si="25"/>
         <v>2256</v>
       </c>
-      <c r="E55" s="49">
+      <c r="E55" s="47">
         <v>97</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="G55" s="50">
+      <c r="G55" s="48">
         <v>1440</v>
       </c>
       <c r="H55" s="14">
@@ -6043,25 +6043,25 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="45" t="s">
         <v>138</v>
       </c>
       <c r="B56" s="14">
         <f t="shared" si="28"/>
         <v>816</v>
       </c>
-      <c r="C56" s="48"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="14">
         <f t="shared" si="25"/>
         <v>816</v>
       </c>
-      <c r="E56" s="49">
+      <c r="E56" s="47">
         <v>108</v>
       </c>
-      <c r="F56" s="49" t="s">
+      <c r="F56" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="G56" s="50">
+      <c r="G56" s="48">
         <v>600</v>
       </c>
       <c r="H56" s="14">
@@ -6074,25 +6074,25 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="45" t="s">
         <v>147</v>
       </c>
       <c r="B57" s="14">
         <f t="shared" si="28"/>
         <v>216</v>
       </c>
-      <c r="C57" s="48"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="14">
         <f t="shared" si="25"/>
         <v>216</v>
       </c>
-      <c r="E57" s="49">
+      <c r="E57" s="47">
         <v>109</v>
       </c>
-      <c r="F57" s="49" t="s">
+      <c r="F57" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="50">
+      <c r="G57" s="48">
         <v>120</v>
       </c>
       <c r="H57" s="14">
@@ -6105,25 +6105,25 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="45" t="s">
         <v>148</v>
       </c>
       <c r="B58" s="14">
         <f t="shared" si="28"/>
         <v>96</v>
       </c>
-      <c r="C58" s="48"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="14">
         <f t="shared" si="25"/>
         <v>96</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="47">
         <v>112</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G58" s="50">
+      <c r="G58" s="48">
         <v>72</v>
       </c>
       <c r="H58" s="14">
@@ -6136,23 +6136,23 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="45" t="s">
         <v>149</v>
       </c>
       <c r="B59" s="14">
         <f t="shared" si="28"/>
         <v>24</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="46">
         <v>1080</v>
       </c>
       <c r="D59" s="14">
         <f t="shared" si="25"/>
         <v>1104</v>
       </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="50"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="48"/>
       <c r="H59" s="14">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -6163,25 +6163,25 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="45" t="s">
         <v>149</v>
       </c>
       <c r="B60" s="14">
         <f t="shared" si="28"/>
         <v>1104</v>
       </c>
-      <c r="C60" s="48"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="14">
         <f t="shared" si="25"/>
         <v>1104</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="47">
         <v>113</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F60" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="50">
+      <c r="G60" s="48">
         <v>720</v>
       </c>
       <c r="H60" s="14">
@@ -6227,7 +6227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -6246,17 +6246,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="39.75" thickBot="1">
@@ -7229,17 +7229,17 @@
       <c r="I35" s="32"/>
     </row>
     <row r="38" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
     </row>
     <row r="39" spans="1:9" ht="39.75" thickBot="1">
       <c r="A39" s="6" t="s">
@@ -7921,17 +7921,17 @@
       <c r="I62" s="32"/>
     </row>
     <row r="65" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
     </row>
     <row r="66" spans="1:9" ht="39.75" thickBot="1">
       <c r="A66" s="6" t="s">
@@ -8538,17 +8538,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="51.75" thickBot="1">
@@ -8763,17 +8763,17 @@
       <c r="I9" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:10" ht="51.75" thickBot="1">
       <c r="A13" s="6" t="s">
@@ -8871,17 +8871,17 @@
       <c r="I16" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" ht="51.75" thickBot="1">
       <c r="A20" s="6" t="s">
@@ -9177,17 +9177,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
@@ -9745,17 +9745,17 @@
       <c r="I21" s="32"/>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9" ht="39" thickBot="1">
       <c r="A26" s="6" t="s">
@@ -10108,17 +10108,17 @@
       <c r="I38" s="32"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9" ht="39" thickBot="1">
       <c r="A42" s="6" t="s">
@@ -10468,17 +10468,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
@@ -10638,17 +10638,17 @@
       <c r="I7" s="32"/>
     </row>
     <row r="10" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="39" thickBot="1">
       <c r="A11" s="6" t="s">
@@ -10943,17 +10943,17 @@
       <c r="I21" s="32"/>
     </row>
     <row r="24" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9" ht="39" thickBot="1">
       <c r="A25" s="6" t="s">
@@ -11243,17 +11243,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="51" customHeight="1" thickBot="1">
       <c r="A2" s="6" t="s">
@@ -12144,17 +12144,17 @@
       <c r="I32" s="32"/>
     </row>
     <row r="35" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" spans="1:9" ht="39.75" thickBot="1">
       <c r="A36" s="6" t="s">
@@ -12836,17 +12836,17 @@
       <c r="I59" s="32"/>
     </row>
     <row r="62" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A62" s="45" t="s">
+      <c r="A62" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
     </row>
     <row r="63" spans="1:9" ht="39.75" thickBot="1">
       <c r="A63" s="6" t="s">
@@ -13456,17 +13456,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="39.75" thickBot="1">
       <c r="A2" s="6" t="s">
@@ -14384,17 +14384,17 @@
       <c r="I33" s="32"/>
     </row>
     <row r="36" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
     </row>
     <row r="37" spans="1:9" ht="39.75" thickBot="1">
       <c r="A37" s="6" t="s">
@@ -14931,17 +14931,17 @@
       <c r="I55" s="32"/>
     </row>
     <row r="58" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
     </row>
     <row r="59" spans="1:9" ht="39.75" thickBot="1">
       <c r="A59" s="6" t="s">
@@ -15433,7 +15433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
@@ -15451,17 +15451,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
@@ -17354,17 +17354,17 @@
       <c r="I66" s="32"/>
     </row>
     <row r="69" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
     </row>
     <row r="70" spans="1:9" ht="39" thickBot="1">
       <c r="A70" s="6" t="s">
@@ -18413,17 +18413,17 @@
       <c r="I106" s="32"/>
     </row>
     <row r="109" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
     </row>
     <row r="110" spans="1:9" ht="39" thickBot="1">
       <c r="A110" s="6" t="s">

--- a/FINISHED GOODS REGISTER 2021-22.xlsx
+++ b/FINISHED GOODS REGISTER 2021-22.xlsx
@@ -3744,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4366,10 +4366,12 @@
         <f>I28</f>
         <v>1800</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13">
+        <v>1800</v>
+      </c>
       <c r="D29" s="14">
         <f t="shared" ref="D29:D37" si="31">B29+C29</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E29" s="17">
         <v>76</v>
@@ -4384,19 +4386,19 @@
       </c>
       <c r="I29" s="15">
         <f t="shared" ref="I29:I37" si="33">D29-H29</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="9"/>
       <c r="B30" s="16">
         <f t="shared" ref="B30:B37" si="34">I29</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="14">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
@@ -4407,19 +4409,19 @@
       </c>
       <c r="I30" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="9"/>
       <c r="B31" s="16">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="8"/>
@@ -4430,19 +4432,19 @@
       </c>
       <c r="I31" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="9"/>
       <c r="B32" s="16">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="8"/>
@@ -4453,19 +4455,19 @@
       </c>
       <c r="I32" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="9"/>
       <c r="B33" s="16">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="8"/>
@@ -4476,19 +4478,19 @@
       </c>
       <c r="I33" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="9"/>
       <c r="B34" s="16">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="8"/>
@@ -4499,19 +4501,19 @@
       </c>
       <c r="I34" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="9"/>
       <c r="B35" s="16">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="8"/>
@@ -4522,19 +4524,19 @@
       </c>
       <c r="I35" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="9"/>
       <c r="B36" s="16">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="8"/>
@@ -4545,19 +4547,19 @@
       </c>
       <c r="I36" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1">
       <c r="A37" s="9"/>
       <c r="B37" s="16">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="8"/>
@@ -4568,7 +4570,7 @@
       </c>
       <c r="I37" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
@@ -4578,7 +4580,7 @@
       <c r="B38" s="31"/>
       <c r="C38" s="34">
         <f>SUM(C28:C37)</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
